--- a/SourceData/rapid/RPModData.xlsx
+++ b/SourceData/rapid/RPModData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\rapid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620CAEC-8EB4-4BF5-A6C8-4091F993ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BB9F06-0118-4921-91E8-41D54B0AC2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
+    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryDefaultsDB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="173">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -555,6 +555,9 @@
   <si>
     <t>&lt;Teacher Ratio (Secondary)&gt;</t>
   </si>
+  <si>
+    <t>&lt;GDP Boost per Percent Change in CDR&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -589,9 +592,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,15 +928,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E9563F-74D8-43BC-A614-79D5A72BD767}">
-  <dimension ref="A1:BW42"/>
+  <dimension ref="A1:BX42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BP1" sqref="BP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -1137,31 +1139,34 @@
         <v>135</v>
       </c>
       <c r="BP1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>159</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>160</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>161</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>162</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>136</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>137</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>138</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1337,31 +1342,34 @@
         <v>49.808999999999997</v>
       </c>
       <c r="BP2">
+        <v>0.5</v>
+      </c>
+      <c r="BQ2">
         <v>43.685000000000002</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>19.507000000000001</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>65.031000000000006</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>-0.9348333333333334</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>-1.06</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>-5.13</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>-12.690000000000001</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24</v>
       </c>
@@ -1537,31 +1545,34 @@
         <v>76.372</v>
       </c>
       <c r="BP3">
+        <v>0.5</v>
+      </c>
+      <c r="BQ3">
         <v>21.684999999999999</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>20.768000000000001</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>22.568999999999999</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <v>-1.5366666666666667E-2</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>-4</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>-8</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>-10</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
@@ -1737,31 +1748,34 @@
         <v>58.328000000000003</v>
       </c>
       <c r="BP4">
+        <v>0.5</v>
+      </c>
+      <c r="BQ4">
         <v>29.998000000000001</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>10.89</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <v>47.76</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <v>-1.0826666666666667</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>-2.4</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>-2.6</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>-2.8000000000000003</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>204</v>
       </c>
@@ -1937,31 +1951,34 @@
         <v>62.741</v>
       </c>
       <c r="BP5">
+        <v>0.5</v>
+      </c>
+      <c r="BQ5">
         <v>15.196</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>12.922000000000001</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>17.506</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <v>-1.9555666666666665</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>-3.29</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>-6.81</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>-8.58</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>0.27</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>854</v>
       </c>
@@ -2137,31 +2154,34 @@
         <v>44.893000000000001</v>
       </c>
       <c r="BP6">
+        <v>0.5</v>
+      </c>
+      <c r="BQ6">
         <v>34.25</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>27.038</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <v>39.517000000000003</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <v>-1.9608000000000001</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <v>-3.1</v>
       </c>
-      <c r="BU6">
+      <c r="BV6">
         <v>-6.5</v>
       </c>
-      <c r="BV6">
+      <c r="BW6">
         <v>-8.2000000000000011</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>108</v>
       </c>
@@ -2337,31 +2357,34 @@
         <v>78.557000000000002</v>
       </c>
       <c r="BP7">
+        <v>0.5</v>
+      </c>
+      <c r="BQ7">
         <v>11.167</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>11.458</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <v>10.942</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <v>-0.80233333333333334</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <v>-2.6100000000000003</v>
       </c>
-      <c r="BU7">
+      <c r="BV7">
         <v>-5.6899999999999995</v>
       </c>
-      <c r="BV7">
+      <c r="BW7">
         <v>-7.23</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>116</v>
       </c>
@@ -2537,31 +2560,34 @@
         <v>79.510000000000005</v>
       </c>
       <c r="BP8">
+        <v>0.5</v>
+      </c>
+      <c r="BQ8">
         <v>6.1879999999999997</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>8.1140000000000008</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>-2.1580000000000004</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <v>-1.25</v>
       </c>
-      <c r="BU8">
+      <c r="BV8">
         <v>-2.31</v>
       </c>
-      <c r="BV8">
+      <c r="BW8">
         <v>-3.38</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>120</v>
       </c>
@@ -2737,31 +2763,34 @@
         <v>3</v>
       </c>
       <c r="BP9">
+        <v>0.5</v>
+      </c>
+      <c r="BQ9">
         <v>23.222999999999999</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>14.702999999999999</v>
       </c>
-      <c r="BR9">
+      <c r="BS9">
         <v>30.417999999999999</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <v>-0.87073333333333325</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <v>-3.44</v>
       </c>
-      <c r="BU9">
+      <c r="BV9">
         <v>-7.06</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
         <v>-8.8800000000000008</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>384</v>
       </c>
@@ -2937,31 +2966,34 @@
         <v>64.683999999999997</v>
       </c>
       <c r="BP10">
+        <v>0.5</v>
+      </c>
+      <c r="BQ10">
         <v>18.777000000000001</v>
       </c>
-      <c r="BQ10">
+      <c r="BR10">
         <v>12.782999999999999</v>
       </c>
-      <c r="BR10">
+      <c r="BS10">
         <v>24.550999999999998</v>
       </c>
-      <c r="BS10">
+      <c r="BT10">
         <v>-2.4513333333333334</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <v>-0.75</v>
       </c>
-      <c r="BU10">
+      <c r="BV10">
         <v>-2.19</v>
       </c>
-      <c r="BV10">
+      <c r="BW10">
         <v>-3.63</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>180</v>
       </c>
@@ -3137,31 +3169,34 @@
         <v>63.44</v>
       </c>
       <c r="BP11">
+        <v>0.5</v>
+      </c>
+      <c r="BQ11">
         <v>31.373000000000001</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>28.661000000000001</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <v>33.880000000000003</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <v>-0.26999999999999996</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>-3.51</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>-7.19</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>-9.0300000000000011</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>818</v>
       </c>
@@ -3337,31 +3372,34 @@
         <v>42.987000000000002</v>
       </c>
       <c r="BP12">
+        <v>0.5</v>
+      </c>
+      <c r="BQ12">
         <v>26.92</v>
       </c>
-      <c r="BQ12">
+      <c r="BR12">
         <v>15.833</v>
       </c>
-      <c r="BR12">
+      <c r="BS12">
         <v>40.116999999999997</v>
       </c>
-      <c r="BS12">
+      <c r="BT12">
         <v>-0.23016666666666666</v>
       </c>
-      <c r="BT12">
+      <c r="BU12">
         <v>-2.08</v>
       </c>
-      <c r="BU12">
+      <c r="BV12">
         <v>-5.35</v>
       </c>
-      <c r="BV12">
+      <c r="BW12">
         <v>-11.23</v>
       </c>
-      <c r="BW12">
+      <c r="BX12">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>231</v>
       </c>
@@ -3537,31 +3575,34 @@
         <v>68.253</v>
       </c>
       <c r="BP13">
+        <v>0.5</v>
+      </c>
+      <c r="BQ13">
         <v>17.529</v>
       </c>
-      <c r="BQ13">
+      <c r="BR13">
         <v>9.8689999999999998</v>
       </c>
-      <c r="BR13">
+      <c r="BS13">
         <v>24.875</v>
       </c>
-      <c r="BS13">
+      <c r="BT13">
         <v>0</v>
       </c>
-      <c r="BT13">
+      <c r="BU13">
         <v>-3.3300000000000005</v>
       </c>
-      <c r="BU13">
+      <c r="BV13">
         <v>-6.88</v>
       </c>
-      <c r="BV13">
+      <c r="BW13">
         <v>-8.6499999999999986</v>
       </c>
-      <c r="BW13">
+      <c r="BX13">
         <v>0.33999999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>288</v>
       </c>
@@ -3737,31 +3778,34 @@
         <v>71.34</v>
       </c>
       <c r="BP14">
+        <v>0.5</v>
+      </c>
+      <c r="BQ14">
         <v>27.734000000000002</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>25.393999999999998</v>
       </c>
-      <c r="BR14">
+      <c r="BS14">
         <v>29.916</v>
       </c>
-      <c r="BS14">
+      <c r="BT14">
         <v>-2.5381</v>
       </c>
-      <c r="BT14">
+      <c r="BU14">
         <v>-3.4000000000000004</v>
       </c>
-      <c r="BU14">
+      <c r="BV14">
         <v>-7.0000000000000009</v>
       </c>
-      <c r="BV14">
+      <c r="BW14">
         <v>-8.7999999999999989</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>320</v>
       </c>
@@ -3937,31 +3981,34 @@
         <v>60.241</v>
       </c>
       <c r="BP15">
+        <v>0.5</v>
+      </c>
+      <c r="BQ15">
         <v>29.552</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>12.897</v>
       </c>
-      <c r="BR15">
+      <c r="BS15">
         <v>44.347000000000001</v>
       </c>
-      <c r="BS15">
+      <c r="BT15">
         <v>-0.10626666666666666</v>
       </c>
-      <c r="BT15">
+      <c r="BU15">
         <v>-2.8000000000000003</v>
       </c>
-      <c r="BU15">
+      <c r="BV15">
         <v>-6</v>
       </c>
-      <c r="BV15">
+      <c r="BW15">
         <v>-7.6</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>324</v>
       </c>
@@ -4137,31 +4184,34 @@
         <v>52.878999999999998</v>
       </c>
       <c r="BP16">
+        <v>0.5</v>
+      </c>
+      <c r="BQ16">
         <v>34.301000000000002</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>24.844999999999999</v>
       </c>
-      <c r="BR16">
+      <c r="BS16">
         <v>41.491999999999997</v>
       </c>
-      <c r="BS16">
+      <c r="BT16">
         <v>-0.81636666666666668</v>
       </c>
-      <c r="BT16">
+      <c r="BU16">
         <v>-1</v>
       </c>
-      <c r="BU16">
+      <c r="BV16">
         <v>-2.25</v>
       </c>
-      <c r="BV16">
+      <c r="BW16">
         <v>-3.5000000000000004</v>
       </c>
-      <c r="BW16">
+      <c r="BX16">
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>332</v>
       </c>
@@ -4336,8 +4386,8 @@
       <c r="BO17" t="s">
         <v>3</v>
       </c>
-      <c r="BP17" t="s">
-        <v>3</v>
+      <c r="BP17">
+        <v>0.5</v>
       </c>
       <c r="BQ17" t="s">
         <v>3</v>
@@ -4345,23 +4395,26 @@
       <c r="BR17" t="s">
         <v>3</v>
       </c>
-      <c r="BS17">
+      <c r="BS17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT17">
         <v>-1.1048333333333333</v>
       </c>
-      <c r="BT17">
+      <c r="BU17">
         <v>-3.0300000000000002</v>
       </c>
-      <c r="BU17">
+      <c r="BV17">
         <v>-6.38</v>
       </c>
-      <c r="BV17">
+      <c r="BW17">
         <v>-8.0500000000000007</v>
       </c>
-      <c r="BW17">
+      <c r="BX17">
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>356</v>
       </c>
@@ -4537,31 +4590,34 @@
         <v>52.353999999999999</v>
       </c>
       <c r="BP18">
+        <v>0.5</v>
+      </c>
+      <c r="BQ18">
         <v>23.494</v>
       </c>
-      <c r="BQ18">
+      <c r="BR18">
         <v>10.231</v>
       </c>
-      <c r="BR18">
+      <c r="BS18">
         <v>38.127000000000002</v>
       </c>
-      <c r="BS18">
+      <c r="BT18">
         <v>-1.1015333333333333</v>
       </c>
-      <c r="BT18">
+      <c r="BU18">
         <v>-2.25</v>
       </c>
-      <c r="BU18">
+      <c r="BV18">
         <v>-2.56</v>
       </c>
-      <c r="BV18">
+      <c r="BW18">
         <v>-2.88</v>
       </c>
-      <c r="BW18">
+      <c r="BX18">
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>400</v>
       </c>
@@ -4737,31 +4793,34 @@
         <v>38.67</v>
       </c>
       <c r="BP19">
+        <v>0.5</v>
+      </c>
+      <c r="BQ19">
         <v>31.495000000000001</v>
       </c>
-      <c r="BQ19">
+      <c r="BR19">
         <v>27.486000000000001</v>
       </c>
-      <c r="BR19">
+      <c r="BS19">
         <v>36.055</v>
       </c>
-      <c r="BS19">
+      <c r="BT19">
         <v>-4.8766666666666666E-2</v>
       </c>
-      <c r="BT19">
+      <c r="BU19">
         <v>-2.98</v>
       </c>
-      <c r="BU19">
+      <c r="BV19">
         <v>-5.55</v>
       </c>
-      <c r="BV19">
+      <c r="BW19">
         <v>-9.93</v>
       </c>
-      <c r="BW19">
+      <c r="BX19">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>404</v>
       </c>
@@ -4964,31 +5023,34 @@
         <v>67.462000000000003</v>
       </c>
       <c r="BP20">
+        <v>0.5</v>
+      </c>
+      <c r="BQ20">
         <v>18.733000000000001</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>12.206</v>
       </c>
-      <c r="BR20">
+      <c r="BS20">
         <v>24.966999999999999</v>
       </c>
-      <c r="BS20">
+      <c r="BT20">
         <v>-5.6599999999999998E-2</v>
       </c>
-      <c r="BT20">
+      <c r="BU20">
         <v>-4</v>
       </c>
-      <c r="BU20">
+      <c r="BV20">
         <v>-8</v>
       </c>
-      <c r="BV20">
+      <c r="BW20">
         <v>-10</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>0.31</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>430</v>
       </c>
@@ -5164,31 +5226,34 @@
         <v>46.587000000000003</v>
       </c>
       <c r="BP21">
+        <v>0.5</v>
+      </c>
+      <c r="BQ21">
         <v>40.780999999999999</v>
       </c>
-      <c r="BQ21">
+      <c r="BR21">
         <v>39.854999999999997</v>
       </c>
-      <c r="BR21">
+      <c r="BS21">
         <v>41.554000000000002</v>
       </c>
-      <c r="BS21">
+      <c r="BT21">
         <v>-1.3322000000000001</v>
       </c>
-      <c r="BT21">
+      <c r="BU21">
         <v>-0.85000000000000009</v>
       </c>
-      <c r="BU21">
+      <c r="BV21">
         <v>-2.21</v>
       </c>
-      <c r="BV21">
+      <c r="BW21">
         <v>-3.58</v>
       </c>
-      <c r="BW21">
+      <c r="BX21">
         <v>0.27</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>450</v>
       </c>
@@ -5364,31 +5429,34 @@
         <v>86.381</v>
       </c>
       <c r="BP22">
+        <v>0.5</v>
+      </c>
+      <c r="BQ22">
         <v>24.488</v>
       </c>
-      <c r="BQ22">
+      <c r="BR22">
         <v>18.661999999999999</v>
       </c>
-      <c r="BR22">
+      <c r="BS22">
         <v>30.102</v>
       </c>
-      <c r="BS22">
+      <c r="BT22">
         <v>-0.83770000000000011</v>
       </c>
-      <c r="BT22">
+      <c r="BU22">
         <v>-1.9</v>
       </c>
-      <c r="BU22">
+      <c r="BV22">
         <v>-2.48</v>
       </c>
-      <c r="BV22">
+      <c r="BW22">
         <v>-3.05</v>
       </c>
-      <c r="BW22">
+      <c r="BX22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>454</v>
       </c>
@@ -5564,31 +5632,34 @@
         <v>68.27</v>
       </c>
       <c r="BP23">
+        <v>0.5</v>
+      </c>
+      <c r="BQ23">
         <v>19.41</v>
       </c>
-      <c r="BQ23">
+      <c r="BR23">
         <v>13.664999999999999</v>
       </c>
-      <c r="BR23">
+      <c r="BS23">
         <v>24.887</v>
       </c>
-      <c r="BS23">
+      <c r="BT23">
         <v>-0.51616666666666666</v>
       </c>
-      <c r="BT23">
+      <c r="BU23">
         <v>-3.0300000000000002</v>
       </c>
-      <c r="BU23">
+      <c r="BV23">
         <v>-6.38</v>
       </c>
-      <c r="BV23">
+      <c r="BW23">
         <v>-8.0500000000000007</v>
       </c>
-      <c r="BW23">
+      <c r="BX23">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>466</v>
       </c>
@@ -5764,31 +5835,34 @@
         <v>65.915999999999997</v>
       </c>
       <c r="BP24">
+        <v>0.5</v>
+      </c>
+      <c r="BQ24">
         <v>30.861999999999998</v>
       </c>
-      <c r="BQ24">
+      <c r="BR24">
         <v>15.21</v>
       </c>
-      <c r="BR24">
+      <c r="BS24">
         <v>43.316000000000003</v>
       </c>
-      <c r="BS24">
+      <c r="BT24">
         <v>-1.3322000000000001</v>
       </c>
-      <c r="BT24">
+      <c r="BU24">
         <v>-3.36</v>
       </c>
-      <c r="BU24">
+      <c r="BV24">
         <v>-6.94</v>
       </c>
-      <c r="BV24">
+      <c r="BW24">
         <v>-8.73</v>
       </c>
-      <c r="BW24">
+      <c r="BX24">
         <v>0.27</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>478</v>
       </c>
@@ -5964,31 +6038,34 @@
         <v>45.466999999999999</v>
       </c>
       <c r="BP25">
+        <v>0.5</v>
+      </c>
+      <c r="BQ25">
         <v>44.085000000000001</v>
       </c>
-      <c r="BQ25">
+      <c r="BR25">
         <v>32.026000000000003</v>
       </c>
-      <c r="BR25">
+      <c r="BS25">
         <v>54.847000000000001</v>
       </c>
-      <c r="BS25">
+      <c r="BT25">
         <v>-1.3322000000000001</v>
       </c>
-      <c r="BT25">
+      <c r="BU25">
         <v>-0.85000000000000009</v>
       </c>
-      <c r="BU25">
+      <c r="BV25">
         <v>-2.21</v>
       </c>
-      <c r="BV25">
+      <c r="BW25">
         <v>-3.58</v>
       </c>
-      <c r="BW25">
+      <c r="BX25">
         <v>0.27</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>508</v>
       </c>
@@ -6163,8 +6240,8 @@
       <c r="BO26">
         <v>79.052999999999997</v>
       </c>
-      <c r="BP26" t="s">
-        <v>3</v>
+      <c r="BP26">
+        <v>0.5</v>
       </c>
       <c r="BQ26" t="s">
         <v>3</v>
@@ -6172,23 +6249,26 @@
       <c r="BR26" t="s">
         <v>3</v>
       </c>
-      <c r="BS26">
+      <c r="BS26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT26">
         <v>-0.90426666666666655</v>
       </c>
-      <c r="BT26">
+      <c r="BU26">
         <v>-2.6100000000000003</v>
       </c>
-      <c r="BU26">
+      <c r="BV26">
         <v>-5.6899999999999995</v>
       </c>
-      <c r="BV26">
+      <c r="BW26">
         <v>-7.23</v>
       </c>
-      <c r="BW26">
+      <c r="BX26">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>524</v>
       </c>
@@ -6364,31 +6444,34 @@
         <v>39.914999999999999</v>
       </c>
       <c r="BP27">
+        <v>0.5</v>
+      </c>
+      <c r="BQ27">
         <v>34.762999999999998</v>
       </c>
-      <c r="BQ27">
+      <c r="BR27">
         <v>21.155999999999999</v>
       </c>
-      <c r="BR27">
+      <c r="BS27">
         <v>45.817</v>
       </c>
-      <c r="BS27">
+      <c r="BT27">
         <v>-0.37036666666666662</v>
       </c>
-      <c r="BT27">
+      <c r="BU27">
         <v>-2.8000000000000003</v>
       </c>
-      <c r="BU27">
+      <c r="BV27">
         <v>-2.7</v>
       </c>
-      <c r="BV27">
+      <c r="BW27">
         <v>-2.6</v>
       </c>
-      <c r="BW27">
+      <c r="BX27">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>562</v>
       </c>
@@ -6564,31 +6647,34 @@
         <v>72.911000000000001</v>
       </c>
       <c r="BP28">
+        <v>0.5</v>
+      </c>
+      <c r="BQ28">
         <v>15.67</v>
       </c>
-      <c r="BQ28">
+      <c r="BR28">
         <v>8.8789999999999996</v>
       </c>
-      <c r="BR28">
+      <c r="BS28">
         <v>21.998999999999999</v>
       </c>
-      <c r="BS28">
+      <c r="BT28">
         <v>-1.3322000000000001</v>
       </c>
-      <c r="BT28">
+      <c r="BU28">
         <v>-0.85000000000000009</v>
       </c>
-      <c r="BU28">
+      <c r="BV28">
         <v>-2.21</v>
       </c>
-      <c r="BV28">
+      <c r="BW28">
         <v>-3.58</v>
       </c>
-      <c r="BW28">
+      <c r="BX28">
         <v>0.27</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>566</v>
       </c>
@@ -6764,31 +6850,34 @@
         <v>81.27</v>
       </c>
       <c r="BP29">
+        <v>0.5</v>
+      </c>
+      <c r="BQ29">
         <v>13.86</v>
       </c>
-      <c r="BQ29">
+      <c r="BR29">
         <v>8.82</v>
       </c>
-      <c r="BR29">
+      <c r="BS29">
         <v>18.922000000000001</v>
       </c>
-      <c r="BS29">
+      <c r="BT29">
         <v>-2.7365333333333335</v>
       </c>
-      <c r="BT29">
+      <c r="BU29">
         <v>-3.3300000000000005</v>
       </c>
-      <c r="BU29">
+      <c r="BV29">
         <v>-6.88</v>
       </c>
-      <c r="BV29">
+      <c r="BW29">
         <v>-8.6499999999999986</v>
       </c>
-      <c r="BW29">
+      <c r="BX29">
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>586</v>
       </c>
@@ -6964,31 +7053,34 @@
         <v>52.73</v>
       </c>
       <c r="BP30">
+        <v>0.5</v>
+      </c>
+      <c r="BQ30">
         <v>34.564</v>
       </c>
-      <c r="BQ30">
+      <c r="BR30">
         <v>13.59</v>
       </c>
-      <c r="BR30">
+      <c r="BS30">
         <v>56.417000000000002</v>
       </c>
-      <c r="BS30">
+      <c r="BT30">
         <v>-0.40556666666666669</v>
       </c>
-      <c r="BT30">
+      <c r="BU30">
         <v>-2.75</v>
       </c>
-      <c r="BU30">
+      <c r="BV30">
         <v>-5.5</v>
       </c>
-      <c r="BV30">
+      <c r="BW30">
         <v>-10.25</v>
       </c>
-      <c r="BW30">
+      <c r="BX30">
         <v>0.26</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>608</v>
       </c>
@@ -7164,31 +7256,34 @@
         <v>56.470999999999997</v>
       </c>
       <c r="BP31">
+        <v>0.5</v>
+      </c>
+      <c r="BQ31">
         <v>12.756</v>
       </c>
-      <c r="BQ31">
+      <c r="BR31">
         <v>10.201000000000001</v>
       </c>
-      <c r="BR31">
+      <c r="BS31">
         <v>15.436</v>
       </c>
-      <c r="BS31">
+      <c r="BT31">
         <v>-1.5609999999999999</v>
       </c>
-      <c r="BT31">
+      <c r="BU31">
         <v>-1.3</v>
       </c>
-      <c r="BU31">
+      <c r="BV31">
         <v>-2.33</v>
       </c>
-      <c r="BV31">
+      <c r="BW31">
         <v>-3.35</v>
       </c>
-      <c r="BW31">
+      <c r="BX31">
         <v>0.27</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>646</v>
       </c>
@@ -7364,31 +7459,34 @@
         <v>60.161999999999999</v>
       </c>
       <c r="BP32">
+        <v>0.5</v>
+      </c>
+      <c r="BQ32">
         <v>27.922999999999998</v>
       </c>
-      <c r="BQ32">
+      <c r="BR32">
         <v>24.498000000000001</v>
       </c>
-      <c r="BR32">
+      <c r="BS32">
         <v>31.27</v>
       </c>
-      <c r="BS32">
+      <c r="BT32">
         <v>0</v>
       </c>
-      <c r="BT32">
+      <c r="BU32">
         <v>-3.85</v>
       </c>
-      <c r="BU32">
+      <c r="BV32">
         <v>-7.75</v>
       </c>
-      <c r="BV32">
+      <c r="BW32">
         <v>-9.7000000000000011</v>
       </c>
-      <c r="BW32">
+      <c r="BX32">
         <v>0.33</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>686</v>
       </c>
@@ -7564,31 +7662,34 @@
         <v>50.712000000000003</v>
       </c>
       <c r="BP33">
+        <v>0.5</v>
+      </c>
+      <c r="BQ33">
         <v>33.033999999999999</v>
       </c>
-      <c r="BQ33">
+      <c r="BR33">
         <v>22.216000000000001</v>
       </c>
-      <c r="BR33">
+      <c r="BS33">
         <v>42.424999999999997</v>
       </c>
-      <c r="BS33">
+      <c r="BT33">
         <v>-1.2255333333333334</v>
       </c>
-      <c r="BT33">
+      <c r="BU33">
         <v>-1.4500000000000002</v>
       </c>
-      <c r="BU33">
+      <c r="BV33">
         <v>-2.36</v>
       </c>
-      <c r="BV33">
+      <c r="BW33">
         <v>-3.2800000000000002</v>
       </c>
-      <c r="BW33">
+      <c r="BX33">
         <v>0.26</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>694</v>
       </c>
@@ -7764,31 +7865,34 @@
         <v>53.911999999999999</v>
       </c>
       <c r="BP34">
+        <v>0.5</v>
+      </c>
+      <c r="BQ34">
         <v>33.167000000000002</v>
       </c>
-      <c r="BQ34">
+      <c r="BR34">
         <v>31.227</v>
       </c>
-      <c r="BR34">
+      <c r="BS34">
         <v>34.813000000000002</v>
       </c>
-      <c r="BS34">
+      <c r="BT34">
         <v>-1.3322000000000001</v>
       </c>
-      <c r="BT34">
+      <c r="BU34">
         <v>-0.85000000000000009</v>
       </c>
-      <c r="BU34">
+      <c r="BV34">
         <v>-2.21</v>
       </c>
-      <c r="BV34">
+      <c r="BW34">
         <v>-3.58</v>
       </c>
-      <c r="BW34">
+      <c r="BX34">
         <v>0.27</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>728</v>
       </c>
@@ -7963,8 +8067,8 @@
       <c r="BO35" t="s">
         <v>3</v>
       </c>
-      <c r="BP35" t="s">
-        <v>3</v>
+      <c r="BP35">
+        <v>0.5</v>
       </c>
       <c r="BQ35" t="s">
         <v>3</v>
@@ -7972,23 +8076,26 @@
       <c r="BR35" t="s">
         <v>3</v>
       </c>
-      <c r="BS35">
+      <c r="BS35" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT35">
         <v>-4.1400000000000006E-2</v>
       </c>
-      <c r="BT35">
+      <c r="BU35">
         <v>-1.49</v>
       </c>
-      <c r="BU35">
+      <c r="BV35">
         <v>-3.81</v>
       </c>
-      <c r="BV35">
+      <c r="BW35">
         <v>-4.9799999999999995</v>
       </c>
-      <c r="BW35">
+      <c r="BX35">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>834</v>
       </c>
@@ -8164,31 +8271,34 @@
         <v>80.391999999999996</v>
       </c>
       <c r="BP36">
+        <v>0.5</v>
+      </c>
+      <c r="BQ36">
         <v>14.353</v>
       </c>
-      <c r="BQ36">
+      <c r="BR36">
         <v>9.06</v>
       </c>
-      <c r="BR36">
+      <c r="BS36">
         <v>19.286000000000001</v>
       </c>
-      <c r="BS36">
+      <c r="BT36">
         <v>-0.47716666666666663</v>
       </c>
-      <c r="BT36">
+      <c r="BU36">
         <v>-3.51</v>
       </c>
-      <c r="BU36">
+      <c r="BV36">
         <v>-7.19</v>
       </c>
-      <c r="BV36">
+      <c r="BW36">
         <v>-9.0300000000000011</v>
       </c>
-      <c r="BW36">
+      <c r="BX36">
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>626</v>
       </c>
@@ -8364,31 +8474,34 @@
         <v>34.625</v>
       </c>
       <c r="BP37">
+        <v>0.5</v>
+      </c>
+      <c r="BQ37">
         <v>29.122</v>
       </c>
-      <c r="BQ37">
+      <c r="BR37">
         <v>29.053000000000001</v>
       </c>
-      <c r="BR37">
+      <c r="BS37">
         <v>29.192</v>
       </c>
-      <c r="BS37">
+      <c r="BT37">
         <v>-2.1580000000000004</v>
       </c>
-      <c r="BT37">
+      <c r="BU37">
         <v>-3.06</v>
       </c>
-      <c r="BU37">
+      <c r="BV37">
         <v>-6.4399999999999995</v>
       </c>
-      <c r="BV37">
+      <c r="BW37">
         <v>-8.129999999999999</v>
       </c>
-      <c r="BW37">
+      <c r="BX37">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>768</v>
       </c>
@@ -8564,31 +8677,34 @@
         <v>75.251999999999995</v>
       </c>
       <c r="BP38">
+        <v>0.5</v>
+      </c>
+      <c r="BQ38">
         <v>13.250999999999999</v>
       </c>
-      <c r="BQ38">
+      <c r="BR38">
         <v>10.509</v>
       </c>
-      <c r="BR38">
+      <c r="BS38">
         <v>15.775</v>
       </c>
-      <c r="BS38">
+      <c r="BT38">
         <v>-2.2635999999999998</v>
       </c>
-      <c r="BT38">
+      <c r="BU38">
         <v>-3.36</v>
       </c>
-      <c r="BU38">
+      <c r="BV38">
         <v>-6.94</v>
       </c>
-      <c r="BV38">
+      <c r="BW38">
         <v>-8.73</v>
       </c>
-      <c r="BW38">
+      <c r="BX38">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>800</v>
       </c>
@@ -8764,31 +8880,34 @@
         <v>79.201999999999998</v>
       </c>
       <c r="BP39">
+        <v>0.5</v>
+      </c>
+      <c r="BQ39">
         <v>13.805</v>
       </c>
-      <c r="BQ39">
+      <c r="BR39">
         <v>9.4049999999999994</v>
       </c>
-      <c r="BR39">
+      <c r="BS39">
         <v>17.788</v>
       </c>
-      <c r="BS39">
+      <c r="BT39">
         <v>-0.11066666666666666</v>
       </c>
-      <c r="BT39">
+      <c r="BU39">
         <v>-3.8899999999999997</v>
       </c>
-      <c r="BU39">
+      <c r="BV39">
         <v>-7.8100000000000005</v>
       </c>
-      <c r="BV39">
+      <c r="BW39">
         <v>-9.7799999999999994</v>
       </c>
-      <c r="BW39">
+      <c r="BX39">
         <v>0.31</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>887</v>
       </c>
@@ -8963,8 +9082,8 @@
       <c r="BO40" t="s">
         <v>3</v>
       </c>
-      <c r="BP40" t="s">
-        <v>3</v>
+      <c r="BP40">
+        <v>0.5</v>
       </c>
       <c r="BQ40" t="s">
         <v>3</v>
@@ -8972,23 +9091,26 @@
       <c r="BR40" t="s">
         <v>3</v>
       </c>
-      <c r="BS40">
+      <c r="BS40" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT40">
         <v>-9.5599999999999991E-2</v>
       </c>
-      <c r="BT40">
+      <c r="BU40">
         <v>-2.98</v>
       </c>
-      <c r="BU40">
+      <c r="BV40">
         <v>-5.55</v>
       </c>
-      <c r="BV40">
+      <c r="BW40">
         <v>-9.93</v>
       </c>
-      <c r="BW40">
+      <c r="BX40">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>894</v>
       </c>
@@ -9164,31 +9286,34 @@
         <v>60.119</v>
       </c>
       <c r="BP41">
+        <v>0.5</v>
+      </c>
+      <c r="BQ41">
         <v>29.367999999999999</v>
       </c>
-      <c r="BQ41">
+      <c r="BR41">
         <v>25.247</v>
       </c>
-      <c r="BR41">
+      <c r="BS41">
         <v>33.469000000000001</v>
       </c>
-      <c r="BS41">
+      <c r="BT41">
         <v>-0.15919999999999998</v>
       </c>
-      <c r="BT41">
+      <c r="BU41">
         <v>-3.0300000000000002</v>
       </c>
-      <c r="BU41">
+      <c r="BV41">
         <v>-6.38</v>
       </c>
-      <c r="BV41">
+      <c r="BW41">
         <v>-8.0500000000000007</v>
       </c>
-      <c r="BW41">
+      <c r="BX41">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>716</v>
       </c>
@@ -9364,27 +9489,30 @@
         <v>65.397999999999996</v>
       </c>
       <c r="BP42">
+        <v>0.5</v>
+      </c>
+      <c r="BQ42">
         <v>32.235999999999997</v>
       </c>
-      <c r="BQ42">
+      <c r="BR42">
         <v>26.635000000000002</v>
       </c>
-      <c r="BR42">
+      <c r="BS42">
         <v>37.689</v>
       </c>
-      <c r="BS42">
+      <c r="BT42">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="BT42">
+      <c r="BU42">
         <v>-2.6100000000000003</v>
       </c>
-      <c r="BU42">
+      <c r="BV42">
         <v>-5.6899999999999995</v>
       </c>
-      <c r="BV42">
+      <c r="BW42">
         <v>-7.23</v>
       </c>
-      <c r="BW42">
+      <c r="BX42">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -9398,23 +9526,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3057450A-E09F-4265-8443-CBC3C0F00E79}">
   <dimension ref="A1:BG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>99</v>
       </c>
       <c r="D1">
@@ -9587,13 +9712,13 @@
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
@@ -9766,13 +9891,13 @@
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
@@ -9945,13 +10070,13 @@
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
@@ -10124,13 +10249,13 @@
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>204</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
@@ -10303,13 +10428,13 @@
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>854</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
@@ -10482,13 +10607,13 @@
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>108</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
@@ -10661,13 +10786,13 @@
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>116</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
@@ -10840,13 +10965,13 @@
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>120</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9">
@@ -11019,13 +11144,13 @@
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>384</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
@@ -11198,13 +11323,13 @@
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>180</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
@@ -11377,13 +11502,13 @@
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>818</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
@@ -11556,13 +11681,13 @@
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>231</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13">
@@ -11735,13 +11860,13 @@
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>288</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
@@ -11914,13 +12039,13 @@
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>320</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
@@ -12093,13 +12218,13 @@
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>324</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16">
@@ -12272,13 +12397,13 @@
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>332</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17">
@@ -12451,13 +12576,13 @@
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>356</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
@@ -12630,13 +12755,13 @@
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>400</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
@@ -12809,13 +12934,13 @@
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>404</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20">
@@ -12988,13 +13113,13 @@
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>430</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
@@ -13167,13 +13292,13 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>450</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
@@ -13346,13 +13471,13 @@
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>454</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
@@ -13525,13 +13650,13 @@
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>466</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
@@ -13704,13 +13829,13 @@
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>478</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
@@ -13883,13 +14008,13 @@
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>508</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
@@ -14062,13 +14187,13 @@
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>524</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
@@ -14241,13 +14366,13 @@
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>562</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
@@ -14420,13 +14545,13 @@
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>566</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
@@ -14599,13 +14724,13 @@
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>586</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
@@ -14778,13 +14903,13 @@
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>608</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
@@ -14957,13 +15082,13 @@
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>646</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
@@ -15136,13 +15261,13 @@
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>686</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
@@ -15315,13 +15440,13 @@
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>694</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
@@ -15494,13 +15619,13 @@
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>728</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
@@ -15673,13 +15798,13 @@
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>834</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36">
@@ -15852,13 +15977,13 @@
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>626</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37">
@@ -16031,13 +16156,13 @@
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>768</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38">
@@ -16210,13 +16335,13 @@
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>800</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39">
@@ -16389,13 +16514,13 @@
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>887</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40">
@@ -16568,13 +16693,13 @@
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>894</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41">
@@ -16747,13 +16872,13 @@
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>716</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42">
@@ -16939,18 +17064,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>99</v>
       </c>
       <c r="D1">
@@ -17123,13 +17245,13 @@
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
@@ -17302,13 +17424,13 @@
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
@@ -17481,13 +17603,13 @@
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
@@ -17660,13 +17782,13 @@
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>204</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
@@ -17839,13 +17961,13 @@
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>854</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
@@ -18018,13 +18140,13 @@
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>108</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
@@ -18197,13 +18319,13 @@
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>116</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
@@ -18376,13 +18498,13 @@
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>120</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9">
@@ -18555,13 +18677,13 @@
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>384</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
@@ -18734,13 +18856,13 @@
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>180</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
@@ -18913,13 +19035,13 @@
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>818</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
@@ -19092,13 +19214,13 @@
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>231</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13">
@@ -19271,13 +19393,13 @@
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>288</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
@@ -19450,13 +19572,13 @@
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>320</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
@@ -19629,13 +19751,13 @@
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>324</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16">
@@ -19808,13 +19930,13 @@
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>332</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17">
@@ -19987,13 +20109,13 @@
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>356</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
@@ -20166,13 +20288,13 @@
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>400</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
@@ -20345,13 +20467,13 @@
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>404</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20">
@@ -20524,13 +20646,13 @@
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>430</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
@@ -20703,13 +20825,13 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>450</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
@@ -20882,13 +21004,13 @@
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>454</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
@@ -21061,13 +21183,13 @@
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>466</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
@@ -21240,13 +21362,13 @@
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>478</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
@@ -21419,13 +21541,13 @@
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>508</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
@@ -21598,13 +21720,13 @@
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>524</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
@@ -21777,13 +21899,13 @@
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>562</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
@@ -21956,13 +22078,13 @@
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>566</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
@@ -22135,13 +22257,13 @@
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>586</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
@@ -22314,13 +22436,13 @@
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>608</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
@@ -22493,13 +22615,13 @@
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>646</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
@@ -22672,13 +22794,13 @@
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>686</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
@@ -22851,13 +22973,13 @@
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>694</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
@@ -23030,13 +23152,13 @@
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>728</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
@@ -23209,13 +23331,13 @@
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>834</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36">
@@ -23388,13 +23510,13 @@
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>626</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37">
@@ -23567,13 +23689,13 @@
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>768</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38">
@@ -23746,13 +23868,13 @@
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>800</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39">
@@ -23925,13 +24047,13 @@
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>887</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40">
@@ -24104,13 +24226,13 @@
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>894</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41">
@@ -24283,13 +24405,13 @@
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>716</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42">

--- a/SourceData/rapid/RPModData.xlsx
+++ b/SourceData/rapid/RPModData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\rapid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47FFFB7-EEB5-4C0F-834A-C8668DBD3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8594EAEF-9108-4C06-9BED-4A76CEC06E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryDefaultsDB" sheetId="1" r:id="rId1"/>
-    <sheet name="ContraceptiveUseMedDB" sheetId="2" r:id="rId2"/>
-    <sheet name="ContraceptiveUseAccDB" sheetId="3" r:id="rId3"/>
+    <sheet name="CountryDefaultsSourcesDB" sheetId="4" r:id="rId2"/>
+    <sheet name="ContraceptiveUseMedDB" sheetId="2" r:id="rId3"/>
+    <sheet name="ContraceptiveUseAccDB" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="305">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -600,6 +601,360 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>World Bank</t>
+  </si>
+  <si>
+    <t>UN Pop Division</t>
+  </si>
+  <si>
+    <t>Need to enter</t>
+  </si>
+  <si>
+    <t>2015 DHS</t>
+  </si>
+  <si>
+    <t>World Bank, 2020</t>
+  </si>
+  <si>
+    <t>Adding it up - adjusted to 2024</t>
+  </si>
+  <si>
+    <t>World Bank, 2022</t>
+  </si>
+  <si>
+    <t>World Bank, 2018</t>
+  </si>
+  <si>
+    <t>World Bank, 2017</t>
+  </si>
+  <si>
+    <t>Afghanistan 2019-2020 Income, Expenditure &amp; Labour Force Survey; National Statistics and Information Authority</t>
+  </si>
+  <si>
+    <t>World Bank 2020, 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serje et al, 2018 </t>
+  </si>
+  <si>
+    <t>Calculated from AIU All Woman Dataset</t>
+  </si>
+  <si>
+    <t>Hutton &amp; Varughese, 2016; adjusted to 2024</t>
+  </si>
+  <si>
+    <t>https://www.ipcinfo.org/ipcinfo-website/ipc-dashboard/en/ accessed June 2024</t>
+  </si>
+  <si>
+    <t>FAOSTAT - check year</t>
+  </si>
+  <si>
+    <t>FAOSTAT, 2022</t>
+  </si>
+  <si>
+    <t>FAOSTAT - verify</t>
+  </si>
+  <si>
+    <t>FAOSTAT, 2021</t>
+  </si>
+  <si>
+    <t>FAOSTAT, year?</t>
+  </si>
+  <si>
+    <t>World Food Program, 2021; adjusted to 2024</t>
+  </si>
+  <si>
+    <t>GDL,2018</t>
+  </si>
+  <si>
+    <t>World Population Review, 2024</t>
+  </si>
+  <si>
+    <t>ESMAP. 2019. Mini Grids for Half a Billion People: Market Outlook and Handbook for Decision Makers.</t>
+  </si>
+  <si>
+    <t>WHO, 2020</t>
+  </si>
+  <si>
+    <t>BAR-HAP Tool</t>
+  </si>
+  <si>
+    <t>World Bank, 2021</t>
+  </si>
+  <si>
+    <t>Cruz and Ahmed, 2018</t>
+  </si>
+  <si>
+    <t>World Bank 2021</t>
+  </si>
+  <si>
+    <t>Roson &amp; Sartori, 2016</t>
+  </si>
+  <si>
+    <t>Roson &amp; Sartori, 2017</t>
+  </si>
+  <si>
+    <t>Roson &amp; Sartori, 2018</t>
+  </si>
+  <si>
+    <t>Roson &amp; Sartori, 2019</t>
+  </si>
+  <si>
+    <t>Roson &amp; Sartori, 2020</t>
+  </si>
+  <si>
+    <t>2015-16 DHS</t>
+  </si>
+  <si>
+    <t>World Bank, 2015</t>
+  </si>
+  <si>
+    <t>Teacher Salary Index</t>
+  </si>
+  <si>
+    <t>World Bank, 2016</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2015-2016</t>
+  </si>
+  <si>
+    <t>World Bank 2018, 2018</t>
+  </si>
+  <si>
+    <t>IEA, 2022</t>
+  </si>
+  <si>
+    <t>2017-18 DHS</t>
+  </si>
+  <si>
+    <t>Estimated as half secondary costs</t>
+  </si>
+  <si>
+    <t>World Bank, 2019</t>
+  </si>
+  <si>
+    <t>Multiple Indicator Cluster Survey 2019</t>
+  </si>
+  <si>
+    <t>World Bank 2020, 2020</t>
+  </si>
+  <si>
+    <t>World Bank 2022</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2017-2018</t>
+  </si>
+  <si>
+    <t>World Bank 2019, 2019</t>
+  </si>
+  <si>
+    <t>2021 DHS</t>
+  </si>
+  <si>
+    <t>Multisectoral Continuous Survey Demographic and Health Module 2015</t>
+  </si>
+  <si>
+    <t>World Bank 2023</t>
+  </si>
+  <si>
+    <t>2016-17 DHS</t>
+  </si>
+  <si>
+    <t>World Bank, 2013</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2016-2017</t>
+  </si>
+  <si>
+    <t>World Bank 2020</t>
+  </si>
+  <si>
+    <t>2021-22 DHS</t>
+  </si>
+  <si>
+    <t>World Bank, 2014</t>
+  </si>
+  <si>
+    <t>Estimated as 2x primary costs</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2014</t>
+  </si>
+  <si>
+    <t>World Bank 2014, 2019</t>
+  </si>
+  <si>
+    <t>2022 MIS</t>
+  </si>
+  <si>
+    <t>World Bank, 2012</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2018</t>
+  </si>
+  <si>
+    <t>Multiple Indicator Cluster Survey 2016</t>
+  </si>
+  <si>
+    <t>2013-14 DHS</t>
+  </si>
+  <si>
+    <t>Multiple Indicator Cluster Survey 2017-2018</t>
+  </si>
+  <si>
+    <t>2014 DHS</t>
+  </si>
+  <si>
+    <t>World Bank 2019, 2018</t>
+  </si>
+  <si>
+    <t>2019 DHS</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey (Mini) 2019</t>
+  </si>
+  <si>
+    <t>2022 DHS</t>
+  </si>
+  <si>
+    <t>2014-15 DHS</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2014-2015</t>
+  </si>
+  <si>
+    <t>2021 MIS</t>
+  </si>
+  <si>
+    <t>World Bank 2019</t>
+  </si>
+  <si>
+    <t>World Bank na</t>
+  </si>
+  <si>
+    <t>2019-21 DHS</t>
+  </si>
+  <si>
+    <t>National Family Health Survey 2019-2021 (Final report)</t>
+  </si>
+  <si>
+    <t>Jordan Population and Family and Health Survey  2017-18. Amman, Jordan, and Rockville, Maryland, USA: DOS and ICF</t>
+  </si>
+  <si>
+    <t>Statistica 2022 (calculated)</t>
+  </si>
+  <si>
+    <t>New TSC salary scale and grading system for teachers in 2024 - Tuko.co.ke</t>
+  </si>
+  <si>
+    <t>Malaria Indicator Survey 2020</t>
+  </si>
+  <si>
+    <t>Kang’ethe, E., Mutua, F., Roesel, K. and Grace, D. 2020. Food safety landscape analysis: The maize value chain in Kenya. Nairobi, Kenya: ILRI.</t>
+  </si>
+  <si>
+    <t>World Data Info, 2024</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2019-2020</t>
+  </si>
+  <si>
+    <t>World Bank 2017</t>
+  </si>
+  <si>
+    <t>Multiple Indicator Cluster Survey 2018</t>
+  </si>
+  <si>
+    <t>2017 MIS</t>
+  </si>
+  <si>
+    <t>Multiple Indicator Cluster Survey 2019-2020</t>
+  </si>
+  <si>
+    <t>Multiple Indicator Cluster Survey 2015</t>
+  </si>
+  <si>
+    <t>2022-23 DHS</t>
+  </si>
+  <si>
+    <t>Malaria Indicator Survey 2018</t>
+  </si>
+  <si>
+    <t>2018 MIS</t>
+  </si>
+  <si>
+    <t>L’Enquête Nationale sur la Fécondité et la Mortalité des Enfants (Résultats préliminaires), ENAFEME Niger 2021</t>
+  </si>
+  <si>
+    <t>World Bank 2018, 2019</t>
+  </si>
+  <si>
+    <t>Pakistan Mortality Survey 2019</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2017</t>
+  </si>
+  <si>
+    <t>World Bank 2020, 2019</t>
+  </si>
+  <si>
+    <t>2019-20 DHS</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey Key Indicators Report 2019-2020</t>
+  </si>
+  <si>
+    <t>2020-21 MIS</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2019</t>
+  </si>
+  <si>
+    <t>World Bank 2018</t>
+  </si>
+  <si>
+    <t>2022 IOM</t>
+  </si>
+  <si>
+    <t>Malaria Indicator Survey 2017</t>
+  </si>
+  <si>
+    <t>maybe look at DHS?</t>
+  </si>
+  <si>
+    <t>2016 DHS</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2016</t>
+  </si>
+  <si>
+    <t>GDL,2019</t>
+  </si>
+  <si>
+    <t>World Bank, 2011</t>
+  </si>
+  <si>
+    <t>Multiple Indicator Cluster Survey 2017</t>
+  </si>
+  <si>
+    <t>2018-19 MIS</t>
+  </si>
+  <si>
+    <t>Uganda Malaria Indicator Survey 2018-19. Kampala, Uganda, and Rockville, Maryland, USA: NMCD, UBOS, and ICF.</t>
+  </si>
+  <si>
+    <t>2013 DHS</t>
+  </si>
+  <si>
+    <t>World Bank 2014, 2018</t>
+  </si>
+  <si>
+    <t>2018 DHS</t>
+  </si>
+  <si>
+    <t>Demographic and Health Survey 2018-2019</t>
+  </si>
 </sst>
 </file>
 
@@ -975,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E9563F-74D8-43BC-A614-79D5A72BD767}">
   <dimension ref="A1:BZ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10670,6 +11025,9386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F7574A-1BB5-4B35-A924-4615A8493E31}">
+  <dimension ref="A1:BZ42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="24" width="11.88671875" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" customWidth="1"/>
+    <col min="29" max="29" width="12.5546875" customWidth="1"/>
+    <col min="30" max="30" width="13.88671875" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>192</v>
+      </c>
+      <c r="R2" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2" t="s">
+        <v>193</v>
+      </c>
+      <c r="V2" t="s">
+        <v>193</v>
+      </c>
+      <c r="W2" t="s">
+        <v>193</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>192</v>
+      </c>
+      <c r="R3" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W3" t="s">
+        <v>193</v>
+      </c>
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R4" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" t="s">
+        <v>192</v>
+      </c>
+      <c r="T4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" t="s">
+        <v>193</v>
+      </c>
+      <c r="V4" t="s">
+        <v>193</v>
+      </c>
+      <c r="W4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R5" t="s">
+        <v>192</v>
+      </c>
+      <c r="S5" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" t="s">
+        <v>193</v>
+      </c>
+      <c r="V5" t="s">
+        <v>193</v>
+      </c>
+      <c r="W5" t="s">
+        <v>193</v>
+      </c>
+      <c r="X5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>854</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>192</v>
+      </c>
+      <c r="R6" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" t="s">
+        <v>192</v>
+      </c>
+      <c r="T6" t="s">
+        <v>193</v>
+      </c>
+      <c r="U6" t="s">
+        <v>193</v>
+      </c>
+      <c r="V6" t="s">
+        <v>193</v>
+      </c>
+      <c r="W6" t="s">
+        <v>193</v>
+      </c>
+      <c r="X6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>238</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" t="s">
+        <v>192</v>
+      </c>
+      <c r="O7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>192</v>
+      </c>
+      <c r="R7" t="s">
+        <v>192</v>
+      </c>
+      <c r="S7" t="s">
+        <v>192</v>
+      </c>
+      <c r="T7" t="s">
+        <v>193</v>
+      </c>
+      <c r="U7" t="s">
+        <v>193</v>
+      </c>
+      <c r="V7" t="s">
+        <v>193</v>
+      </c>
+      <c r="W7" t="s">
+        <v>193</v>
+      </c>
+      <c r="X7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R8" t="s">
+        <v>192</v>
+      </c>
+      <c r="S8" t="s">
+        <v>192</v>
+      </c>
+      <c r="T8" t="s">
+        <v>193</v>
+      </c>
+      <c r="U8" t="s">
+        <v>193</v>
+      </c>
+      <c r="V8" t="s">
+        <v>193</v>
+      </c>
+      <c r="W8" t="s">
+        <v>193</v>
+      </c>
+      <c r="X8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" t="s">
+        <v>192</v>
+      </c>
+      <c r="M9" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" t="s">
+        <v>192</v>
+      </c>
+      <c r="P9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>192</v>
+      </c>
+      <c r="R9" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" t="s">
+        <v>192</v>
+      </c>
+      <c r="T9" t="s">
+        <v>193</v>
+      </c>
+      <c r="U9" t="s">
+        <v>193</v>
+      </c>
+      <c r="V9" t="s">
+        <v>193</v>
+      </c>
+      <c r="W9" t="s">
+        <v>193</v>
+      </c>
+      <c r="X9" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>192</v>
+      </c>
+      <c r="R10" t="s">
+        <v>192</v>
+      </c>
+      <c r="S10" t="s">
+        <v>192</v>
+      </c>
+      <c r="T10" t="s">
+        <v>193</v>
+      </c>
+      <c r="U10" t="s">
+        <v>193</v>
+      </c>
+      <c r="V10" t="s">
+        <v>193</v>
+      </c>
+      <c r="W10" t="s">
+        <v>193</v>
+      </c>
+      <c r="X10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>192</v>
+      </c>
+      <c r="R11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" t="s">
+        <v>192</v>
+      </c>
+      <c r="T11" t="s">
+        <v>193</v>
+      </c>
+      <c r="U11" t="s">
+        <v>193</v>
+      </c>
+      <c r="V11" t="s">
+        <v>193</v>
+      </c>
+      <c r="W11" t="s">
+        <v>193</v>
+      </c>
+      <c r="X11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>818</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" t="s">
+        <v>192</v>
+      </c>
+      <c r="S12" t="s">
+        <v>192</v>
+      </c>
+      <c r="T12" t="s">
+        <v>193</v>
+      </c>
+      <c r="U12" t="s">
+        <v>193</v>
+      </c>
+      <c r="V12" t="s">
+        <v>193</v>
+      </c>
+      <c r="W12" t="s">
+        <v>193</v>
+      </c>
+      <c r="X12" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>254</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" t="s">
+        <v>192</v>
+      </c>
+      <c r="N13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>192</v>
+      </c>
+      <c r="R13" t="s">
+        <v>192</v>
+      </c>
+      <c r="S13" t="s">
+        <v>192</v>
+      </c>
+      <c r="T13" t="s">
+        <v>193</v>
+      </c>
+      <c r="U13" t="s">
+        <v>193</v>
+      </c>
+      <c r="V13" t="s">
+        <v>193</v>
+      </c>
+      <c r="W13" t="s">
+        <v>193</v>
+      </c>
+      <c r="X13" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" t="s">
+        <v>192</v>
+      </c>
+      <c r="N14" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>192</v>
+      </c>
+      <c r="R14" t="s">
+        <v>192</v>
+      </c>
+      <c r="S14" t="s">
+        <v>192</v>
+      </c>
+      <c r="T14" t="s">
+        <v>193</v>
+      </c>
+      <c r="U14" t="s">
+        <v>193</v>
+      </c>
+      <c r="V14" t="s">
+        <v>193</v>
+      </c>
+      <c r="W14" t="s">
+        <v>193</v>
+      </c>
+      <c r="X14" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" t="s">
+        <v>192</v>
+      </c>
+      <c r="M15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" t="s">
+        <v>192</v>
+      </c>
+      <c r="O15" t="s">
+        <v>192</v>
+      </c>
+      <c r="P15" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>192</v>
+      </c>
+      <c r="R15" t="s">
+        <v>192</v>
+      </c>
+      <c r="S15" t="s">
+        <v>192</v>
+      </c>
+      <c r="T15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U15" t="s">
+        <v>193</v>
+      </c>
+      <c r="V15" t="s">
+        <v>193</v>
+      </c>
+      <c r="W15" t="s">
+        <v>193</v>
+      </c>
+      <c r="X15" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>324</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" t="s">
+        <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" t="s">
+        <v>192</v>
+      </c>
+      <c r="N16" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>192</v>
+      </c>
+      <c r="R16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S16" t="s">
+        <v>192</v>
+      </c>
+      <c r="T16" t="s">
+        <v>193</v>
+      </c>
+      <c r="U16" t="s">
+        <v>193</v>
+      </c>
+      <c r="V16" t="s">
+        <v>193</v>
+      </c>
+      <c r="W16" t="s">
+        <v>193</v>
+      </c>
+      <c r="X16" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>262</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>262</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>332</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s">
+        <v>192</v>
+      </c>
+      <c r="O17" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>192</v>
+      </c>
+      <c r="R17" t="s">
+        <v>192</v>
+      </c>
+      <c r="S17" t="s">
+        <v>192</v>
+      </c>
+      <c r="T17" t="s">
+        <v>193</v>
+      </c>
+      <c r="U17" t="s">
+        <v>193</v>
+      </c>
+      <c r="V17" t="s">
+        <v>193</v>
+      </c>
+      <c r="W17" t="s">
+        <v>193</v>
+      </c>
+      <c r="X17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>263</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>356</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s">
+        <v>192</v>
+      </c>
+      <c r="N18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>192</v>
+      </c>
+      <c r="R18" t="s">
+        <v>192</v>
+      </c>
+      <c r="S18" t="s">
+        <v>192</v>
+      </c>
+      <c r="T18" t="s">
+        <v>193</v>
+      </c>
+      <c r="U18" t="s">
+        <v>193</v>
+      </c>
+      <c r="V18" t="s">
+        <v>193</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>238</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>400</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="s">
+        <v>192</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>192</v>
+      </c>
+      <c r="R19" t="s">
+        <v>192</v>
+      </c>
+      <c r="S19" t="s">
+        <v>192</v>
+      </c>
+      <c r="T19" t="s">
+        <v>193</v>
+      </c>
+      <c r="U19" t="s">
+        <v>193</v>
+      </c>
+      <c r="V19" t="s">
+        <v>193</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>404</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>192</v>
+      </c>
+      <c r="R20" t="s">
+        <v>192</v>
+      </c>
+      <c r="S20" t="s">
+        <v>192</v>
+      </c>
+      <c r="T20" t="s">
+        <v>193</v>
+      </c>
+      <c r="U20" t="s">
+        <v>193</v>
+      </c>
+      <c r="V20" t="s">
+        <v>193</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>270</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>271</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>430</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="s">
+        <v>192</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>192</v>
+      </c>
+      <c r="R21" t="s">
+        <v>192</v>
+      </c>
+      <c r="S21" t="s">
+        <v>192</v>
+      </c>
+      <c r="T21" t="s">
+        <v>193</v>
+      </c>
+      <c r="U21" t="s">
+        <v>193</v>
+      </c>
+      <c r="V21" t="s">
+        <v>193</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>273</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>273</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>450</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="s">
+        <v>192</v>
+      </c>
+      <c r="N22" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>192</v>
+      </c>
+      <c r="R22" t="s">
+        <v>192</v>
+      </c>
+      <c r="S22" t="s">
+        <v>192</v>
+      </c>
+      <c r="T22" t="s">
+        <v>193</v>
+      </c>
+      <c r="U22" t="s">
+        <v>193</v>
+      </c>
+      <c r="V22" t="s">
+        <v>193</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>222</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>454</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="s">
+        <v>192</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>192</v>
+      </c>
+      <c r="P23" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>192</v>
+      </c>
+      <c r="R23" t="s">
+        <v>192</v>
+      </c>
+      <c r="S23" t="s">
+        <v>192</v>
+      </c>
+      <c r="T23" t="s">
+        <v>193</v>
+      </c>
+      <c r="U23" t="s">
+        <v>193</v>
+      </c>
+      <c r="V23" t="s">
+        <v>193</v>
+      </c>
+      <c r="W23" t="s">
+        <v>193</v>
+      </c>
+      <c r="X23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>466</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="s">
+        <v>192</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>192</v>
+      </c>
+      <c r="P24" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>192</v>
+      </c>
+      <c r="R24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S24" t="s">
+        <v>192</v>
+      </c>
+      <c r="T24" t="s">
+        <v>193</v>
+      </c>
+      <c r="U24" t="s">
+        <v>193</v>
+      </c>
+      <c r="V24" t="s">
+        <v>193</v>
+      </c>
+      <c r="W24" t="s">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>478</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" t="s">
+        <v>264</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="s">
+        <v>192</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>192</v>
+      </c>
+      <c r="P25" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>192</v>
+      </c>
+      <c r="R25" t="s">
+        <v>192</v>
+      </c>
+      <c r="S25" t="s">
+        <v>192</v>
+      </c>
+      <c r="T25" t="s">
+        <v>193</v>
+      </c>
+      <c r="U25" t="s">
+        <v>193</v>
+      </c>
+      <c r="V25" t="s">
+        <v>193</v>
+      </c>
+      <c r="W25" t="s">
+        <v>193</v>
+      </c>
+      <c r="X25" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>262</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>262</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>508</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" t="s">
+        <v>278</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>192</v>
+      </c>
+      <c r="R26" t="s">
+        <v>192</v>
+      </c>
+      <c r="S26" t="s">
+        <v>192</v>
+      </c>
+      <c r="T26" t="s">
+        <v>193</v>
+      </c>
+      <c r="U26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V26" t="s">
+        <v>193</v>
+      </c>
+      <c r="W26" t="s">
+        <v>193</v>
+      </c>
+      <c r="X26" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>222</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>263</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>524</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" t="s">
+        <v>258</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>192</v>
+      </c>
+      <c r="R27" t="s">
+        <v>192</v>
+      </c>
+      <c r="S27" t="s">
+        <v>192</v>
+      </c>
+      <c r="T27" t="s">
+        <v>193</v>
+      </c>
+      <c r="U27" t="s">
+        <v>193</v>
+      </c>
+      <c r="V27" t="s">
+        <v>193</v>
+      </c>
+      <c r="W27" t="s">
+        <v>193</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>273</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>273</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>562</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="s">
+        <v>192</v>
+      </c>
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>192</v>
+      </c>
+      <c r="R28" t="s">
+        <v>192</v>
+      </c>
+      <c r="S28" t="s">
+        <v>192</v>
+      </c>
+      <c r="T28" t="s">
+        <v>193</v>
+      </c>
+      <c r="U28" t="s">
+        <v>193</v>
+      </c>
+      <c r="V28" t="s">
+        <v>193</v>
+      </c>
+      <c r="W28" t="s">
+        <v>193</v>
+      </c>
+      <c r="X28" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>566</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" t="s">
+        <v>192</v>
+      </c>
+      <c r="N29" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>192</v>
+      </c>
+      <c r="R29" t="s">
+        <v>192</v>
+      </c>
+      <c r="S29" t="s">
+        <v>192</v>
+      </c>
+      <c r="T29" t="s">
+        <v>193</v>
+      </c>
+      <c r="U29" t="s">
+        <v>193</v>
+      </c>
+      <c r="V29" t="s">
+        <v>193</v>
+      </c>
+      <c r="W29" t="s">
+        <v>193</v>
+      </c>
+      <c r="X29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>586</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" t="s">
+        <v>192</v>
+      </c>
+      <c r="M30" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>192</v>
+      </c>
+      <c r="R30" t="s">
+        <v>192</v>
+      </c>
+      <c r="S30" t="s">
+        <v>192</v>
+      </c>
+      <c r="T30" t="s">
+        <v>193</v>
+      </c>
+      <c r="U30" t="s">
+        <v>193</v>
+      </c>
+      <c r="V30" t="s">
+        <v>193</v>
+      </c>
+      <c r="W30" t="s">
+        <v>193</v>
+      </c>
+      <c r="X30" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>608</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" t="s">
+        <v>258</v>
+      </c>
+      <c r="I31" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" t="s">
+        <v>192</v>
+      </c>
+      <c r="N31" t="s">
+        <v>192</v>
+      </c>
+      <c r="O31" t="s">
+        <v>192</v>
+      </c>
+      <c r="P31" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>192</v>
+      </c>
+      <c r="R31" t="s">
+        <v>192</v>
+      </c>
+      <c r="S31" t="s">
+        <v>192</v>
+      </c>
+      <c r="T31" t="s">
+        <v>193</v>
+      </c>
+      <c r="U31" t="s">
+        <v>193</v>
+      </c>
+      <c r="V31" t="s">
+        <v>193</v>
+      </c>
+      <c r="W31" t="s">
+        <v>193</v>
+      </c>
+      <c r="X31" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>646</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" t="s">
+        <v>286</v>
+      </c>
+      <c r="I32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" t="s">
+        <v>192</v>
+      </c>
+      <c r="N32" t="s">
+        <v>192</v>
+      </c>
+      <c r="O32" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>192</v>
+      </c>
+      <c r="R32" t="s">
+        <v>192</v>
+      </c>
+      <c r="S32" t="s">
+        <v>192</v>
+      </c>
+      <c r="T32" t="s">
+        <v>193</v>
+      </c>
+      <c r="U32" t="s">
+        <v>193</v>
+      </c>
+      <c r="V32" t="s">
+        <v>193</v>
+      </c>
+      <c r="W32" t="s">
+        <v>193</v>
+      </c>
+      <c r="X32" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>238</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>686</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L33" t="s">
+        <v>192</v>
+      </c>
+      <c r="M33" t="s">
+        <v>192</v>
+      </c>
+      <c r="N33" t="s">
+        <v>192</v>
+      </c>
+      <c r="O33" t="s">
+        <v>192</v>
+      </c>
+      <c r="P33" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>192</v>
+      </c>
+      <c r="R33" t="s">
+        <v>192</v>
+      </c>
+      <c r="S33" t="s">
+        <v>192</v>
+      </c>
+      <c r="T33" t="s">
+        <v>193</v>
+      </c>
+      <c r="U33" t="s">
+        <v>193</v>
+      </c>
+      <c r="V33" t="s">
+        <v>193</v>
+      </c>
+      <c r="W33" t="s">
+        <v>193</v>
+      </c>
+      <c r="X33" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>694</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" t="s">
+        <v>256</v>
+      </c>
+      <c r="I34" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" t="s">
+        <v>192</v>
+      </c>
+      <c r="L34" t="s">
+        <v>192</v>
+      </c>
+      <c r="M34" t="s">
+        <v>192</v>
+      </c>
+      <c r="N34" t="s">
+        <v>192</v>
+      </c>
+      <c r="O34" t="s">
+        <v>192</v>
+      </c>
+      <c r="P34" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>192</v>
+      </c>
+      <c r="R34" t="s">
+        <v>192</v>
+      </c>
+      <c r="S34" t="s">
+        <v>192</v>
+      </c>
+      <c r="T34" t="s">
+        <v>193</v>
+      </c>
+      <c r="U34" t="s">
+        <v>193</v>
+      </c>
+      <c r="V34" t="s">
+        <v>193</v>
+      </c>
+      <c r="W34" t="s">
+        <v>193</v>
+      </c>
+      <c r="X34" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>290</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>290</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>728</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" t="s">
+        <v>291</v>
+      </c>
+      <c r="I35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" t="s">
+        <v>192</v>
+      </c>
+      <c r="O35" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>192</v>
+      </c>
+      <c r="R35" t="s">
+        <v>192</v>
+      </c>
+      <c r="S35" t="s">
+        <v>192</v>
+      </c>
+      <c r="T35" t="s">
+        <v>193</v>
+      </c>
+      <c r="U35" t="s">
+        <v>193</v>
+      </c>
+      <c r="V35" t="s">
+        <v>193</v>
+      </c>
+      <c r="W35" t="s">
+        <v>193</v>
+      </c>
+      <c r="X35" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>263</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>834</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" t="s">
+        <v>258</v>
+      </c>
+      <c r="I36" t="s">
+        <v>191</v>
+      </c>
+      <c r="J36" t="s">
+        <v>192</v>
+      </c>
+      <c r="L36" t="s">
+        <v>192</v>
+      </c>
+      <c r="M36" t="s">
+        <v>192</v>
+      </c>
+      <c r="N36" t="s">
+        <v>192</v>
+      </c>
+      <c r="O36" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>192</v>
+      </c>
+      <c r="R36" t="s">
+        <v>192</v>
+      </c>
+      <c r="S36" t="s">
+        <v>192</v>
+      </c>
+      <c r="T36" t="s">
+        <v>193</v>
+      </c>
+      <c r="U36" t="s">
+        <v>193</v>
+      </c>
+      <c r="V36" t="s">
+        <v>193</v>
+      </c>
+      <c r="W36" t="s">
+        <v>193</v>
+      </c>
+      <c r="X36" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>293</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>626</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" t="s">
+        <v>294</v>
+      </c>
+      <c r="I37" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s">
+        <v>192</v>
+      </c>
+      <c r="M37" t="s">
+        <v>192</v>
+      </c>
+      <c r="N37" t="s">
+        <v>192</v>
+      </c>
+      <c r="O37" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>192</v>
+      </c>
+      <c r="R37" t="s">
+        <v>192</v>
+      </c>
+      <c r="S37" t="s">
+        <v>192</v>
+      </c>
+      <c r="T37" t="s">
+        <v>193</v>
+      </c>
+      <c r="U37" t="s">
+        <v>193</v>
+      </c>
+      <c r="V37" t="s">
+        <v>193</v>
+      </c>
+      <c r="W37" t="s">
+        <v>193</v>
+      </c>
+      <c r="X37" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>294</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>296</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>768</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I38" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38" t="s">
+        <v>192</v>
+      </c>
+      <c r="L38" t="s">
+        <v>192</v>
+      </c>
+      <c r="M38" t="s">
+        <v>192</v>
+      </c>
+      <c r="N38" t="s">
+        <v>192</v>
+      </c>
+      <c r="O38" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>192</v>
+      </c>
+      <c r="R38" t="s">
+        <v>192</v>
+      </c>
+      <c r="S38" t="s">
+        <v>192</v>
+      </c>
+      <c r="T38" t="s">
+        <v>193</v>
+      </c>
+      <c r="U38" t="s">
+        <v>193</v>
+      </c>
+      <c r="V38" t="s">
+        <v>193</v>
+      </c>
+      <c r="W38" t="s">
+        <v>193</v>
+      </c>
+      <c r="X38" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>800</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" t="s">
+        <v>299</v>
+      </c>
+      <c r="I39" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" t="s">
+        <v>192</v>
+      </c>
+      <c r="M39" t="s">
+        <v>192</v>
+      </c>
+      <c r="N39" t="s">
+        <v>192</v>
+      </c>
+      <c r="O39" t="s">
+        <v>192</v>
+      </c>
+      <c r="P39" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>192</v>
+      </c>
+      <c r="R39" t="s">
+        <v>192</v>
+      </c>
+      <c r="S39" t="s">
+        <v>192</v>
+      </c>
+      <c r="T39" t="s">
+        <v>193</v>
+      </c>
+      <c r="U39" t="s">
+        <v>193</v>
+      </c>
+      <c r="V39" t="s">
+        <v>193</v>
+      </c>
+      <c r="W39" t="s">
+        <v>193</v>
+      </c>
+      <c r="X39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>887</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" t="s">
+        <v>301</v>
+      </c>
+      <c r="I40" t="s">
+        <v>194</v>
+      </c>
+      <c r="J40" t="s">
+        <v>192</v>
+      </c>
+      <c r="L40" t="s">
+        <v>192</v>
+      </c>
+      <c r="M40" t="s">
+        <v>192</v>
+      </c>
+      <c r="N40" t="s">
+        <v>192</v>
+      </c>
+      <c r="O40" t="s">
+        <v>192</v>
+      </c>
+      <c r="P40" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>192</v>
+      </c>
+      <c r="R40" t="s">
+        <v>192</v>
+      </c>
+      <c r="S40" t="s">
+        <v>192</v>
+      </c>
+      <c r="T40" t="s">
+        <v>193</v>
+      </c>
+      <c r="U40" t="s">
+        <v>193</v>
+      </c>
+      <c r="V40" t="s">
+        <v>193</v>
+      </c>
+      <c r="W40" t="s">
+        <v>193</v>
+      </c>
+      <c r="X40" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>263</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>894</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" t="s">
+        <v>303</v>
+      </c>
+      <c r="I41" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" t="s">
+        <v>192</v>
+      </c>
+      <c r="M41" t="s">
+        <v>192</v>
+      </c>
+      <c r="N41" t="s">
+        <v>192</v>
+      </c>
+      <c r="O41" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>192</v>
+      </c>
+      <c r="R41" t="s">
+        <v>192</v>
+      </c>
+      <c r="S41" t="s">
+        <v>192</v>
+      </c>
+      <c r="T41" t="s">
+        <v>193</v>
+      </c>
+      <c r="U41" t="s">
+        <v>193</v>
+      </c>
+      <c r="V41" t="s">
+        <v>193</v>
+      </c>
+      <c r="W41" t="s">
+        <v>193</v>
+      </c>
+      <c r="X41" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>716</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" t="s">
+        <v>191</v>
+      </c>
+      <c r="J42" t="s">
+        <v>192</v>
+      </c>
+      <c r="L42" t="s">
+        <v>192</v>
+      </c>
+      <c r="M42" t="s">
+        <v>192</v>
+      </c>
+      <c r="N42" t="s">
+        <v>192</v>
+      </c>
+      <c r="O42" t="s">
+        <v>192</v>
+      </c>
+      <c r="P42" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>192</v>
+      </c>
+      <c r="R42" t="s">
+        <v>192</v>
+      </c>
+      <c r="S42" t="s">
+        <v>192</v>
+      </c>
+      <c r="T42" t="s">
+        <v>193</v>
+      </c>
+      <c r="U42" t="s">
+        <v>193</v>
+      </c>
+      <c r="V42" t="s">
+        <v>193</v>
+      </c>
+      <c r="W42" t="s">
+        <v>193</v>
+      </c>
+      <c r="X42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW42" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX42" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY42" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3057450A-E09F-4265-8443-CBC3C0F00E79}">
   <dimension ref="A1:BG42"/>
   <sheetViews>
@@ -18202,7 +27937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94207FE-122F-416D-91F2-5CB68BDA7C56}">
   <dimension ref="A1:BG42"/>
   <sheetViews>

--- a/SourceData/rapid/RPModData.xlsx
+++ b/SourceData/rapid/RPModData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\rapid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4A2A64-E27F-42F3-8EEC-D4ED90889B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBE6F64-5813-4D37-A66D-D074A1C68CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" firstSheet="3" activeTab="7" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryDefaultsDB" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="308">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -962,6 +962,12 @@
   <si>
     <t>&lt;Baseline Average Temperature Celcius&gt;</t>
   </si>
+  <si>
+    <t>&lt;Cost to Build Urban Household&gt;</t>
+  </si>
+  <si>
+    <t>Source TBD</t>
+  </si>
 </sst>
 </file>
 
@@ -1352,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E9563F-74D8-43BC-A614-79D5A72BD767}">
-  <dimension ref="A1:CA42"/>
+  <dimension ref="A1:CB42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C42"/>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BN1" sqref="BN1:BN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,7 +1376,7 @@
     <col min="32" max="32" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1567,49 +1573,52 @@
         <v>129</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1800,49 +1809,52 @@
         <v>42.119</v>
       </c>
       <c r="BN2">
+        <v>7500</v>
+      </c>
+      <c r="BO2">
         <v>11.71</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>352.60373309210712</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>77.093000000000004</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>16.463000000000001</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>49.808999999999997</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>0.5</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>43.685000000000002</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>19.507000000000001</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>65.031000000000006</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>186</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>-1.06</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>-5.13</v>
       </c>
-      <c r="BZ2">
+      <c r="CA2">
         <v>-12.69</v>
       </c>
-      <c r="CA2">
+      <c r="CB2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24</v>
       </c>
@@ -2033,49 +2045,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN3">
+        <v>7500</v>
+      </c>
+      <c r="BO3">
         <v>10.209</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>2933.4846438141499</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>78.161000000000001</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>74.884</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>76.372</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <v>0.5</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>21.684999999999999</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>20.768000000000001</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>22.568999999999999</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" t="s">
         <v>186</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>-4</v>
       </c>
-      <c r="BY3">
+      <c r="BZ3">
         <v>-8</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>-10</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
@@ -2266,49 +2281,52 @@
         <v>42.119</v>
       </c>
       <c r="BN4">
+        <v>7500</v>
+      </c>
+      <c r="BO4">
         <v>4.6989999999999998</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>2687.8990630708686</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>80.674000000000007</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>37.695</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <v>58.328000000000003</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <v>0.5</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>29.998000000000001</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>10.89</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>47.76</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>-1.66</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>-2.4</v>
       </c>
-      <c r="BY4">
+      <c r="BZ4">
         <v>-2.6</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>-2.8</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>204</v>
       </c>
@@ -2499,49 +2517,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN5">
+        <v>7500</v>
+      </c>
+      <c r="BO5">
         <v>1.6539999999999999</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <v>1304.9947969432314</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>69.727000000000004</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>56.250999999999998</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>62.741</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <v>0.5</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>15.196</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>12.922000000000001</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>17.506</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>-4.54</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>-3.29</v>
       </c>
-      <c r="BY5">
+      <c r="BZ5">
         <v>-6.81</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <v>-8.58</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>0.27</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>854</v>
       </c>
@@ -2732,49 +2753,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN6">
+        <v>7500</v>
+      </c>
+      <c r="BO6">
         <v>5.1749999999999998</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <v>830.04396585031111</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <v>52.978999999999999</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>58.27</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <v>44.893000000000001</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <v>0.5</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <v>34.25</v>
       </c>
-      <c r="BU6">
+      <c r="BV6">
         <v>27.038</v>
       </c>
-      <c r="BV6">
+      <c r="BW6">
         <v>39.517000000000003</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>-3.96</v>
       </c>
-      <c r="BX6">
+      <c r="BY6">
         <v>-3.1</v>
       </c>
-      <c r="BY6">
+      <c r="BZ6">
         <v>-6.5</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>108</v>
       </c>
@@ -2965,49 +2989,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN7">
+        <v>7500</v>
+      </c>
+      <c r="BO7">
         <v>1.02</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <v>259.02503136308792</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <v>78.94</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>81.456999999999994</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <v>78.557000000000002</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <v>0.5</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <v>11.167</v>
       </c>
-      <c r="BU7">
+      <c r="BV7">
         <v>11.458</v>
       </c>
-      <c r="BV7">
+      <c r="BW7">
         <v>10.942</v>
       </c>
-      <c r="BW7" t="s">
+      <c r="BX7" t="s">
         <v>186</v>
       </c>
-      <c r="BX7">
+      <c r="BY7">
         <v>-2.61</v>
       </c>
-      <c r="BY7">
+      <c r="BZ7">
         <v>-5.69</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <v>-7.23</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>116</v>
       </c>
@@ -3198,49 +3225,52 @@
         <v>45.755000000000003</v>
       </c>
       <c r="BN8">
+        <v>7500</v>
+      </c>
+      <c r="BO8">
         <v>0.36099999999999999</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <v>1759.6080234604356</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <v>85.82</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>69.596000000000004</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>79.510000000000005</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>0.5</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <v>6.1879999999999997</v>
       </c>
-      <c r="BU8">
+      <c r="BV8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="BV8">
+      <c r="BW8">
         <v>8.1140000000000008</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>-6.08</v>
       </c>
-      <c r="BX8">
+      <c r="BY8">
         <v>-1.25</v>
       </c>
-      <c r="BY8">
+      <c r="BZ8">
         <v>-2.31</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <v>-3.38</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>120</v>
       </c>
@@ -3431,49 +3461,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN9">
+        <v>7500</v>
+      </c>
+      <c r="BO9">
         <v>4.0010000000000003</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
         <v>1563.4889403445936</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BQ9" t="s">
         <v>3</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>67.447000000000003</v>
       </c>
-      <c r="BR9" t="s">
+      <c r="BS9" t="s">
         <v>3</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <v>0.5</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <v>23.222999999999999</v>
       </c>
-      <c r="BU9">
+      <c r="BV9">
         <v>14.702999999999999</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
         <v>30.417999999999999</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>-2.71</v>
       </c>
-      <c r="BX9">
+      <c r="BY9">
         <v>-3.44</v>
       </c>
-      <c r="BY9">
+      <c r="BZ9">
         <v>-7.06</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <v>-8.8800000000000008</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>384</v>
       </c>
@@ -3664,49 +3697,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN10">
+        <v>7500</v>
+      </c>
+      <c r="BO10">
         <v>2.637</v>
       </c>
-      <c r="BO10">
+      <c r="BP10">
         <v>2491.8959337299498</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <v>72.835999999999999</v>
       </c>
-      <c r="BQ10">
+      <c r="BR10">
         <v>57.521000000000001</v>
       </c>
-      <c r="BR10">
+      <c r="BS10">
         <v>64.683999999999997</v>
       </c>
-      <c r="BS10">
+      <c r="BT10">
         <v>0.5</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <v>18.777000000000001</v>
       </c>
-      <c r="BU10">
+      <c r="BV10">
         <v>12.782999999999999</v>
       </c>
-      <c r="BV10">
+      <c r="BW10">
         <v>24.550999999999998</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>-4.34</v>
       </c>
-      <c r="BX10">
+      <c r="BY10">
         <v>-0.75</v>
       </c>
-      <c r="BY10">
+      <c r="BZ10">
         <v>-2.19</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <v>-3.63</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>180</v>
       </c>
@@ -3897,49 +3933,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN11">
+        <v>7500</v>
+      </c>
+      <c r="BO11">
         <v>4.9870000000000001</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <v>664.59354333669557</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>66.754000000000005</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>63.076999999999998</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <v>63.44</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <v>0.5</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>31.373000000000001</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>28.661000000000001</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>33.880000000000003</v>
       </c>
-      <c r="BW11" t="s">
+      <c r="BX11" t="s">
         <v>186</v>
       </c>
-      <c r="BX11">
+      <c r="BY11">
         <v>-3.51</v>
       </c>
-      <c r="BY11">
+      <c r="BZ11">
         <v>-7.19</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>-9.0299999999999994</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>818</v>
       </c>
@@ -4130,49 +4169,52 @@
         <v>39.798999999999999</v>
       </c>
       <c r="BN12">
+        <v>7500</v>
+      </c>
+      <c r="BO12">
         <v>6.9589999999999996</v>
       </c>
-      <c r="BO12">
+      <c r="BP12">
         <v>4295.4074956101413</v>
       </c>
-      <c r="BP12">
+      <c r="BQ12">
         <v>69.102999999999994</v>
       </c>
-      <c r="BQ12">
+      <c r="BR12">
         <v>15.122999999999999</v>
       </c>
-      <c r="BR12">
+      <c r="BS12">
         <v>42.987000000000002</v>
       </c>
-      <c r="BS12">
+      <c r="BT12">
         <v>0.5</v>
       </c>
-      <c r="BT12">
+      <c r="BU12">
         <v>26.92</v>
       </c>
-      <c r="BU12">
+      <c r="BV12">
         <v>15.833</v>
       </c>
-      <c r="BV12">
+      <c r="BW12">
         <v>40.116999999999997</v>
       </c>
-      <c r="BW12">
+      <c r="BX12">
         <v>-1.28</v>
       </c>
-      <c r="BX12">
+      <c r="BY12">
         <v>-2.08</v>
       </c>
-      <c r="BY12">
+      <c r="BZ12">
         <v>-5.35</v>
       </c>
-      <c r="BZ12">
+      <c r="CA12">
         <v>-11.23</v>
       </c>
-      <c r="CA12">
+      <c r="CB12">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>231</v>
       </c>
@@ -4363,49 +4405,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN13">
+        <v>7500</v>
+      </c>
+      <c r="BO13">
         <v>4.0179999999999998</v>
       </c>
-      <c r="BO13">
+      <c r="BP13">
         <v>1027.4986313632471</v>
       </c>
-      <c r="BP13">
+      <c r="BQ13">
         <v>79.2</v>
       </c>
-      <c r="BQ13">
+      <c r="BR13">
         <v>75.027000000000001</v>
       </c>
-      <c r="BR13">
+      <c r="BS13">
         <v>68.253</v>
       </c>
-      <c r="BS13">
+      <c r="BT13">
         <v>0.5</v>
       </c>
-      <c r="BT13">
+      <c r="BU13">
         <v>17.529</v>
       </c>
-      <c r="BU13">
+      <c r="BV13">
         <v>9.8689999999999998</v>
       </c>
-      <c r="BV13">
+      <c r="BW13">
         <v>24.875</v>
       </c>
-      <c r="BW13">
+      <c r="BX13">
         <v>-1.94</v>
       </c>
-      <c r="BX13">
+      <c r="BY13">
         <v>-3.33</v>
       </c>
-      <c r="BY13">
+      <c r="BZ13">
         <v>-6.88</v>
       </c>
-      <c r="BZ13">
+      <c r="CA13">
         <v>-8.65</v>
       </c>
-      <c r="CA13">
+      <c r="CB13">
         <v>0.34</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>288</v>
       </c>
@@ -4596,49 +4641,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN14">
+        <v>7500</v>
+      </c>
+      <c r="BO14">
         <v>3.867</v>
       </c>
-      <c r="BO14">
+      <c r="BP14">
         <v>2218.4147579099272</v>
       </c>
-      <c r="BP14">
+      <c r="BQ14">
         <v>73.447000000000003</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>65.296999999999997</v>
       </c>
-      <c r="BR14">
+      <c r="BS14">
         <v>71.34</v>
       </c>
-      <c r="BS14">
+      <c r="BT14">
         <v>0.5</v>
       </c>
-      <c r="BT14">
+      <c r="BU14">
         <v>27.734000000000002</v>
       </c>
-      <c r="BU14">
+      <c r="BV14">
         <v>25.393999999999998</v>
       </c>
-      <c r="BV14">
+      <c r="BW14">
         <v>29.916</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="BX14">
+      <c r="BY14">
         <v>-3.4</v>
       </c>
-      <c r="BY14">
+      <c r="BZ14">
         <v>-7</v>
       </c>
-      <c r="BZ14">
+      <c r="CA14">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>320</v>
       </c>
@@ -4829,49 +4877,52 @@
         <v>50.985999999999997</v>
       </c>
       <c r="BN15">
+        <v>7500</v>
+      </c>
+      <c r="BO15">
         <v>2.569</v>
       </c>
-      <c r="BO15">
+      <c r="BP15">
         <v>5473.2085644458921</v>
       </c>
-      <c r="BP15">
+      <c r="BQ15">
         <v>82.786000000000001</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>37.125</v>
       </c>
-      <c r="BR15">
+      <c r="BS15">
         <v>60.241</v>
       </c>
-      <c r="BS15">
+      <c r="BT15">
         <v>0.5</v>
       </c>
-      <c r="BT15">
+      <c r="BU15">
         <v>29.552</v>
       </c>
-      <c r="BU15">
+      <c r="BV15">
         <v>12.897</v>
       </c>
-      <c r="BV15">
+      <c r="BW15">
         <v>44.347000000000001</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>-1.19</v>
       </c>
-      <c r="BX15">
+      <c r="BY15">
         <v>-2.8</v>
       </c>
-      <c r="BY15">
+      <c r="BZ15">
         <v>-6</v>
       </c>
-      <c r="BZ15">
+      <c r="CA15">
         <v>-7.6</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>324</v>
       </c>
@@ -5062,49 +5113,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN16">
+        <v>7500</v>
+      </c>
+      <c r="BO16">
         <v>5.7489999999999997</v>
       </c>
-      <c r="BO16">
+      <c r="BP16">
         <v>1515.1679477761211</v>
       </c>
-      <c r="BP16">
+      <c r="BQ16">
         <v>65.19</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>41.665999999999997</v>
       </c>
-      <c r="BR16">
+      <c r="BS16">
         <v>52.878999999999998</v>
       </c>
-      <c r="BS16">
+      <c r="BT16">
         <v>0.5</v>
       </c>
-      <c r="BT16">
+      <c r="BU16">
         <v>34.301000000000002</v>
       </c>
-      <c r="BU16">
+      <c r="BV16">
         <v>24.844999999999999</v>
       </c>
-      <c r="BV16">
+      <c r="BW16">
         <v>41.491999999999997</v>
       </c>
-      <c r="BW16">
+      <c r="BX16">
         <v>-3.39</v>
       </c>
-      <c r="BX16">
+      <c r="BY16">
         <v>-1</v>
       </c>
-      <c r="BY16">
+      <c r="BZ16">
         <v>-2.25</v>
       </c>
-      <c r="BZ16">
+      <c r="CA16">
         <v>-3.5</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>332</v>
       </c>
@@ -5295,25 +5349,25 @@
         <v>50.985999999999997</v>
       </c>
       <c r="BN17">
+        <v>7500</v>
+      </c>
+      <c r="BO17">
         <v>14.836</v>
       </c>
-      <c r="BO17">
+      <c r="BP17">
         <v>1748.2571353975104</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
         <v>3</v>
       </c>
-      <c r="BQ17">
+      <c r="BR17">
         <v>62.066000000000003</v>
       </c>
-      <c r="BR17" t="s">
+      <c r="BS17" t="s">
         <v>3</v>
       </c>
-      <c r="BS17">
+      <c r="BT17">
         <v>0.5</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>3</v>
       </c>
       <c r="BU17" t="s">
         <v>3</v>
@@ -5322,22 +5376,25 @@
         <v>3</v>
       </c>
       <c r="BW17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX17" t="s">
         <v>186</v>
       </c>
-      <c r="BX17">
+      <c r="BY17">
         <v>-3.03</v>
       </c>
-      <c r="BY17">
+      <c r="BZ17">
         <v>-6.38</v>
       </c>
-      <c r="BZ17">
+      <c r="CA17">
         <v>-8.0500000000000007</v>
       </c>
-      <c r="CA17">
+      <c r="CB17">
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>356</v>
       </c>
@@ -5528,49 +5585,52 @@
         <v>42.119</v>
       </c>
       <c r="BN18">
+        <v>7500</v>
+      </c>
+      <c r="BO18">
         <v>7.33</v>
       </c>
-      <c r="BO18">
+      <c r="BP18">
         <v>2366.3096089993146</v>
       </c>
-      <c r="BP18">
+      <c r="BQ18">
         <v>76.143000000000001</v>
       </c>
-      <c r="BQ18">
+      <c r="BR18">
         <v>23.966000000000001</v>
       </c>
-      <c r="BR18">
+      <c r="BS18">
         <v>52.353999999999999</v>
       </c>
-      <c r="BS18">
+      <c r="BT18">
         <v>0.5</v>
       </c>
-      <c r="BT18">
+      <c r="BU18">
         <v>23.494</v>
       </c>
-      <c r="BU18">
+      <c r="BV18">
         <v>10.231</v>
       </c>
-      <c r="BV18">
+      <c r="BW18">
         <v>38.127000000000002</v>
       </c>
-      <c r="BW18">
+      <c r="BX18">
         <v>-2.08</v>
       </c>
-      <c r="BX18">
+      <c r="BY18">
         <v>-2.25</v>
       </c>
-      <c r="BY18">
+      <c r="BZ18">
         <v>-2.56</v>
       </c>
-      <c r="BZ18">
+      <c r="CA18">
         <v>-2.88</v>
       </c>
-      <c r="CA18">
+      <c r="CB18">
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>400</v>
       </c>
@@ -5761,49 +5821,52 @@
         <v>39.798999999999999</v>
       </c>
       <c r="BN19">
+        <v>7500</v>
+      </c>
+      <c r="BO19">
         <v>17.873999999999999</v>
       </c>
-      <c r="BO19">
+      <c r="BP19">
         <v>4311.0000506816014</v>
       </c>
-      <c r="BP19">
+      <c r="BQ19">
         <v>60.707000000000001</v>
       </c>
-      <c r="BQ19">
+      <c r="BR19">
         <v>14.744999999999999</v>
       </c>
-      <c r="BR19">
+      <c r="BS19">
         <v>38.67</v>
       </c>
-      <c r="BS19">
+      <c r="BT19">
         <v>0.5</v>
       </c>
-      <c r="BT19">
+      <c r="BU19">
         <v>31.495000000000001</v>
       </c>
-      <c r="BU19">
+      <c r="BV19">
         <v>27.486000000000001</v>
       </c>
-      <c r="BV19">
+      <c r="BW19">
         <v>36.055</v>
       </c>
-      <c r="BW19">
+      <c r="BX19">
         <v>-1.7</v>
       </c>
-      <c r="BX19">
+      <c r="BY19">
         <v>-2.98</v>
       </c>
-      <c r="BY19">
+      <c r="BZ19">
         <v>-5.55</v>
       </c>
-      <c r="BZ19">
+      <c r="CA19">
         <v>-9.93</v>
       </c>
-      <c r="CA19">
+      <c r="CB19">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>404</v>
       </c>
@@ -6000,49 +6063,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN20">
+        <v>7500</v>
+      </c>
+      <c r="BO20">
         <v>5.5019999999999998</v>
       </c>
-      <c r="BO20">
+      <c r="BP20">
         <v>2099.2985684102455</v>
       </c>
-      <c r="BP20">
+      <c r="BQ20">
         <v>72.582999999999998</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>72.722999999999999</v>
       </c>
-      <c r="BR20">
+      <c r="BS20">
         <v>67.462000000000003</v>
       </c>
-      <c r="BS20">
+      <c r="BT20">
         <v>0.5</v>
       </c>
-      <c r="BT20">
+      <c r="BU20">
         <v>18.733000000000001</v>
       </c>
-      <c r="BU20">
+      <c r="BV20">
         <v>12.206</v>
       </c>
-      <c r="BV20">
+      <c r="BW20">
         <v>24.966999999999999</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>-1.87</v>
       </c>
-      <c r="BX20">
+      <c r="BY20">
         <v>-4</v>
       </c>
-      <c r="BY20">
+      <c r="BZ20">
         <v>-8</v>
       </c>
-      <c r="BZ20">
+      <c r="CA20">
         <v>-10</v>
       </c>
-      <c r="CA20">
+      <c r="CB20">
         <v>0.31</v>
       </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>430</v>
       </c>
@@ -6233,49 +6299,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN21">
+        <v>7500</v>
+      </c>
+      <c r="BO21">
         <v>3.6339999999999999</v>
       </c>
-      <c r="BO21">
+      <c r="BP21">
         <v>754.53284857225992</v>
       </c>
-      <c r="BP21">
+      <c r="BQ21">
         <v>50.046999999999997</v>
       </c>
-      <c r="BQ21">
+      <c r="BR21">
         <v>72.397000000000006</v>
       </c>
-      <c r="BR21">
+      <c r="BS21">
         <v>46.587000000000003</v>
       </c>
-      <c r="BS21">
+      <c r="BT21">
         <v>0.5</v>
       </c>
-      <c r="BT21">
+      <c r="BU21">
         <v>40.780999999999999</v>
       </c>
-      <c r="BU21">
+      <c r="BV21">
         <v>39.854999999999997</v>
       </c>
-      <c r="BV21">
+      <c r="BW21">
         <v>41.554000000000002</v>
       </c>
-      <c r="BW21" t="s">
+      <c r="BX21" t="s">
         <v>186</v>
       </c>
-      <c r="BX21">
+      <c r="BY21">
         <v>-0.85</v>
       </c>
-      <c r="BY21">
+      <c r="BZ21">
         <v>-2.21</v>
       </c>
-      <c r="BZ21">
+      <c r="CA21">
         <v>-3.58</v>
       </c>
-      <c r="CA21">
+      <c r="CB21">
         <v>0.27</v>
       </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>450</v>
       </c>
@@ -6466,49 +6535,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN22">
+        <v>7500</v>
+      </c>
+      <c r="BO22">
         <v>2.1419999999999999</v>
       </c>
-      <c r="BO22">
+      <c r="BP22">
         <v>516.77219697761348</v>
       </c>
-      <c r="BP22">
+      <c r="BQ22">
         <v>89.209000000000003</v>
       </c>
-      <c r="BQ22">
+      <c r="BR22">
         <v>83.725999999999999</v>
       </c>
-      <c r="BR22">
+      <c r="BS22">
         <v>86.381</v>
       </c>
-      <c r="BS22">
+      <c r="BT22">
         <v>0.5</v>
       </c>
-      <c r="BT22">
+      <c r="BU22">
         <v>24.488</v>
       </c>
-      <c r="BU22">
+      <c r="BV22">
         <v>18.661999999999999</v>
       </c>
-      <c r="BV22">
+      <c r="BW22">
         <v>30.102</v>
       </c>
-      <c r="BW22">
+      <c r="BX22">
         <v>-3.33</v>
       </c>
-      <c r="BX22">
+      <c r="BY22">
         <v>-1.9</v>
       </c>
-      <c r="BY22">
+      <c r="BZ22">
         <v>-2.48</v>
       </c>
-      <c r="BZ22">
+      <c r="CA22">
         <v>-3.05</v>
       </c>
-      <c r="CA22">
+      <c r="CB22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>454</v>
       </c>
@@ -6699,49 +6771,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN23">
+        <v>7500</v>
+      </c>
+      <c r="BO23">
         <v>5.6139999999999999</v>
       </c>
-      <c r="BO23">
+      <c r="BP23">
         <v>643.4331956586575</v>
       </c>
-      <c r="BP23">
+      <c r="BQ23">
         <v>73.994</v>
       </c>
-      <c r="BQ23">
+      <c r="BR23">
         <v>63.295999999999999</v>
       </c>
-      <c r="BR23">
+      <c r="BS23">
         <v>68.27</v>
       </c>
-      <c r="BS23">
+      <c r="BT23">
         <v>0.5</v>
       </c>
-      <c r="BT23">
+      <c r="BU23">
         <v>19.41</v>
       </c>
-      <c r="BU23">
+      <c r="BV23">
         <v>13.664999999999999</v>
       </c>
-      <c r="BV23">
+      <c r="BW23">
         <v>24.887</v>
       </c>
-      <c r="BW23">
+      <c r="BX23">
         <v>-3.25</v>
       </c>
-      <c r="BX23">
+      <c r="BY23">
         <v>-3.03</v>
       </c>
-      <c r="BY23">
+      <c r="BZ23">
         <v>-6.38</v>
       </c>
-      <c r="BZ23">
+      <c r="CA23">
         <v>-8.0500000000000007</v>
       </c>
-      <c r="CA23">
+      <c r="CB23">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>466</v>
       </c>
@@ -6932,49 +7007,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN24">
+        <v>7500</v>
+      </c>
+      <c r="BO24">
         <v>2.762</v>
       </c>
-      <c r="BO24">
+      <c r="BP24">
         <v>831.22346664511485</v>
       </c>
-      <c r="BP24">
+      <c r="BQ24">
         <v>82.414000000000001</v>
       </c>
-      <c r="BQ24">
+      <c r="BR24">
         <v>54.244999999999997</v>
       </c>
-      <c r="BR24">
+      <c r="BS24">
         <v>65.915999999999997</v>
       </c>
-      <c r="BS24">
+      <c r="BT24">
         <v>0.5</v>
       </c>
-      <c r="BT24">
+      <c r="BU24">
         <v>30.861999999999998</v>
       </c>
-      <c r="BU24">
+      <c r="BV24">
         <v>15.21</v>
       </c>
-      <c r="BV24">
+      <c r="BW24">
         <v>43.316000000000003</v>
       </c>
-      <c r="BW24" t="s">
+      <c r="BX24" t="s">
         <v>186</v>
       </c>
-      <c r="BX24">
+      <c r="BY24">
         <v>-3.36</v>
       </c>
-      <c r="BY24">
+      <c r="BZ24">
         <v>-6.94</v>
       </c>
-      <c r="BZ24">
+      <c r="CA24">
         <v>-8.73</v>
       </c>
-      <c r="CA24">
+      <c r="CB24">
         <v>0.27</v>
       </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>478</v>
       </c>
@@ -7165,49 +7243,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN25">
+        <v>7500</v>
+      </c>
+      <c r="BO25">
         <v>11.109</v>
       </c>
-      <c r="BO25">
+      <c r="BP25">
         <v>2057.3803924581739</v>
       </c>
-      <c r="BP25">
+      <c r="BQ25">
         <v>64.058999999999997</v>
       </c>
-      <c r="BQ25">
+      <c r="BR25">
         <v>26.36</v>
       </c>
-      <c r="BR25">
+      <c r="BS25">
         <v>45.466999999999999</v>
       </c>
-      <c r="BS25">
+      <c r="BT25">
         <v>0.5</v>
       </c>
-      <c r="BT25">
+      <c r="BU25">
         <v>44.085000000000001</v>
       </c>
-      <c r="BU25">
+      <c r="BV25">
         <v>32.026000000000003</v>
       </c>
-      <c r="BV25">
+      <c r="BW25">
         <v>54.847000000000001</v>
       </c>
-      <c r="BW25" t="s">
+      <c r="BX25" t="s">
         <v>186</v>
       </c>
-      <c r="BX25">
+      <c r="BY25">
         <v>-0.85</v>
       </c>
-      <c r="BY25">
+      <c r="BZ25">
         <v>-2.21</v>
       </c>
-      <c r="BZ25">
+      <c r="CA25">
         <v>-3.58</v>
       </c>
-      <c r="CA25">
+      <c r="CB25">
         <v>0.27</v>
       </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>508</v>
       </c>
@@ -7398,25 +7479,25 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN26">
+        <v>7500</v>
+      </c>
+      <c r="BO26">
         <v>3.9060000000000001</v>
       </c>
-      <c r="BO26">
+      <c r="BP26">
         <v>558.29859250434947</v>
       </c>
-      <c r="BP26">
+      <c r="BQ26">
         <v>80.093999999999994</v>
       </c>
-      <c r="BQ26">
+      <c r="BR26">
         <v>78.22</v>
       </c>
-      <c r="BR26">
+      <c r="BS26">
         <v>79.052999999999997</v>
       </c>
-      <c r="BS26">
+      <c r="BT26">
         <v>0.5</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>3</v>
       </c>
       <c r="BU26" t="s">
         <v>3</v>
@@ -7424,23 +7505,26 @@
       <c r="BV26" t="s">
         <v>3</v>
       </c>
-      <c r="BW26">
+      <c r="BW26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX26">
         <v>-2.63</v>
       </c>
-      <c r="BX26">
+      <c r="BY26">
         <v>-2.61</v>
       </c>
-      <c r="BY26">
+      <c r="BZ26">
         <v>-5.69</v>
       </c>
-      <c r="BZ26">
+      <c r="CA26">
         <v>-7.23</v>
       </c>
-      <c r="CA26">
+      <c r="CB26">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>524</v>
       </c>
@@ -7631,49 +7715,52 @@
         <v>42.119</v>
       </c>
       <c r="BN27">
+        <v>7500</v>
+      </c>
+      <c r="BO27">
         <v>11.119</v>
       </c>
-      <c r="BO27">
+      <c r="BP27">
         <v>1348.1571895603522</v>
       </c>
-      <c r="BP27">
+      <c r="BQ27">
         <v>54.954000000000001</v>
       </c>
-      <c r="BQ27">
+      <c r="BR27">
         <v>28.603000000000002</v>
       </c>
-      <c r="BR27">
+      <c r="BS27">
         <v>39.914999999999999</v>
       </c>
-      <c r="BS27">
+      <c r="BT27">
         <v>0.5</v>
       </c>
-      <c r="BT27">
+      <c r="BU27">
         <v>34.762999999999998</v>
       </c>
-      <c r="BU27">
+      <c r="BV27">
         <v>21.155999999999999</v>
       </c>
-      <c r="BV27">
+      <c r="BW27">
         <v>45.817</v>
       </c>
-      <c r="BW27">
+      <c r="BX27">
         <v>-1.32</v>
       </c>
-      <c r="BX27">
+      <c r="BY27">
         <v>-2.8</v>
       </c>
-      <c r="BY27">
+      <c r="BZ27">
         <v>-2.7</v>
       </c>
-      <c r="BZ27">
+      <c r="CA27">
         <v>-2.6</v>
       </c>
-      <c r="CA27">
+      <c r="CB27">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>562</v>
       </c>
@@ -7864,49 +7951,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN28">
+        <v>7500</v>
+      </c>
+      <c r="BO28">
         <v>0.53400000000000003</v>
       </c>
-      <c r="BO28">
+      <c r="BP28">
         <v>588.89904826672944</v>
       </c>
-      <c r="BP28">
+      <c r="BQ28">
         <v>86.459000000000003</v>
       </c>
-      <c r="BQ28">
+      <c r="BR28">
         <v>62.45</v>
       </c>
-      <c r="BR28">
+      <c r="BS28">
         <v>72.911000000000001</v>
       </c>
-      <c r="BS28">
+      <c r="BT28">
         <v>0.5</v>
       </c>
-      <c r="BT28">
+      <c r="BU28">
         <v>15.67</v>
       </c>
-      <c r="BU28">
+      <c r="BV28">
         <v>8.8789999999999996</v>
       </c>
-      <c r="BV28">
+      <c r="BW28">
         <v>21.998999999999999</v>
       </c>
-      <c r="BW28" t="s">
+      <c r="BX28" t="s">
         <v>186</v>
       </c>
-      <c r="BX28">
+      <c r="BY28">
         <v>-0.85</v>
       </c>
-      <c r="BY28">
+      <c r="BZ28">
         <v>-2.21</v>
       </c>
-      <c r="BZ28">
+      <c r="CA28">
         <v>-3.58</v>
       </c>
-      <c r="CA28">
+      <c r="CB28">
         <v>0.27</v>
       </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>566</v>
       </c>
@@ -8097,49 +8187,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN29">
+        <v>7500</v>
+      </c>
+      <c r="BO29">
         <v>5.7610000000000001</v>
       </c>
-      <c r="BO29">
+      <c r="BP29">
         <v>2162.6337321032993</v>
       </c>
-      <c r="BP29">
+      <c r="BQ29">
         <v>85.66</v>
       </c>
-      <c r="BQ29">
+      <c r="BR29">
         <v>52.088000000000001</v>
       </c>
-      <c r="BR29">
+      <c r="BS29">
         <v>81.27</v>
       </c>
-      <c r="BS29">
+      <c r="BT29">
         <v>0.5</v>
       </c>
-      <c r="BT29">
+      <c r="BU29">
         <v>13.86</v>
       </c>
-      <c r="BU29">
+      <c r="BV29">
         <v>8.82</v>
       </c>
-      <c r="BV29">
+      <c r="BW29">
         <v>18.922000000000001</v>
       </c>
-      <c r="BW29">
+      <c r="BX29">
         <v>-4.6399999999999997</v>
       </c>
-      <c r="BX29">
+      <c r="BY29">
         <v>-3.33</v>
       </c>
-      <c r="BY29">
+      <c r="BZ29">
         <v>-6.88</v>
       </c>
-      <c r="BZ29">
+      <c r="CA29">
         <v>-8.65</v>
       </c>
-      <c r="CA29">
+      <c r="CB29">
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>586</v>
       </c>
@@ -8330,49 +8423,52 @@
         <v>42.119</v>
       </c>
       <c r="BN30">
+        <v>7500</v>
+      </c>
+      <c r="BO30">
         <v>6.4160000000000004</v>
       </c>
-      <c r="BO30">
+      <c r="BP30">
         <v>1589.2639804971359</v>
       </c>
-      <c r="BP30">
+      <c r="BQ30">
         <v>80.665000000000006</v>
       </c>
-      <c r="BQ30">
+      <c r="BR30">
         <v>24.606999999999999</v>
       </c>
-      <c r="BR30">
+      <c r="BS30">
         <v>52.73</v>
       </c>
-      <c r="BS30">
+      <c r="BT30">
         <v>0.5</v>
       </c>
-      <c r="BT30">
+      <c r="BU30">
         <v>34.564</v>
       </c>
-      <c r="BU30">
+      <c r="BV30">
         <v>13.59</v>
       </c>
-      <c r="BV30">
+      <c r="BW30">
         <v>56.417000000000002</v>
       </c>
-      <c r="BW30">
+      <c r="BX30">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="BX30">
+      <c r="BY30">
         <v>-2.75</v>
       </c>
-      <c r="BY30">
+      <c r="BZ30">
         <v>-5.5</v>
       </c>
-      <c r="BZ30">
+      <c r="CA30">
         <v>-10.25</v>
       </c>
-      <c r="CA30">
+      <c r="CB30">
         <v>0.26</v>
       </c>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>608</v>
       </c>
@@ -8563,49 +8659,52 @@
         <v>45.755000000000003</v>
       </c>
       <c r="BN31">
+        <v>7500</v>
+      </c>
+      <c r="BO31">
         <v>2.238</v>
       </c>
-      <c r="BO31">
+      <c r="BP31">
         <v>3499.1072795080054</v>
       </c>
-      <c r="BP31">
+      <c r="BQ31">
         <v>68.769000000000005</v>
       </c>
-      <c r="BQ31">
+      <c r="BR31">
         <v>45.954999999999998</v>
       </c>
-      <c r="BR31">
+      <c r="BS31">
         <v>56.470999999999997</v>
       </c>
-      <c r="BS31">
+      <c r="BT31">
         <v>0.5</v>
       </c>
-      <c r="BT31">
+      <c r="BU31">
         <v>12.756</v>
       </c>
-      <c r="BU31">
+      <c r="BV31">
         <v>10.201000000000001</v>
       </c>
-      <c r="BV31">
+      <c r="BW31">
         <v>15.436</v>
       </c>
-      <c r="BW31">
+      <c r="BX31">
         <v>-2.4700000000000002</v>
       </c>
-      <c r="BX31">
+      <c r="BY31">
         <v>-1.3</v>
       </c>
-      <c r="BY31">
+      <c r="BZ31">
         <v>-2.33</v>
       </c>
-      <c r="BZ31">
+      <c r="CA31">
         <v>-3.35</v>
       </c>
-      <c r="CA31">
+      <c r="CB31">
         <v>0.27</v>
       </c>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>646</v>
       </c>
@@ -8796,49 +8895,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN32">
+        <v>7500</v>
+      </c>
+      <c r="BO32">
         <v>13.009</v>
       </c>
-      <c r="BO32">
+      <c r="BP32">
         <v>966.57129331852343</v>
       </c>
-      <c r="BP32">
+      <c r="BQ32">
         <v>66.209000000000003</v>
       </c>
-      <c r="BQ32">
+      <c r="BR32">
         <v>48.584000000000003</v>
       </c>
-      <c r="BR32">
+      <c r="BS32">
         <v>60.161999999999999</v>
       </c>
-      <c r="BS32">
+      <c r="BT32">
         <v>0.5</v>
       </c>
-      <c r="BT32">
+      <c r="BU32">
         <v>27.922999999999998</v>
       </c>
-      <c r="BU32">
+      <c r="BV32">
         <v>24.498000000000001</v>
       </c>
-      <c r="BV32">
+      <c r="BW32">
         <v>31.27</v>
       </c>
-      <c r="BW32">
+      <c r="BX32">
         <v>-3.22</v>
       </c>
-      <c r="BX32">
+      <c r="BY32">
         <v>-3.85</v>
       </c>
-      <c r="BY32">
+      <c r="BZ32">
         <v>-7.75</v>
       </c>
-      <c r="BZ32">
+      <c r="CA32">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="CA32">
+      <c r="CB32">
         <v>0.33</v>
       </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>686</v>
       </c>
@@ -9029,49 +9131,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN33">
+        <v>7500</v>
+      </c>
+      <c r="BO33">
         <v>3.4340000000000002</v>
       </c>
-      <c r="BO33">
+      <c r="BP33">
         <v>1594.9851531115332</v>
       </c>
-      <c r="BP33">
+      <c r="BQ33">
         <v>64.534999999999997</v>
       </c>
-      <c r="BQ33">
+      <c r="BR33">
         <v>38.56</v>
       </c>
-      <c r="BR33">
+      <c r="BS33">
         <v>50.712000000000003</v>
       </c>
-      <c r="BS33">
+      <c r="BT33">
         <v>0.5</v>
       </c>
-      <c r="BT33">
+      <c r="BU33">
         <v>33.033999999999999</v>
       </c>
-      <c r="BU33">
+      <c r="BV33">
         <v>22.216000000000001</v>
       </c>
-      <c r="BV33">
+      <c r="BW33">
         <v>42.424999999999997</v>
       </c>
-      <c r="BW33">
+      <c r="BX33">
         <v>-3.19</v>
       </c>
-      <c r="BX33">
+      <c r="BY33">
         <v>-1.45</v>
       </c>
-      <c r="BY33">
+      <c r="BZ33">
         <v>-2.36</v>
       </c>
-      <c r="BZ33">
+      <c r="CA33">
         <v>-3.28</v>
       </c>
-      <c r="CA33">
+      <c r="CB33">
         <v>0.26</v>
       </c>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>694</v>
       </c>
@@ -9262,49 +9367,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN34">
+        <v>7500</v>
+      </c>
+      <c r="BO34">
         <v>3.6349999999999998</v>
       </c>
-      <c r="BO34">
+      <c r="BP34">
         <v>475.79572784462187</v>
       </c>
-      <c r="BP34">
+      <c r="BQ34">
         <v>56.646000000000001</v>
       </c>
-      <c r="BQ34">
+      <c r="BR34">
         <v>51.115000000000002</v>
       </c>
-      <c r="BR34">
+      <c r="BS34">
         <v>53.911999999999999</v>
       </c>
-      <c r="BS34">
+      <c r="BT34">
         <v>0.5</v>
       </c>
-      <c r="BT34">
+      <c r="BU34">
         <v>33.167000000000002</v>
       </c>
-      <c r="BU34">
+      <c r="BV34">
         <v>31.227</v>
       </c>
-      <c r="BV34">
+      <c r="BW34">
         <v>34.813000000000002</v>
       </c>
-      <c r="BW34" t="s">
+      <c r="BX34" t="s">
         <v>186</v>
       </c>
-      <c r="BX34">
+      <c r="BY34">
         <v>-0.85</v>
       </c>
-      <c r="BY34">
+      <c r="BZ34">
         <v>-2.21</v>
       </c>
-      <c r="BZ34">
+      <c r="CA34">
         <v>-3.58</v>
       </c>
-      <c r="CA34">
+      <c r="CB34">
         <v>0.27</v>
       </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>728</v>
       </c>
@@ -9495,25 +9603,25 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN35">
+        <v>7500</v>
+      </c>
+      <c r="BO35">
         <v>12.975</v>
       </c>
-      <c r="BO35">
+      <c r="BP35">
         <v>0</v>
       </c>
-      <c r="BP35" t="s">
+      <c r="BQ35" t="s">
         <v>3</v>
       </c>
-      <c r="BQ35">
+      <c r="BR35">
         <v>70.852000000000004</v>
       </c>
-      <c r="BR35" t="s">
+      <c r="BS35" t="s">
         <v>3</v>
       </c>
-      <c r="BS35">
+      <c r="BT35">
         <v>0.5</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>3</v>
       </c>
       <c r="BU35" t="s">
         <v>3</v>
@@ -9522,22 +9630,25 @@
         <v>3</v>
       </c>
       <c r="BW35" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX35" t="s">
         <v>186</v>
       </c>
-      <c r="BX35">
+      <c r="BY35">
         <v>-1.49</v>
       </c>
-      <c r="BY35">
+      <c r="BZ35">
         <v>-3.81</v>
       </c>
-      <c r="BZ35">
+      <c r="CA35">
         <v>-4.9800000000000004</v>
       </c>
-      <c r="CA35">
+      <c r="CB35">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>834</v>
       </c>
@@ -9728,49 +9839,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN36">
+        <v>7500</v>
+      </c>
+      <c r="BO36">
         <v>2.762</v>
       </c>
-      <c r="BO36">
+      <c r="BP36">
         <v>1193.35961914063</v>
       </c>
-      <c r="BP36">
+      <c r="BQ36">
         <v>85.028000000000006</v>
       </c>
-      <c r="BQ36">
+      <c r="BR36">
         <v>78.855000000000004</v>
       </c>
-      <c r="BR36">
+      <c r="BS36">
         <v>80.391999999999996</v>
       </c>
-      <c r="BS36">
+      <c r="BT36">
         <v>0.5</v>
       </c>
-      <c r="BT36">
+      <c r="BU36">
         <v>14.353</v>
       </c>
-      <c r="BU36">
+      <c r="BV36">
         <v>9.06</v>
       </c>
-      <c r="BV36">
+      <c r="BW36">
         <v>19.286000000000001</v>
       </c>
-      <c r="BW36">
+      <c r="BX36">
         <v>-2.93</v>
       </c>
-      <c r="BX36">
+      <c r="BY36">
         <v>-3.51</v>
       </c>
-      <c r="BY36">
+      <c r="BZ36">
         <v>-7.19</v>
       </c>
-      <c r="BZ36">
+      <c r="CA36">
         <v>-9.0299999999999994</v>
       </c>
-      <c r="CA36">
+      <c r="CB36">
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>626</v>
       </c>
@@ -9961,49 +10075,52 @@
         <v>45.755000000000003</v>
       </c>
       <c r="BN37">
+        <v>7500</v>
+      </c>
+      <c r="BO37">
         <v>4.8639999999999999</v>
       </c>
-      <c r="BO37">
+      <c r="BP37">
         <v>2389.295875034295</v>
       </c>
-      <c r="BP37">
+      <c r="BQ37">
         <v>41.375999999999998</v>
       </c>
-      <c r="BQ37">
+      <c r="BR37">
         <v>61.466999999999999</v>
       </c>
-      <c r="BR37">
+      <c r="BS37">
         <v>34.625</v>
       </c>
-      <c r="BS37">
+      <c r="BT37">
         <v>0.5</v>
       </c>
-      <c r="BT37">
+      <c r="BU37">
         <v>29.122</v>
       </c>
-      <c r="BU37">
+      <c r="BV37">
         <v>29.053000000000001</v>
       </c>
-      <c r="BV37">
+      <c r="BW37">
         <v>29.192</v>
       </c>
-      <c r="BW37" t="s">
+      <c r="BX37" t="s">
         <v>186</v>
       </c>
-      <c r="BX37">
+      <c r="BY37">
         <v>-3.06</v>
       </c>
-      <c r="BY37">
+      <c r="BZ37">
         <v>-6.44</v>
       </c>
-      <c r="BZ37">
+      <c r="CA37">
         <v>-8.1300000000000008</v>
       </c>
-      <c r="CA37">
+      <c r="CB37">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>768</v>
       </c>
@@ -10194,49 +10311,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN38">
+        <v>7500</v>
+      </c>
+      <c r="BO38">
         <v>4.0659999999999998</v>
       </c>
-      <c r="BO38">
+      <c r="BP38">
         <v>923.2403711502584</v>
       </c>
-      <c r="BP38">
+      <c r="BQ38">
         <v>78.277000000000001</v>
       </c>
-      <c r="BQ38">
+      <c r="BR38">
         <v>56.405999999999999</v>
       </c>
-      <c r="BR38">
+      <c r="BS38">
         <v>75.251999999999995</v>
       </c>
-      <c r="BS38">
+      <c r="BT38">
         <v>0.5</v>
       </c>
-      <c r="BT38">
+      <c r="BU38">
         <v>13.250999999999999</v>
       </c>
-      <c r="BU38">
+      <c r="BV38">
         <v>10.509</v>
       </c>
-      <c r="BV38">
+      <c r="BW38">
         <v>15.775</v>
       </c>
-      <c r="BW38">
+      <c r="BX38">
         <v>-6.1</v>
       </c>
-      <c r="BX38">
+      <c r="BY38">
         <v>-3.36</v>
       </c>
-      <c r="BY38">
+      <c r="BZ38">
         <v>-6.94</v>
       </c>
-      <c r="BZ38">
+      <c r="CA38">
         <v>-8.73</v>
       </c>
-      <c r="CA38">
+      <c r="CB38">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>800</v>
       </c>
@@ -10427,49 +10547,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN39">
+        <v>7500</v>
+      </c>
+      <c r="BO39">
         <v>4.28</v>
       </c>
-      <c r="BO39">
+      <c r="BP39">
         <v>964.35414652666589</v>
       </c>
-      <c r="BP39">
+      <c r="BQ39">
         <v>84.241</v>
       </c>
-      <c r="BQ39">
+      <c r="BR39">
         <v>67.611999999999995</v>
       </c>
-      <c r="BR39">
+      <c r="BS39">
         <v>79.201999999999998</v>
       </c>
-      <c r="BS39">
+      <c r="BT39">
         <v>0.5</v>
       </c>
-      <c r="BT39">
+      <c r="BU39">
         <v>13.805</v>
       </c>
-      <c r="BU39">
+      <c r="BV39">
         <v>9.4049999999999994</v>
       </c>
-      <c r="BV39">
+      <c r="BW39">
         <v>17.788</v>
       </c>
-      <c r="BW39">
+      <c r="BX39">
         <v>-2.5299999999999998</v>
       </c>
-      <c r="BX39">
+      <c r="BY39">
         <v>-3.89</v>
       </c>
-      <c r="BY39">
+      <c r="BZ39">
         <v>-7.81</v>
       </c>
-      <c r="BZ39">
+      <c r="CA39">
         <v>-9.7799999999999994</v>
       </c>
-      <c r="CA39">
+      <c r="CB39">
         <v>0.31</v>
       </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>887</v>
       </c>
@@ -10660,25 +10783,25 @@
         <v>39.798999999999999</v>
       </c>
       <c r="BN40">
+        <v>7500</v>
+      </c>
+      <c r="BO40">
         <v>13.59</v>
       </c>
-      <c r="BO40">
+      <c r="BP40">
         <v>698.85034996524905</v>
       </c>
-      <c r="BP40" t="s">
+      <c r="BQ40" t="s">
         <v>3</v>
       </c>
-      <c r="BQ40">
+      <c r="BR40">
         <v>6.1959999999999997</v>
       </c>
-      <c r="BR40" t="s">
+      <c r="BS40" t="s">
         <v>3</v>
       </c>
-      <c r="BS40">
+      <c r="BT40">
         <v>0.5</v>
-      </c>
-      <c r="BT40" t="s">
-        <v>3</v>
       </c>
       <c r="BU40" t="s">
         <v>3</v>
@@ -10687,22 +10810,25 @@
         <v>3</v>
       </c>
       <c r="BW40" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX40" t="s">
         <v>186</v>
       </c>
-      <c r="BX40">
+      <c r="BY40">
         <v>-2.98</v>
       </c>
-      <c r="BY40">
+      <c r="BZ40">
         <v>-5.55</v>
       </c>
-      <c r="BZ40">
+      <c r="CA40">
         <v>-9.93</v>
       </c>
-      <c r="CA40">
+      <c r="CB40">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>894</v>
       </c>
@@ -10893,49 +11019,52 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN41">
+        <v>7500</v>
+      </c>
+      <c r="BO41">
         <v>6.1310000000000002</v>
       </c>
-      <c r="BO41">
+      <c r="BP41">
         <v>1456.9015702615729</v>
       </c>
-      <c r="BP41">
+      <c r="BQ41">
         <v>66.356999999999999</v>
       </c>
-      <c r="BQ41">
+      <c r="BR41">
         <v>54.058</v>
       </c>
-      <c r="BR41">
+      <c r="BS41">
         <v>60.119</v>
       </c>
-      <c r="BS41">
+      <c r="BT41">
         <v>0.5</v>
       </c>
-      <c r="BT41">
+      <c r="BU41">
         <v>29.367999999999999</v>
       </c>
-      <c r="BU41">
+      <c r="BV41">
         <v>25.247</v>
       </c>
-      <c r="BV41">
+      <c r="BW41">
         <v>33.469000000000001</v>
       </c>
-      <c r="BW41">
+      <c r="BX41">
         <v>-1.43</v>
       </c>
-      <c r="BX41">
+      <c r="BY41">
         <v>-3.03</v>
       </c>
-      <c r="BY41">
+      <c r="BZ41">
         <v>-6.38</v>
       </c>
-      <c r="BZ41">
+      <c r="CA41">
         <v>-8.0500000000000007</v>
       </c>
-      <c r="CA41">
+      <c r="CB41">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>716</v>
       </c>
@@ -11126,45 +11255,48 @@
         <v>36.551000000000002</v>
       </c>
       <c r="BN42">
+        <v>7500</v>
+      </c>
+      <c r="BO42">
         <v>7.9450000000000003</v>
       </c>
-      <c r="BO42">
+      <c r="BP42">
         <v>1676.8214889678823</v>
       </c>
-      <c r="BP42">
+      <c r="BQ42">
         <v>71.588999999999999</v>
       </c>
-      <c r="BQ42">
+      <c r="BR42">
         <v>61.210999999999999</v>
       </c>
-      <c r="BR42">
+      <c r="BS42">
         <v>65.397999999999996</v>
       </c>
-      <c r="BS42">
+      <c r="BT42">
         <v>0.5</v>
       </c>
-      <c r="BT42">
+      <c r="BU42">
         <v>32.235999999999997</v>
       </c>
-      <c r="BU42">
+      <c r="BV42">
         <v>26.635000000000002</v>
       </c>
-      <c r="BV42">
+      <c r="BW42">
         <v>37.689</v>
       </c>
-      <c r="BW42">
+      <c r="BX42">
         <v>-1.6</v>
       </c>
-      <c r="BX42">
+      <c r="BY42">
         <v>-2.61</v>
       </c>
-      <c r="BY42">
+      <c r="BZ42">
         <v>-5.69</v>
       </c>
-      <c r="BZ42">
+      <c r="CA42">
         <v>-7.23</v>
       </c>
-      <c r="CA42">
+      <c r="CB42">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -11176,10 +11308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F7574A-1BB5-4B35-A924-4615A8493E31}">
-  <dimension ref="A1:CA42"/>
+  <dimension ref="A1:CB42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BU9" sqref="BU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11194,7 +11326,7 @@
     <col min="32" max="32" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -11391,49 +11523,52 @@
         <v>129</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -11615,25 +11750,25 @@
         <v>212</v>
       </c>
       <c r="BN2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BO2" t="s">
         <v>191</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>193</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>213</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>191</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>213</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>214</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>215</v>
       </c>
       <c r="BU2" t="s">
         <v>215</v>
@@ -11642,22 +11777,25 @@
         <v>215</v>
       </c>
       <c r="BW2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX2" t="s">
         <v>216</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>217</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>218</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>219</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24</v>
       </c>
@@ -11839,25 +11977,25 @@
         <v>212</v>
       </c>
       <c r="BN3" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO3" t="s">
         <v>193</v>
       </c>
       <c r="BP3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>213</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>193</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BS3" t="s">
         <v>213</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BT3" t="s">
         <v>214</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>215</v>
       </c>
       <c r="BU3" t="s">
         <v>215</v>
@@ -11866,22 +12004,25 @@
         <v>215</v>
       </c>
       <c r="BW3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX3" t="s">
         <v>216</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BY3" t="s">
         <v>217</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="BZ3" t="s">
         <v>218</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CA3" t="s">
         <v>219</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CB3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
@@ -12063,25 +12204,25 @@
         <v>212</v>
       </c>
       <c r="BN4" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO4" t="s">
         <v>193</v>
       </c>
       <c r="BP4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>195</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>193</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BS4" t="s">
         <v>195</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BT4" t="s">
         <v>214</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>233</v>
       </c>
       <c r="BU4" t="s">
         <v>233</v>
@@ -12090,22 +12231,25 @@
         <v>233</v>
       </c>
       <c r="BW4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX4" t="s">
         <v>216</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BY4" t="s">
         <v>217</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="BZ4" t="s">
         <v>218</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CA4" t="s">
         <v>219</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CB4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>204</v>
       </c>
@@ -12284,25 +12428,25 @@
         <v>212</v>
       </c>
       <c r="BN5" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO5" t="s">
         <v>193</v>
       </c>
       <c r="BP5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ5" t="s">
         <v>194</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
         <v>193</v>
       </c>
-      <c r="BR5" t="s">
+      <c r="BS5" t="s">
         <v>194</v>
       </c>
-      <c r="BS5" t="s">
+      <c r="BT5" t="s">
         <v>214</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>233</v>
       </c>
       <c r="BU5" t="s">
         <v>233</v>
@@ -12311,22 +12455,25 @@
         <v>233</v>
       </c>
       <c r="BW5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX5" t="s">
         <v>216</v>
       </c>
-      <c r="BX5" t="s">
+      <c r="BY5" t="s">
         <v>217</v>
       </c>
-      <c r="BY5" t="s">
+      <c r="BZ5" t="s">
         <v>218</v>
       </c>
-      <c r="BZ5" t="s">
+      <c r="CA5" t="s">
         <v>219</v>
       </c>
-      <c r="CA5" t="s">
+      <c r="CB5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>854</v>
       </c>
@@ -12508,25 +12655,25 @@
         <v>212</v>
       </c>
       <c r="BN6" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO6" t="s">
         <v>193</v>
       </c>
       <c r="BP6" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>194</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BR6" t="s">
         <v>193</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="BS6" t="s">
         <v>194</v>
       </c>
-      <c r="BS6" t="s">
+      <c r="BT6" t="s">
         <v>214</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>238</v>
       </c>
       <c r="BU6" t="s">
         <v>238</v>
@@ -12535,22 +12682,25 @@
         <v>238</v>
       </c>
       <c r="BW6" t="s">
+        <v>238</v>
+      </c>
+      <c r="BX6" t="s">
         <v>216</v>
       </c>
-      <c r="BX6" t="s">
+      <c r="BY6" t="s">
         <v>217</v>
       </c>
-      <c r="BY6" t="s">
+      <c r="BZ6" t="s">
         <v>218</v>
       </c>
-      <c r="BZ6" t="s">
+      <c r="CA6" t="s">
         <v>219</v>
       </c>
-      <c r="CA6" t="s">
+      <c r="CB6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>108</v>
       </c>
@@ -12729,25 +12879,25 @@
         <v>212</v>
       </c>
       <c r="BN7" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO7" t="s">
         <v>193</v>
       </c>
       <c r="BP7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ7" t="s">
         <v>191</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BR7" t="s">
         <v>193</v>
       </c>
-      <c r="BR7" t="s">
+      <c r="BS7" t="s">
         <v>191</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="BT7" t="s">
         <v>214</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>242</v>
       </c>
       <c r="BU7" t="s">
         <v>242</v>
@@ -12756,22 +12906,25 @@
         <v>242</v>
       </c>
       <c r="BW7" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX7" t="s">
         <v>216</v>
       </c>
-      <c r="BX7" t="s">
+      <c r="BY7" t="s">
         <v>217</v>
       </c>
-      <c r="BY7" t="s">
+      <c r="BZ7" t="s">
         <v>218</v>
       </c>
-      <c r="BZ7" t="s">
+      <c r="CA7" t="s">
         <v>219</v>
       </c>
-      <c r="CA7" t="s">
+      <c r="CB7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>116</v>
       </c>
@@ -12950,25 +13103,25 @@
         <v>212</v>
       </c>
       <c r="BN8" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO8" t="s">
         <v>193</v>
       </c>
       <c r="BP8" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ8" t="s">
         <v>213</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BR8" t="s">
         <v>193</v>
       </c>
-      <c r="BR8" t="s">
+      <c r="BS8" t="s">
         <v>213</v>
       </c>
-      <c r="BS8" t="s">
+      <c r="BT8" t="s">
         <v>214</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>215</v>
       </c>
       <c r="BU8" t="s">
         <v>215</v>
@@ -12977,22 +13130,25 @@
         <v>215</v>
       </c>
       <c r="BW8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX8" t="s">
         <v>216</v>
       </c>
-      <c r="BX8" t="s">
+      <c r="BY8" t="s">
         <v>217</v>
       </c>
-      <c r="BY8" t="s">
+      <c r="BZ8" t="s">
         <v>218</v>
       </c>
-      <c r="BZ8" t="s">
+      <c r="CA8" t="s">
         <v>219</v>
       </c>
-      <c r="CA8" t="s">
+      <c r="CB8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>120</v>
       </c>
@@ -13174,19 +13330,19 @@
         <v>212</v>
       </c>
       <c r="BN9" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO9" t="s">
         <v>193</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BP9" t="s">
         <v>193</v>
       </c>
-      <c r="BS9" t="s">
+      <c r="BR9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT9" t="s">
         <v>214</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>215</v>
       </c>
       <c r="BU9" t="s">
         <v>215</v>
@@ -13195,22 +13351,25 @@
         <v>215</v>
       </c>
       <c r="BW9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX9" t="s">
         <v>216</v>
       </c>
-      <c r="BX9" t="s">
+      <c r="BY9" t="s">
         <v>217</v>
       </c>
-      <c r="BY9" t="s">
+      <c r="BZ9" t="s">
         <v>218</v>
       </c>
-      <c r="BZ9" t="s">
+      <c r="CA9" t="s">
         <v>219</v>
       </c>
-      <c r="CA9" t="s">
+      <c r="CB9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>384</v>
       </c>
@@ -13389,25 +13548,25 @@
         <v>212</v>
       </c>
       <c r="BN10" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO10" t="s">
         <v>193</v>
       </c>
       <c r="BP10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ10" t="s">
         <v>230</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BR10" t="s">
         <v>193</v>
       </c>
-      <c r="BR10" t="s">
+      <c r="BS10" t="s">
         <v>230</v>
       </c>
-      <c r="BS10" t="s">
+      <c r="BT10" t="s">
         <v>214</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>233</v>
       </c>
       <c r="BU10" t="s">
         <v>233</v>
@@ -13416,22 +13575,25 @@
         <v>233</v>
       </c>
       <c r="BW10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX10" t="s">
         <v>216</v>
       </c>
-      <c r="BX10" t="s">
+      <c r="BY10" t="s">
         <v>217</v>
       </c>
-      <c r="BY10" t="s">
+      <c r="BZ10" t="s">
         <v>218</v>
       </c>
-      <c r="BZ10" t="s">
+      <c r="CA10" t="s">
         <v>219</v>
       </c>
-      <c r="CA10" t="s">
+      <c r="CB10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>180</v>
       </c>
@@ -13613,25 +13775,25 @@
         <v>212</v>
       </c>
       <c r="BN11" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO11" t="s">
         <v>193</v>
       </c>
       <c r="BP11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ11" t="s">
         <v>191</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BR11" t="s">
         <v>193</v>
       </c>
-      <c r="BR11" t="s">
+      <c r="BS11" t="s">
         <v>191</v>
       </c>
-      <c r="BS11" t="s">
+      <c r="BT11" t="s">
         <v>214</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>242</v>
       </c>
       <c r="BU11" t="s">
         <v>242</v>
@@ -13640,22 +13802,25 @@
         <v>242</v>
       </c>
       <c r="BW11" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX11" t="s">
         <v>216</v>
       </c>
-      <c r="BX11" t="s">
+      <c r="BY11" t="s">
         <v>217</v>
       </c>
-      <c r="BY11" t="s">
+      <c r="BZ11" t="s">
         <v>218</v>
       </c>
-      <c r="BZ11" t="s">
+      <c r="CA11" t="s">
         <v>219</v>
       </c>
-      <c r="CA11" t="s">
+      <c r="CB11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>818</v>
       </c>
@@ -13834,25 +13999,25 @@
         <v>212</v>
       </c>
       <c r="BN12" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO12" t="s">
         <v>193</v>
       </c>
       <c r="BP12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ12" t="s">
         <v>213</v>
       </c>
-      <c r="BQ12" t="s">
+      <c r="BR12" t="s">
         <v>193</v>
       </c>
-      <c r="BR12" t="s">
+      <c r="BS12" t="s">
         <v>213</v>
       </c>
-      <c r="BS12" t="s">
+      <c r="BT12" t="s">
         <v>214</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>233</v>
       </c>
       <c r="BU12" t="s">
         <v>233</v>
@@ -13861,22 +14026,25 @@
         <v>233</v>
       </c>
       <c r="BW12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX12" t="s">
         <v>216</v>
       </c>
-      <c r="BX12" t="s">
+      <c r="BY12" t="s">
         <v>217</v>
       </c>
-      <c r="BY12" t="s">
+      <c r="BZ12" t="s">
         <v>218</v>
       </c>
-      <c r="BZ12" t="s">
+      <c r="CA12" t="s">
         <v>219</v>
       </c>
-      <c r="CA12" t="s">
+      <c r="CB12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>231</v>
       </c>
@@ -14058,25 +14226,25 @@
         <v>212</v>
       </c>
       <c r="BN13" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO13" t="s">
         <v>193</v>
       </c>
       <c r="BP13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ13" t="s">
         <v>213</v>
       </c>
-      <c r="BQ13" t="s">
+      <c r="BR13" t="s">
         <v>193</v>
       </c>
-      <c r="BR13" t="s">
+      <c r="BS13" t="s">
         <v>213</v>
       </c>
-      <c r="BS13" t="s">
+      <c r="BT13" t="s">
         <v>214</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>215</v>
       </c>
       <c r="BU13" t="s">
         <v>215</v>
@@ -14085,22 +14253,25 @@
         <v>215</v>
       </c>
       <c r="BW13" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX13" t="s">
         <v>216</v>
       </c>
-      <c r="BX13" t="s">
+      <c r="BY13" t="s">
         <v>217</v>
       </c>
-      <c r="BY13" t="s">
+      <c r="BZ13" t="s">
         <v>218</v>
       </c>
-      <c r="BZ13" t="s">
+      <c r="CA13" t="s">
         <v>219</v>
       </c>
-      <c r="CA13" t="s">
+      <c r="CB13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>288</v>
       </c>
@@ -14282,25 +14453,25 @@
         <v>212</v>
       </c>
       <c r="BN14" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO14" t="s">
         <v>193</v>
       </c>
       <c r="BP14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ14" t="s">
         <v>195</v>
       </c>
-      <c r="BQ14" t="s">
+      <c r="BR14" t="s">
         <v>193</v>
       </c>
-      <c r="BR14" t="s">
+      <c r="BS14" t="s">
         <v>195</v>
       </c>
-      <c r="BS14" t="s">
+      <c r="BT14" t="s">
         <v>214</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>233</v>
       </c>
       <c r="BU14" t="s">
         <v>233</v>
@@ -14309,22 +14480,25 @@
         <v>233</v>
       </c>
       <c r="BW14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX14" t="s">
         <v>216</v>
       </c>
-      <c r="BX14" t="s">
+      <c r="BY14" t="s">
         <v>217</v>
       </c>
-      <c r="BY14" t="s">
+      <c r="BZ14" t="s">
         <v>218</v>
       </c>
-      <c r="BZ14" t="s">
+      <c r="CA14" t="s">
         <v>219</v>
       </c>
-      <c r="CA14" t="s">
+      <c r="CB14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>320</v>
       </c>
@@ -14506,7 +14680,7 @@
         <v>212</v>
       </c>
       <c r="BN15" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO15" t="s">
         <v>193</v>
@@ -14521,10 +14695,10 @@
         <v>193</v>
       </c>
       <c r="BS15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT15" t="s">
         <v>214</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>233</v>
       </c>
       <c r="BU15" t="s">
         <v>233</v>
@@ -14533,22 +14707,25 @@
         <v>233</v>
       </c>
       <c r="BW15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX15" t="s">
         <v>216</v>
       </c>
-      <c r="BX15" t="s">
+      <c r="BY15" t="s">
         <v>217</v>
       </c>
-      <c r="BY15" t="s">
+      <c r="BZ15" t="s">
         <v>218</v>
       </c>
-      <c r="BZ15" t="s">
+      <c r="CA15" t="s">
         <v>219</v>
       </c>
-      <c r="CA15" t="s">
+      <c r="CB15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>324</v>
       </c>
@@ -14727,25 +14904,25 @@
         <v>212</v>
       </c>
       <c r="BN16" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO16" t="s">
         <v>193</v>
       </c>
       <c r="BP16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ16" t="s">
         <v>230</v>
       </c>
-      <c r="BQ16" t="s">
+      <c r="BR16" t="s">
         <v>193</v>
       </c>
-      <c r="BR16" t="s">
+      <c r="BS16" t="s">
         <v>230</v>
       </c>
-      <c r="BS16" t="s">
+      <c r="BT16" t="s">
         <v>214</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>262</v>
       </c>
       <c r="BU16" t="s">
         <v>262</v>
@@ -14754,22 +14931,25 @@
         <v>262</v>
       </c>
       <c r="BW16" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX16" t="s">
         <v>216</v>
       </c>
-      <c r="BX16" t="s">
+      <c r="BY16" t="s">
         <v>217</v>
       </c>
-      <c r="BY16" t="s">
+      <c r="BZ16" t="s">
         <v>218</v>
       </c>
-      <c r="BZ16" t="s">
+      <c r="CA16" t="s">
         <v>219</v>
       </c>
-      <c r="CA16" t="s">
+      <c r="CB16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>332</v>
       </c>
@@ -14948,19 +15128,19 @@
         <v>212</v>
       </c>
       <c r="BN17" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO17" t="s">
         <v>193</v>
       </c>
-      <c r="BQ17" t="s">
+      <c r="BP17" t="s">
         <v>193</v>
       </c>
-      <c r="BS17" t="s">
+      <c r="BR17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT17" t="s">
         <v>214</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>263</v>
       </c>
       <c r="BU17" t="s">
         <v>263</v>
@@ -14969,22 +15149,25 @@
         <v>263</v>
       </c>
       <c r="BW17" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX17" t="s">
         <v>216</v>
       </c>
-      <c r="BX17" t="s">
+      <c r="BY17" t="s">
         <v>217</v>
       </c>
-      <c r="BY17" t="s">
+      <c r="BZ17" t="s">
         <v>218</v>
       </c>
-      <c r="BZ17" t="s">
+      <c r="CA17" t="s">
         <v>219</v>
       </c>
-      <c r="CA17" t="s">
+      <c r="CB17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>356</v>
       </c>
@@ -15166,7 +15349,7 @@
         <v>212</v>
       </c>
       <c r="BN18" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO18" t="s">
         <v>193</v>
@@ -15181,10 +15364,10 @@
         <v>193</v>
       </c>
       <c r="BS18" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT18" t="s">
         <v>214</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>238</v>
       </c>
       <c r="BU18" t="s">
         <v>238</v>
@@ -15193,22 +15376,25 @@
         <v>238</v>
       </c>
       <c r="BW18" t="s">
+        <v>238</v>
+      </c>
+      <c r="BX18" t="s">
         <v>216</v>
       </c>
-      <c r="BX18" t="s">
+      <c r="BY18" t="s">
         <v>217</v>
       </c>
-      <c r="BY18" t="s">
+      <c r="BZ18" t="s">
         <v>218</v>
       </c>
-      <c r="BZ18" t="s">
+      <c r="CA18" t="s">
         <v>219</v>
       </c>
-      <c r="CA18" t="s">
+      <c r="CB18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>400</v>
       </c>
@@ -15390,25 +15576,25 @@
         <v>212</v>
       </c>
       <c r="BN19" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO19" t="s">
         <v>193</v>
       </c>
       <c r="BP19" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ19" t="s">
         <v>213</v>
       </c>
-      <c r="BQ19" t="s">
+      <c r="BR19" t="s">
         <v>193</v>
       </c>
-      <c r="BR19" t="s">
+      <c r="BS19" t="s">
         <v>213</v>
       </c>
-      <c r="BS19" t="s">
+      <c r="BT19" t="s">
         <v>214</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>233</v>
       </c>
       <c r="BU19" t="s">
         <v>233</v>
@@ -15417,22 +15603,25 @@
         <v>233</v>
       </c>
       <c r="BW19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX19" t="s">
         <v>216</v>
       </c>
-      <c r="BX19" t="s">
+      <c r="BY19" t="s">
         <v>217</v>
       </c>
-      <c r="BY19" t="s">
+      <c r="BZ19" t="s">
         <v>218</v>
       </c>
-      <c r="BZ19" t="s">
+      <c r="CA19" t="s">
         <v>219</v>
       </c>
-      <c r="CA19" t="s">
+      <c r="CB19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>404</v>
       </c>
@@ -15623,25 +15812,25 @@
         <v>212</v>
       </c>
       <c r="BN20" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO20" t="s">
         <v>193</v>
       </c>
       <c r="BP20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ20" t="s">
         <v>213</v>
       </c>
-      <c r="BQ20" t="s">
+      <c r="BR20" t="s">
         <v>193</v>
       </c>
-      <c r="BR20" t="s">
+      <c r="BS20" t="s">
         <v>213</v>
       </c>
-      <c r="BS20" t="s">
+      <c r="BT20" t="s">
         <v>214</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>215</v>
       </c>
       <c r="BU20" t="s">
         <v>215</v>
@@ -15650,22 +15839,25 @@
         <v>215</v>
       </c>
       <c r="BW20" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX20" t="s">
         <v>216</v>
       </c>
-      <c r="BX20" t="s">
+      <c r="BY20" t="s">
         <v>217</v>
       </c>
-      <c r="BY20" t="s">
+      <c r="BZ20" t="s">
         <v>218</v>
       </c>
-      <c r="BZ20" t="s">
+      <c r="CA20" t="s">
         <v>219</v>
       </c>
-      <c r="CA20" t="s">
+      <c r="CB20" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>430</v>
       </c>
@@ -15844,25 +16036,25 @@
         <v>212</v>
       </c>
       <c r="BN21" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO21" t="s">
         <v>193</v>
       </c>
       <c r="BP21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ21" t="s">
         <v>195</v>
       </c>
-      <c r="BQ21" t="s">
+      <c r="BR21" t="s">
         <v>193</v>
       </c>
-      <c r="BR21" t="s">
+      <c r="BS21" t="s">
         <v>195</v>
       </c>
-      <c r="BS21" t="s">
+      <c r="BT21" t="s">
         <v>214</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>273</v>
       </c>
       <c r="BU21" t="s">
         <v>273</v>
@@ -15871,22 +16063,25 @@
         <v>273</v>
       </c>
       <c r="BW21" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX21" t="s">
         <v>216</v>
       </c>
-      <c r="BX21" t="s">
+      <c r="BY21" t="s">
         <v>217</v>
       </c>
-      <c r="BY21" t="s">
+      <c r="BZ21" t="s">
         <v>218</v>
       </c>
-      <c r="BZ21" t="s">
+      <c r="CA21" t="s">
         <v>219</v>
       </c>
-      <c r="CA21" t="s">
+      <c r="CB21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>450</v>
       </c>
@@ -16068,25 +16263,25 @@
         <v>212</v>
       </c>
       <c r="BN22" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO22" t="s">
         <v>193</v>
       </c>
       <c r="BP22" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ22" t="s">
         <v>222</v>
       </c>
-      <c r="BQ22" t="s">
+      <c r="BR22" t="s">
         <v>193</v>
       </c>
-      <c r="BR22" t="s">
+      <c r="BS22" t="s">
         <v>222</v>
       </c>
-      <c r="BS22" t="s">
+      <c r="BT22" t="s">
         <v>214</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>233</v>
       </c>
       <c r="BU22" t="s">
         <v>233</v>
@@ -16095,22 +16290,25 @@
         <v>233</v>
       </c>
       <c r="BW22" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX22" t="s">
         <v>216</v>
       </c>
-      <c r="BX22" t="s">
+      <c r="BY22" t="s">
         <v>217</v>
       </c>
-      <c r="BY22" t="s">
+      <c r="BZ22" t="s">
         <v>218</v>
       </c>
-      <c r="BZ22" t="s">
+      <c r="CA22" t="s">
         <v>219</v>
       </c>
-      <c r="CA22" t="s">
+      <c r="CB22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>454</v>
       </c>
@@ -16292,25 +16490,25 @@
         <v>212</v>
       </c>
       <c r="BN23" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO23" t="s">
         <v>193</v>
       </c>
       <c r="BP23" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ23" t="s">
         <v>191</v>
       </c>
-      <c r="BQ23" t="s">
+      <c r="BR23" t="s">
         <v>193</v>
       </c>
-      <c r="BR23" t="s">
+      <c r="BS23" t="s">
         <v>191</v>
       </c>
-      <c r="BS23" t="s">
+      <c r="BT23" t="s">
         <v>214</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>242</v>
       </c>
       <c r="BU23" t="s">
         <v>242</v>
@@ -16319,22 +16517,25 @@
         <v>242</v>
       </c>
       <c r="BW23" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX23" t="s">
         <v>216</v>
       </c>
-      <c r="BX23" t="s">
+      <c r="BY23" t="s">
         <v>217</v>
       </c>
-      <c r="BY23" t="s">
+      <c r="BZ23" t="s">
         <v>218</v>
       </c>
-      <c r="BZ23" t="s">
+      <c r="CA23" t="s">
         <v>219</v>
       </c>
-      <c r="CA23" t="s">
+      <c r="CB23" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>466</v>
       </c>
@@ -16516,25 +16717,25 @@
         <v>212</v>
       </c>
       <c r="BN24" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO24" t="s">
         <v>193</v>
       </c>
       <c r="BP24" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ24" t="s">
         <v>191</v>
       </c>
-      <c r="BQ24" t="s">
+      <c r="BR24" t="s">
         <v>193</v>
       </c>
-      <c r="BR24" t="s">
+      <c r="BS24" t="s">
         <v>191</v>
       </c>
-      <c r="BS24" t="s">
+      <c r="BT24" t="s">
         <v>214</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>242</v>
       </c>
       <c r="BU24" t="s">
         <v>242</v>
@@ -16543,22 +16744,25 @@
         <v>242</v>
       </c>
       <c r="BW24" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX24" t="s">
         <v>216</v>
       </c>
-      <c r="BX24" t="s">
+      <c r="BY24" t="s">
         <v>217</v>
       </c>
-      <c r="BY24" t="s">
+      <c r="BZ24" t="s">
         <v>218</v>
       </c>
-      <c r="BZ24" t="s">
+      <c r="CA24" t="s">
         <v>219</v>
       </c>
-      <c r="CA24" t="s">
+      <c r="CB24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>478</v>
       </c>
@@ -16737,25 +16941,25 @@
         <v>212</v>
       </c>
       <c r="BN25" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO25" t="s">
         <v>193</v>
       </c>
       <c r="BP25" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ25" t="s">
         <v>230</v>
       </c>
-      <c r="BQ25" t="s">
+      <c r="BR25" t="s">
         <v>193</v>
       </c>
-      <c r="BR25" t="s">
+      <c r="BS25" t="s">
         <v>230</v>
       </c>
-      <c r="BS25" t="s">
+      <c r="BT25" t="s">
         <v>214</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>262</v>
       </c>
       <c r="BU25" t="s">
         <v>262</v>
@@ -16764,22 +16968,25 @@
         <v>262</v>
       </c>
       <c r="BW25" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX25" t="s">
         <v>216</v>
       </c>
-      <c r="BX25" t="s">
+      <c r="BY25" t="s">
         <v>217</v>
       </c>
-      <c r="BY25" t="s">
+      <c r="BZ25" t="s">
         <v>218</v>
       </c>
-      <c r="BZ25" t="s">
+      <c r="CA25" t="s">
         <v>219</v>
       </c>
-      <c r="CA25" t="s">
+      <c r="CB25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>508</v>
       </c>
@@ -16961,25 +17168,25 @@
         <v>212</v>
       </c>
       <c r="BN26" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO26" t="s">
         <v>193</v>
       </c>
       <c r="BP26" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ26" t="s">
         <v>222</v>
       </c>
-      <c r="BQ26" t="s">
+      <c r="BR26" t="s">
         <v>193</v>
       </c>
-      <c r="BR26" t="s">
+      <c r="BS26" t="s">
         <v>222</v>
       </c>
-      <c r="BS26" t="s">
+      <c r="BT26" t="s">
         <v>214</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>263</v>
       </c>
       <c r="BU26" t="s">
         <v>263</v>
@@ -16988,22 +17195,25 @@
         <v>263</v>
       </c>
       <c r="BW26" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX26" t="s">
         <v>216</v>
       </c>
-      <c r="BX26" t="s">
+      <c r="BY26" t="s">
         <v>217</v>
       </c>
-      <c r="BY26" t="s">
+      <c r="BZ26" t="s">
         <v>218</v>
       </c>
-      <c r="BZ26" t="s">
+      <c r="CA26" t="s">
         <v>219</v>
       </c>
-      <c r="CA26" t="s">
+      <c r="CB26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>524</v>
       </c>
@@ -17185,25 +17395,25 @@
         <v>212</v>
       </c>
       <c r="BN27" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO27" t="s">
         <v>193</v>
       </c>
       <c r="BP27" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ27" t="s">
         <v>195</v>
       </c>
-      <c r="BQ27" t="s">
+      <c r="BR27" t="s">
         <v>193</v>
       </c>
-      <c r="BR27" t="s">
+      <c r="BS27" t="s">
         <v>195</v>
       </c>
-      <c r="BS27" t="s">
+      <c r="BT27" t="s">
         <v>214</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>273</v>
       </c>
       <c r="BU27" t="s">
         <v>273</v>
@@ -17212,22 +17422,25 @@
         <v>273</v>
       </c>
       <c r="BW27" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX27" t="s">
         <v>216</v>
       </c>
-      <c r="BX27" t="s">
+      <c r="BY27" t="s">
         <v>217</v>
       </c>
-      <c r="BY27" t="s">
+      <c r="BZ27" t="s">
         <v>218</v>
       </c>
-      <c r="BZ27" t="s">
+      <c r="CA27" t="s">
         <v>219</v>
       </c>
-      <c r="CA27" t="s">
+      <c r="CB27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>562</v>
       </c>
@@ -17406,25 +17619,25 @@
         <v>212</v>
       </c>
       <c r="BN28" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO28" t="s">
         <v>193</v>
       </c>
       <c r="BP28" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ28" t="s">
         <v>230</v>
       </c>
-      <c r="BQ28" t="s">
+      <c r="BR28" t="s">
         <v>193</v>
       </c>
-      <c r="BR28" t="s">
+      <c r="BS28" t="s">
         <v>230</v>
       </c>
-      <c r="BS28" t="s">
+      <c r="BT28" t="s">
         <v>214</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>233</v>
       </c>
       <c r="BU28" t="s">
         <v>233</v>
@@ -17433,22 +17646,25 @@
         <v>233</v>
       </c>
       <c r="BW28" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX28" t="s">
         <v>216</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="BY28" t="s">
         <v>217</v>
       </c>
-      <c r="BY28" t="s">
+      <c r="BZ28" t="s">
         <v>218</v>
       </c>
-      <c r="BZ28" t="s">
+      <c r="CA28" t="s">
         <v>219</v>
       </c>
-      <c r="CA28" t="s">
+      <c r="CB28" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>566</v>
       </c>
@@ -17630,7 +17846,7 @@
         <v>212</v>
       </c>
       <c r="BN29" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO29" t="s">
         <v>193</v>
@@ -17645,10 +17861,10 @@
         <v>193</v>
       </c>
       <c r="BS29" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT29" t="s">
         <v>214</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>233</v>
       </c>
       <c r="BU29" t="s">
         <v>233</v>
@@ -17657,22 +17873,25 @@
         <v>233</v>
       </c>
       <c r="BW29" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX29" t="s">
         <v>216</v>
       </c>
-      <c r="BX29" t="s">
+      <c r="BY29" t="s">
         <v>217</v>
       </c>
-      <c r="BY29" t="s">
+      <c r="BZ29" t="s">
         <v>218</v>
       </c>
-      <c r="BZ29" t="s">
+      <c r="CA29" t="s">
         <v>219</v>
       </c>
-      <c r="CA29" t="s">
+      <c r="CB29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>586</v>
       </c>
@@ -17854,25 +18073,25 @@
         <v>212</v>
       </c>
       <c r="BN30" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO30" t="s">
         <v>193</v>
       </c>
       <c r="BP30" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ30" t="s">
         <v>213</v>
       </c>
-      <c r="BQ30" t="s">
+      <c r="BR30" t="s">
         <v>193</v>
       </c>
-      <c r="BR30" t="s">
+      <c r="BS30" t="s">
         <v>213</v>
       </c>
-      <c r="BS30" t="s">
+      <c r="BT30" t="s">
         <v>214</v>
-      </c>
-      <c r="BT30" t="s">
-        <v>215</v>
       </c>
       <c r="BU30" t="s">
         <v>215</v>
@@ -17881,22 +18100,25 @@
         <v>215</v>
       </c>
       <c r="BW30" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX30" t="s">
         <v>216</v>
       </c>
-      <c r="BX30" t="s">
+      <c r="BY30" t="s">
         <v>217</v>
       </c>
-      <c r="BY30" t="s">
+      <c r="BZ30" t="s">
         <v>218</v>
       </c>
-      <c r="BZ30" t="s">
+      <c r="CA30" t="s">
         <v>219</v>
       </c>
-      <c r="CA30" t="s">
+      <c r="CB30" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>608</v>
       </c>
@@ -18078,25 +18300,25 @@
         <v>212</v>
       </c>
       <c r="BN31" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO31" t="s">
         <v>193</v>
       </c>
       <c r="BP31" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ31" t="s">
         <v>213</v>
       </c>
-      <c r="BQ31" t="s">
+      <c r="BR31" t="s">
         <v>193</v>
       </c>
-      <c r="BR31" t="s">
+      <c r="BS31" t="s">
         <v>213</v>
       </c>
-      <c r="BS31" t="s">
+      <c r="BT31" t="s">
         <v>214</v>
-      </c>
-      <c r="BT31" t="s">
-        <v>233</v>
       </c>
       <c r="BU31" t="s">
         <v>233</v>
@@ -18105,22 +18327,25 @@
         <v>233</v>
       </c>
       <c r="BW31" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX31" t="s">
         <v>216</v>
       </c>
-      <c r="BX31" t="s">
+      <c r="BY31" t="s">
         <v>217</v>
       </c>
-      <c r="BY31" t="s">
+      <c r="BZ31" t="s">
         <v>218</v>
       </c>
-      <c r="BZ31" t="s">
+      <c r="CA31" t="s">
         <v>219</v>
       </c>
-      <c r="CA31" t="s">
+      <c r="CB31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>646</v>
       </c>
@@ -18302,7 +18527,7 @@
         <v>212</v>
       </c>
       <c r="BN32" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO32" t="s">
         <v>193</v>
@@ -18317,10 +18542,10 @@
         <v>193</v>
       </c>
       <c r="BS32" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT32" t="s">
         <v>214</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>238</v>
       </c>
       <c r="BU32" t="s">
         <v>238</v>
@@ -18329,22 +18554,25 @@
         <v>238</v>
       </c>
       <c r="BW32" t="s">
+        <v>238</v>
+      </c>
+      <c r="BX32" t="s">
         <v>216</v>
       </c>
-      <c r="BX32" t="s">
+      <c r="BY32" t="s">
         <v>217</v>
       </c>
-      <c r="BY32" t="s">
+      <c r="BZ32" t="s">
         <v>218</v>
       </c>
-      <c r="BZ32" t="s">
+      <c r="CA32" t="s">
         <v>219</v>
       </c>
-      <c r="CA32" t="s">
+      <c r="CB32" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>686</v>
       </c>
@@ -18526,25 +18754,25 @@
         <v>212</v>
       </c>
       <c r="BN33" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO33" t="s">
         <v>193</v>
       </c>
       <c r="BP33" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ33" t="s">
         <v>230</v>
       </c>
-      <c r="BQ33" t="s">
+      <c r="BR33" t="s">
         <v>193</v>
       </c>
-      <c r="BR33" t="s">
+      <c r="BS33" t="s">
         <v>230</v>
       </c>
-      <c r="BS33" t="s">
+      <c r="BT33" t="s">
         <v>214</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>233</v>
       </c>
       <c r="BU33" t="s">
         <v>233</v>
@@ -18553,22 +18781,25 @@
         <v>233</v>
       </c>
       <c r="BW33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX33" t="s">
         <v>216</v>
       </c>
-      <c r="BX33" t="s">
+      <c r="BY33" t="s">
         <v>217</v>
       </c>
-      <c r="BY33" t="s">
+      <c r="BZ33" t="s">
         <v>218</v>
       </c>
-      <c r="BZ33" t="s">
+      <c r="CA33" t="s">
         <v>219</v>
       </c>
-      <c r="CA33" t="s">
+      <c r="CB33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>694</v>
       </c>
@@ -18750,25 +18981,25 @@
         <v>212</v>
       </c>
       <c r="BN34" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO34" t="s">
         <v>193</v>
       </c>
       <c r="BP34" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ34" t="s">
         <v>194</v>
       </c>
-      <c r="BQ34" t="s">
+      <c r="BR34" t="s">
         <v>193</v>
       </c>
-      <c r="BR34" t="s">
+      <c r="BS34" t="s">
         <v>194</v>
       </c>
-      <c r="BS34" t="s">
+      <c r="BT34" t="s">
         <v>214</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>290</v>
       </c>
       <c r="BU34" t="s">
         <v>290</v>
@@ -18777,22 +19008,25 @@
         <v>290</v>
       </c>
       <c r="BW34" t="s">
+        <v>290</v>
+      </c>
+      <c r="BX34" t="s">
         <v>216</v>
       </c>
-      <c r="BX34" t="s">
+      <c r="BY34" t="s">
         <v>217</v>
       </c>
-      <c r="BY34" t="s">
+      <c r="BZ34" t="s">
         <v>218</v>
       </c>
-      <c r="BZ34" t="s">
+      <c r="CA34" t="s">
         <v>219</v>
       </c>
-      <c r="CA34" t="s">
+      <c r="CB34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>728</v>
       </c>
@@ -18965,19 +19199,19 @@
         <v>212</v>
       </c>
       <c r="BN35" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO35" t="s">
         <v>193</v>
       </c>
-      <c r="BQ35" t="s">
+      <c r="BP35" t="s">
         <v>193</v>
       </c>
-      <c r="BS35" t="s">
+      <c r="BR35" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT35" t="s">
         <v>214</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>263</v>
       </c>
       <c r="BU35" t="s">
         <v>263</v>
@@ -18986,22 +19220,25 @@
         <v>263</v>
       </c>
       <c r="BW35" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX35" t="s">
         <v>216</v>
       </c>
-      <c r="BX35" t="s">
+      <c r="BY35" t="s">
         <v>217</v>
       </c>
-      <c r="BY35" t="s">
+      <c r="BZ35" t="s">
         <v>218</v>
       </c>
-      <c r="BZ35" t="s">
+      <c r="CA35" t="s">
         <v>219</v>
       </c>
-      <c r="CA35" t="s">
+      <c r="CB35" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>834</v>
       </c>
@@ -19183,25 +19420,25 @@
         <v>212</v>
       </c>
       <c r="BN36" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO36" t="s">
         <v>193</v>
       </c>
       <c r="BP36" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ36" t="s">
         <v>191</v>
       </c>
-      <c r="BQ36" t="s">
+      <c r="BR36" t="s">
         <v>193</v>
       </c>
-      <c r="BR36" t="s">
+      <c r="BS36" t="s">
         <v>191</v>
       </c>
-      <c r="BS36" t="s">
+      <c r="BT36" t="s">
         <v>214</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>242</v>
       </c>
       <c r="BU36" t="s">
         <v>242</v>
@@ -19210,22 +19447,25 @@
         <v>242</v>
       </c>
       <c r="BW36" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX36" t="s">
         <v>216</v>
       </c>
-      <c r="BX36" t="s">
+      <c r="BY36" t="s">
         <v>217</v>
       </c>
-      <c r="BY36" t="s">
+      <c r="BZ36" t="s">
         <v>218</v>
       </c>
-      <c r="BZ36" t="s">
+      <c r="CA36" t="s">
         <v>219</v>
       </c>
-      <c r="CA36" t="s">
+      <c r="CB36" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>626</v>
       </c>
@@ -19404,25 +19644,25 @@
         <v>212</v>
       </c>
       <c r="BN37" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO37" t="s">
         <v>193</v>
       </c>
       <c r="BP37" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ37" t="s">
         <v>213</v>
       </c>
-      <c r="BQ37" t="s">
+      <c r="BR37" t="s">
         <v>193</v>
       </c>
-      <c r="BR37" t="s">
+      <c r="BS37" t="s">
         <v>213</v>
       </c>
-      <c r="BS37" t="s">
+      <c r="BT37" t="s">
         <v>214</v>
-      </c>
-      <c r="BT37" t="s">
-        <v>233</v>
       </c>
       <c r="BU37" t="s">
         <v>233</v>
@@ -19431,22 +19671,25 @@
         <v>233</v>
       </c>
       <c r="BW37" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX37" t="s">
         <v>216</v>
       </c>
-      <c r="BX37" t="s">
+      <c r="BY37" t="s">
         <v>217</v>
       </c>
-      <c r="BY37" t="s">
+      <c r="BZ37" t="s">
         <v>218</v>
       </c>
-      <c r="BZ37" t="s">
+      <c r="CA37" t="s">
         <v>219</v>
       </c>
-      <c r="CA37" t="s">
+      <c r="CB37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>768</v>
       </c>
@@ -19628,25 +19871,25 @@
         <v>212</v>
       </c>
       <c r="BN38" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO38" t="s">
         <v>193</v>
       </c>
       <c r="BP38" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ38" t="s">
         <v>230</v>
       </c>
-      <c r="BQ38" t="s">
+      <c r="BR38" t="s">
         <v>193</v>
       </c>
-      <c r="BR38" t="s">
+      <c r="BS38" t="s">
         <v>230</v>
       </c>
-      <c r="BS38" t="s">
+      <c r="BT38" t="s">
         <v>214</v>
-      </c>
-      <c r="BT38" t="s">
-        <v>233</v>
       </c>
       <c r="BU38" t="s">
         <v>233</v>
@@ -19655,22 +19898,25 @@
         <v>233</v>
       </c>
       <c r="BW38" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX38" t="s">
         <v>216</v>
       </c>
-      <c r="BX38" t="s">
+      <c r="BY38" t="s">
         <v>217</v>
       </c>
-      <c r="BY38" t="s">
+      <c r="BZ38" t="s">
         <v>218</v>
       </c>
-      <c r="BZ38" t="s">
+      <c r="CA38" t="s">
         <v>219</v>
       </c>
-      <c r="CA38" t="s">
+      <c r="CB38" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>800</v>
       </c>
@@ -19852,25 +20098,25 @@
         <v>212</v>
       </c>
       <c r="BN39" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO39" t="s">
         <v>193</v>
       </c>
       <c r="BP39" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ39" t="s">
         <v>213</v>
       </c>
-      <c r="BQ39" t="s">
+      <c r="BR39" t="s">
         <v>193</v>
       </c>
-      <c r="BR39" t="s">
+      <c r="BS39" t="s">
         <v>213</v>
       </c>
-      <c r="BS39" t="s">
+      <c r="BT39" t="s">
         <v>214</v>
-      </c>
-      <c r="BT39" t="s">
-        <v>215</v>
       </c>
       <c r="BU39" t="s">
         <v>215</v>
@@ -19879,22 +20125,25 @@
         <v>215</v>
       </c>
       <c r="BW39" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX39" t="s">
         <v>216</v>
       </c>
-      <c r="BX39" t="s">
+      <c r="BY39" t="s">
         <v>217</v>
       </c>
-      <c r="BY39" t="s">
+      <c r="BZ39" t="s">
         <v>218</v>
       </c>
-      <c r="BZ39" t="s">
+      <c r="CA39" t="s">
         <v>219</v>
       </c>
-      <c r="CA39" t="s">
+      <c r="CB39" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>887</v>
       </c>
@@ -20067,19 +20316,19 @@
         <v>212</v>
       </c>
       <c r="BN40" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO40" t="s">
         <v>193</v>
       </c>
-      <c r="BQ40" t="s">
+      <c r="BP40" t="s">
         <v>193</v>
       </c>
-      <c r="BS40" t="s">
+      <c r="BR40" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT40" t="s">
         <v>214</v>
-      </c>
-      <c r="BT40" t="s">
-        <v>263</v>
       </c>
       <c r="BU40" t="s">
         <v>263</v>
@@ -20088,22 +20337,25 @@
         <v>263</v>
       </c>
       <c r="BW40" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX40" t="s">
         <v>216</v>
       </c>
-      <c r="BX40" t="s">
+      <c r="BY40" t="s">
         <v>217</v>
       </c>
-      <c r="BY40" t="s">
+      <c r="BZ40" t="s">
         <v>218</v>
       </c>
-      <c r="BZ40" t="s">
+      <c r="CA40" t="s">
         <v>219</v>
       </c>
-      <c r="CA40" t="s">
+      <c r="CB40" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>894</v>
       </c>
@@ -20285,25 +20537,25 @@
         <v>212</v>
       </c>
       <c r="BN41" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO41" t="s">
         <v>193</v>
       </c>
       <c r="BP41" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ41" t="s">
         <v>213</v>
       </c>
-      <c r="BQ41" t="s">
+      <c r="BR41" t="s">
         <v>193</v>
       </c>
-      <c r="BR41" t="s">
+      <c r="BS41" t="s">
         <v>213</v>
       </c>
-      <c r="BS41" t="s">
+      <c r="BT41" t="s">
         <v>214</v>
-      </c>
-      <c r="BT41" t="s">
-        <v>233</v>
       </c>
       <c r="BU41" t="s">
         <v>233</v>
@@ -20312,22 +20564,25 @@
         <v>233</v>
       </c>
       <c r="BW41" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX41" t="s">
         <v>216</v>
       </c>
-      <c r="BX41" t="s">
+      <c r="BY41" t="s">
         <v>217</v>
       </c>
-      <c r="BY41" t="s">
+      <c r="BZ41" t="s">
         <v>218</v>
       </c>
-      <c r="BZ41" t="s">
+      <c r="CA41" t="s">
         <v>219</v>
       </c>
-      <c r="CA41" t="s">
+      <c r="CB41" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>716</v>
       </c>
@@ -20509,25 +20764,25 @@
         <v>212</v>
       </c>
       <c r="BN42" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="BO42" t="s">
         <v>193</v>
       </c>
       <c r="BP42" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ42" t="s">
         <v>213</v>
       </c>
-      <c r="BQ42" t="s">
+      <c r="BR42" t="s">
         <v>193</v>
       </c>
-      <c r="BR42" t="s">
+      <c r="BS42" t="s">
         <v>213</v>
       </c>
-      <c r="BS42" t="s">
+      <c r="BT42" t="s">
         <v>214</v>
-      </c>
-      <c r="BT42" t="s">
-        <v>233</v>
       </c>
       <c r="BU42" t="s">
         <v>233</v>
@@ -20536,18 +20791,21 @@
         <v>233</v>
       </c>
       <c r="BW42" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX42" t="s">
         <v>216</v>
       </c>
-      <c r="BX42" t="s">
+      <c r="BY42" t="s">
         <v>217</v>
       </c>
-      <c r="BY42" t="s">
+      <c r="BZ42" t="s">
         <v>218</v>
       </c>
-      <c r="BZ42" t="s">
+      <c r="CA42" t="s">
         <v>219</v>
       </c>
-      <c r="CA42" t="s">
+      <c r="CB42" t="s">
         <v>220</v>
       </c>
     </row>
@@ -58226,7 +58484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF25EE97-9B32-4B53-84BB-4103AF5923A8}">
   <dimension ref="A1:BG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>

--- a/SourceData/rapid/RPModData.xlsx
+++ b/SourceData/rapid/RPModData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\rapid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBE6F64-5813-4D37-A66D-D074A1C68CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43B7850-C8A3-4D47-9E69-AF30A225B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryDefaultsDB" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="SSP2TempsDB" sheetId="6" r:id="rId6"/>
     <sheet name="SSP3TempsDB" sheetId="7" r:id="rId7"/>
     <sheet name="SSP5TempsDB" sheetId="8" r:id="rId8"/>
+    <sheet name="UrbanDB" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="308">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -11310,8 +11311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F7574A-1BB5-4B35-A924-4615A8493E31}">
   <dimension ref="A1:CB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BU9" sqref="BU9"/>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BU15" sqref="BU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66011,4 +66012,7537 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EE97CD-252D-459B-A7CC-E7804833E17F}">
+  <dimension ref="A1:BG42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:59" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1">
+        <v>2030</v>
+      </c>
+      <c r="O1">
+        <v>2031</v>
+      </c>
+      <c r="P1">
+        <v>2032</v>
+      </c>
+      <c r="Q1">
+        <v>2033</v>
+      </c>
+      <c r="R1">
+        <v>2034</v>
+      </c>
+      <c r="S1">
+        <v>2035</v>
+      </c>
+      <c r="T1">
+        <v>2036</v>
+      </c>
+      <c r="U1">
+        <v>2037</v>
+      </c>
+      <c r="V1">
+        <v>2038</v>
+      </c>
+      <c r="W1">
+        <v>2039</v>
+      </c>
+      <c r="X1">
+        <v>2040</v>
+      </c>
+      <c r="Y1">
+        <v>2041</v>
+      </c>
+      <c r="Z1">
+        <v>2042</v>
+      </c>
+      <c r="AA1">
+        <v>2043</v>
+      </c>
+      <c r="AB1">
+        <v>2044</v>
+      </c>
+      <c r="AC1">
+        <v>2045</v>
+      </c>
+      <c r="AD1">
+        <v>2046</v>
+      </c>
+      <c r="AE1">
+        <v>2047</v>
+      </c>
+      <c r="AF1">
+        <v>2048</v>
+      </c>
+      <c r="AG1">
+        <v>2049</v>
+      </c>
+      <c r="AH1">
+        <v>2050</v>
+      </c>
+      <c r="AI1">
+        <v>2051</v>
+      </c>
+      <c r="AJ1">
+        <v>2052</v>
+      </c>
+      <c r="AK1">
+        <v>2053</v>
+      </c>
+      <c r="AL1">
+        <v>2054</v>
+      </c>
+      <c r="AM1">
+        <v>2055</v>
+      </c>
+      <c r="AN1">
+        <v>2056</v>
+      </c>
+      <c r="AO1">
+        <v>2057</v>
+      </c>
+      <c r="AP1">
+        <v>2058</v>
+      </c>
+      <c r="AQ1">
+        <v>2059</v>
+      </c>
+      <c r="AR1">
+        <v>2060</v>
+      </c>
+      <c r="AS1">
+        <v>2061</v>
+      </c>
+      <c r="AT1">
+        <v>2062</v>
+      </c>
+      <c r="AU1">
+        <v>2063</v>
+      </c>
+      <c r="AV1">
+        <v>2064</v>
+      </c>
+      <c r="AW1">
+        <v>2065</v>
+      </c>
+      <c r="AX1">
+        <v>2066</v>
+      </c>
+      <c r="AY1">
+        <v>2067</v>
+      </c>
+      <c r="AZ1">
+        <v>2068</v>
+      </c>
+      <c r="BA1">
+        <v>2069</v>
+      </c>
+      <c r="BB1">
+        <v>2070</v>
+      </c>
+      <c r="BC1">
+        <v>2071</v>
+      </c>
+      <c r="BD1">
+        <v>2072</v>
+      </c>
+      <c r="BE1">
+        <v>2073</v>
+      </c>
+      <c r="BF1">
+        <v>2074</v>
+      </c>
+      <c r="BG1">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>26.026</v>
+      </c>
+      <c r="E2">
+        <v>26.314</v>
+      </c>
+      <c r="F2">
+        <v>26.616</v>
+      </c>
+      <c r="G2">
+        <v>26.933</v>
+      </c>
+      <c r="H2">
+        <v>27.265000000000001</v>
+      </c>
+      <c r="I2">
+        <v>27.613</v>
+      </c>
+      <c r="J2">
+        <v>27.975999999999999</v>
+      </c>
+      <c r="K2">
+        <v>28.355000000000004</v>
+      </c>
+      <c r="L2">
+        <v>28.749999999999996</v>
+      </c>
+      <c r="M2">
+        <v>29.161000000000005</v>
+      </c>
+      <c r="N2">
+        <v>29.588999999999999</v>
+      </c>
+      <c r="O2">
+        <v>30.032999999999998</v>
+      </c>
+      <c r="P2">
+        <v>30.494</v>
+      </c>
+      <c r="Q2">
+        <v>30.972000000000001</v>
+      </c>
+      <c r="R2">
+        <v>31.466999999999999</v>
+      </c>
+      <c r="S2">
+        <v>31.978000000000002</v>
+      </c>
+      <c r="T2">
+        <v>32.506999999999998</v>
+      </c>
+      <c r="U2">
+        <v>33.052</v>
+      </c>
+      <c r="V2">
+        <v>33.615000000000002</v>
+      </c>
+      <c r="W2">
+        <v>34.194000000000003</v>
+      </c>
+      <c r="X2">
+        <v>34.787999999999997</v>
+      </c>
+      <c r="Y2">
+        <v>35.398000000000003</v>
+      </c>
+      <c r="Z2">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="AA2">
+        <v>36.65</v>
+      </c>
+      <c r="AB2">
+        <v>37.283999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>37.923000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>38.564999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>39.212000000000003</v>
+      </c>
+      <c r="AF2">
+        <v>39.863</v>
+      </c>
+      <c r="AG2">
+        <v>40.517000000000003</v>
+      </c>
+      <c r="AH2">
+        <v>41.173999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>41.830999999999996</v>
+      </c>
+      <c r="AJ2">
+        <v>42.487999999999992</v>
+      </c>
+      <c r="AK2">
+        <v>43.144999999999989</v>
+      </c>
+      <c r="AL2">
+        <v>43.801999999999985</v>
+      </c>
+      <c r="AM2">
+        <v>44.458999999999982</v>
+      </c>
+      <c r="AN2">
+        <v>45.115999999999978</v>
+      </c>
+      <c r="AO2">
+        <v>45.772999999999975</v>
+      </c>
+      <c r="AP2">
+        <v>46.429999999999971</v>
+      </c>
+      <c r="AQ2">
+        <v>47.086999999999968</v>
+      </c>
+      <c r="AR2">
+        <v>47.743999999999964</v>
+      </c>
+      <c r="AS2">
+        <v>48.400999999999961</v>
+      </c>
+      <c r="AT2">
+        <v>49.057999999999957</v>
+      </c>
+      <c r="AU2">
+        <v>49.714999999999954</v>
+      </c>
+      <c r="AV2">
+        <v>50.37199999999995</v>
+      </c>
+      <c r="AW2">
+        <v>51.028999999999947</v>
+      </c>
+      <c r="AX2">
+        <v>51.685999999999943</v>
+      </c>
+      <c r="AY2">
+        <v>52.34299999999994</v>
+      </c>
+      <c r="AZ2">
+        <v>52.999999999999936</v>
+      </c>
+      <c r="BA2">
+        <v>53.656999999999933</v>
+      </c>
+      <c r="BB2">
+        <v>54.313999999999929</v>
+      </c>
+      <c r="BC2">
+        <v>54.970999999999925</v>
+      </c>
+      <c r="BD2">
+        <v>55.627999999999922</v>
+      </c>
+      <c r="BE2">
+        <v>56.284999999999918</v>
+      </c>
+      <c r="BF2">
+        <v>56.941999999999915</v>
+      </c>
+      <c r="BG2">
+        <v>57.598999999999911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>66.825000000000003</v>
+      </c>
+      <c r="E3">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="F3">
+        <v>68.081000000000003</v>
+      </c>
+      <c r="G3">
+        <v>68.688000000000002</v>
+      </c>
+      <c r="H3">
+        <v>69.281000000000006</v>
+      </c>
+      <c r="I3">
+        <v>69.86</v>
+      </c>
+      <c r="J3">
+        <v>70.424999999999997</v>
+      </c>
+      <c r="K3">
+        <v>70.975999999999999</v>
+      </c>
+      <c r="L3">
+        <v>71.513000000000005</v>
+      </c>
+      <c r="M3">
+        <v>72.037000000000006</v>
+      </c>
+      <c r="N3">
+        <v>72.546000000000006</v>
+      </c>
+      <c r="O3">
+        <v>73.042000000000002</v>
+      </c>
+      <c r="P3">
+        <v>73.524000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>73.992999999999995</v>
+      </c>
+      <c r="R3">
+        <v>74.447999999999993</v>
+      </c>
+      <c r="S3">
+        <v>74.888999999999996</v>
+      </c>
+      <c r="T3">
+        <v>75.316999999999993</v>
+      </c>
+      <c r="U3">
+        <v>75.730999999999995</v>
+      </c>
+      <c r="V3">
+        <v>76.132000000000005</v>
+      </c>
+      <c r="W3">
+        <v>76.518000000000001</v>
+      </c>
+      <c r="X3">
+        <v>76.89</v>
+      </c>
+      <c r="Y3">
+        <v>77.257999999999996</v>
+      </c>
+      <c r="Z3">
+        <v>77.623000000000005</v>
+      </c>
+      <c r="AA3">
+        <v>77.983000000000004</v>
+      </c>
+      <c r="AB3">
+        <v>78.338999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>78.691000000000003</v>
+      </c>
+      <c r="AD3">
+        <v>79.039000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>79.382000000000005</v>
+      </c>
+      <c r="AF3">
+        <v>79.721000000000004</v>
+      </c>
+      <c r="AG3">
+        <v>80.057000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>80.388000000000005</v>
+      </c>
+      <c r="AI3">
+        <v>80.719000000000008</v>
+      </c>
+      <c r="AJ3">
+        <v>81.050000000000011</v>
+      </c>
+      <c r="AK3">
+        <v>81.381000000000014</v>
+      </c>
+      <c r="AL3">
+        <v>81.712000000000018</v>
+      </c>
+      <c r="AM3">
+        <v>82.043000000000021</v>
+      </c>
+      <c r="AN3">
+        <v>82.374000000000024</v>
+      </c>
+      <c r="AO3">
+        <v>82.705000000000027</v>
+      </c>
+      <c r="AP3">
+        <v>83.03600000000003</v>
+      </c>
+      <c r="AQ3">
+        <v>83.367000000000033</v>
+      </c>
+      <c r="AR3">
+        <v>83.698000000000036</v>
+      </c>
+      <c r="AS3">
+        <v>84.029000000000039</v>
+      </c>
+      <c r="AT3">
+        <v>84.360000000000042</v>
+      </c>
+      <c r="AU3">
+        <v>84.691000000000045</v>
+      </c>
+      <c r="AV3">
+        <v>85.022000000000048</v>
+      </c>
+      <c r="AW3">
+        <v>85.353000000000051</v>
+      </c>
+      <c r="AX3">
+        <v>85.684000000000054</v>
+      </c>
+      <c r="AY3">
+        <v>86.015000000000057</v>
+      </c>
+      <c r="AZ3">
+        <v>86.34600000000006</v>
+      </c>
+      <c r="BA3">
+        <v>86.677000000000078</v>
+      </c>
+      <c r="BB3">
+        <v>87.008000000000081</v>
+      </c>
+      <c r="BC3">
+        <v>87.339000000000084</v>
+      </c>
+      <c r="BD3">
+        <v>87.670000000000087</v>
+      </c>
+      <c r="BE3">
+        <v>88.00100000000009</v>
+      </c>
+      <c r="BF3">
+        <v>88.332000000000093</v>
+      </c>
+      <c r="BG3">
+        <v>88.663000000000096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>38.177</v>
+      </c>
+      <c r="E4">
+        <v>38.945999999999998</v>
+      </c>
+      <c r="F4">
+        <v>39.710999999999999</v>
+      </c>
+      <c r="G4">
+        <v>40.472999999999999</v>
+      </c>
+      <c r="H4">
+        <v>41.23</v>
+      </c>
+      <c r="I4">
+        <v>41.981999999999999</v>
+      </c>
+      <c r="J4">
+        <v>42.726999999999997</v>
+      </c>
+      <c r="K4">
+        <v>43.466000000000001</v>
+      </c>
+      <c r="L4">
+        <v>44.197000000000003</v>
+      </c>
+      <c r="M4">
+        <v>44.92</v>
+      </c>
+      <c r="N4">
+        <v>45.634</v>
+      </c>
+      <c r="O4">
+        <v>46.338000000000001</v>
+      </c>
+      <c r="P4">
+        <v>47.030999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>47.713000000000001</v>
+      </c>
+      <c r="R4">
+        <v>48.381999999999998</v>
+      </c>
+      <c r="S4">
+        <v>49.037999999999997</v>
+      </c>
+      <c r="T4">
+        <v>49.679000000000002</v>
+      </c>
+      <c r="U4">
+        <v>50.302999999999997</v>
+      </c>
+      <c r="V4">
+        <v>50.927999999999997</v>
+      </c>
+      <c r="W4">
+        <v>51.55299999999999</v>
+      </c>
+      <c r="X4">
+        <v>52.178000000000004</v>
+      </c>
+      <c r="Y4">
+        <v>52.802000000000007</v>
+      </c>
+      <c r="Z4">
+        <v>53.424999999999997</v>
+      </c>
+      <c r="AA4">
+        <v>54.046999999999997</v>
+      </c>
+      <c r="AB4">
+        <v>54.667999999999992</v>
+      </c>
+      <c r="AC4">
+        <v>55.28799999999999</v>
+      </c>
+      <c r="AD4">
+        <v>55.905000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>56.521000000000001</v>
+      </c>
+      <c r="AF4">
+        <v>57.135000000000005</v>
+      </c>
+      <c r="AG4">
+        <v>57.747000000000007</v>
+      </c>
+      <c r="AH4">
+        <v>58.355999999999995</v>
+      </c>
+      <c r="AI4">
+        <v>58.964999999999989</v>
+      </c>
+      <c r="AJ4">
+        <v>59.573999999999984</v>
+      </c>
+      <c r="AK4">
+        <v>60.182999999999979</v>
+      </c>
+      <c r="AL4">
+        <v>60.791999999999966</v>
+      </c>
+      <c r="AM4">
+        <v>61.400999999999961</v>
+      </c>
+      <c r="AN4">
+        <v>62.009999999999955</v>
+      </c>
+      <c r="AO4">
+        <v>62.61899999999995</v>
+      </c>
+      <c r="AP4">
+        <v>63.227999999999938</v>
+      </c>
+      <c r="AQ4">
+        <v>63.836999999999932</v>
+      </c>
+      <c r="AR4">
+        <v>64.445999999999927</v>
+      </c>
+      <c r="AS4">
+        <v>65.054999999999922</v>
+      </c>
+      <c r="AT4">
+        <v>65.663999999999916</v>
+      </c>
+      <c r="AU4">
+        <v>66.272999999999911</v>
+      </c>
+      <c r="AV4">
+        <v>66.881999999999891</v>
+      </c>
+      <c r="AW4">
+        <v>67.490999999999886</v>
+      </c>
+      <c r="AX4">
+        <v>68.099999999999881</v>
+      </c>
+      <c r="AY4">
+        <v>68.708999999999875</v>
+      </c>
+      <c r="AZ4">
+        <v>69.31799999999987</v>
+      </c>
+      <c r="BA4">
+        <v>69.926999999999865</v>
+      </c>
+      <c r="BB4">
+        <v>70.535999999999859</v>
+      </c>
+      <c r="BC4">
+        <v>71.144999999999854</v>
+      </c>
+      <c r="BD4">
+        <v>71.753999999999834</v>
+      </c>
+      <c r="BE4">
+        <v>72.362999999999829</v>
+      </c>
+      <c r="BF4">
+        <v>72.971999999999824</v>
+      </c>
+      <c r="BG4">
+        <v>73.580999999999818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>48.414999999999999</v>
+      </c>
+      <c r="E5">
+        <v>48.972000000000001</v>
+      </c>
+      <c r="F5">
+        <v>49.533999999999999</v>
+      </c>
+      <c r="G5">
+        <v>50.1</v>
+      </c>
+      <c r="H5">
+        <v>50.668999999999997</v>
+      </c>
+      <c r="I5">
+        <v>51.241</v>
+      </c>
+      <c r="J5">
+        <v>51.81600000000001</v>
+      </c>
+      <c r="K5">
+        <v>52.393000000000001</v>
+      </c>
+      <c r="L5">
+        <v>52.973000000000006</v>
+      </c>
+      <c r="M5">
+        <v>53.555</v>
+      </c>
+      <c r="N5">
+        <v>54.137999999999998</v>
+      </c>
+      <c r="O5">
+        <v>54.722000000000001</v>
+      </c>
+      <c r="P5">
+        <v>55.305999999999997</v>
+      </c>
+      <c r="Q5">
+        <v>55.891000000000005</v>
+      </c>
+      <c r="R5">
+        <v>56.474999999999994</v>
+      </c>
+      <c r="S5">
+        <v>57.05899999999999</v>
+      </c>
+      <c r="T5">
+        <v>57.64</v>
+      </c>
+      <c r="U5">
+        <v>58.219000000000001</v>
+      </c>
+      <c r="V5">
+        <v>58.794000000000004</v>
+      </c>
+      <c r="W5">
+        <v>59.362000000000002</v>
+      </c>
+      <c r="X5">
+        <v>59.930999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>60.496000000000002</v>
+      </c>
+      <c r="Z5">
+        <v>61.058999999999997</v>
+      </c>
+      <c r="AA5">
+        <v>61.619</v>
+      </c>
+      <c r="AB5">
+        <v>62.175999999999995</v>
+      </c>
+      <c r="AC5">
+        <v>62.73</v>
+      </c>
+      <c r="AD5">
+        <v>63.28</v>
+      </c>
+      <c r="AE5">
+        <v>63.826999999999998</v>
+      </c>
+      <c r="AF5">
+        <v>64.370999999999995</v>
+      </c>
+      <c r="AG5">
+        <v>64.91</v>
+      </c>
+      <c r="AH5">
+        <v>65.445999999999998</v>
+      </c>
+      <c r="AI5">
+        <v>65.981999999999985</v>
+      </c>
+      <c r="AJ5">
+        <v>66.517999999999972</v>
+      </c>
+      <c r="AK5">
+        <v>67.053999999999974</v>
+      </c>
+      <c r="AL5">
+        <v>67.589999999999961</v>
+      </c>
+      <c r="AM5">
+        <v>68.125999999999948</v>
+      </c>
+      <c r="AN5">
+        <v>68.661999999999949</v>
+      </c>
+      <c r="AO5">
+        <v>69.197999999999936</v>
+      </c>
+      <c r="AP5">
+        <v>69.733999999999924</v>
+      </c>
+      <c r="AQ5">
+        <v>70.269999999999925</v>
+      </c>
+      <c r="AR5">
+        <v>70.805999999999912</v>
+      </c>
+      <c r="AS5">
+        <v>71.341999999999899</v>
+      </c>
+      <c r="AT5">
+        <v>71.877999999999901</v>
+      </c>
+      <c r="AU5">
+        <v>72.413999999999888</v>
+      </c>
+      <c r="AV5">
+        <v>72.949999999999875</v>
+      </c>
+      <c r="AW5">
+        <v>73.485999999999876</v>
+      </c>
+      <c r="AX5">
+        <v>74.021999999999863</v>
+      </c>
+      <c r="AY5">
+        <v>74.557999999999851</v>
+      </c>
+      <c r="AZ5">
+        <v>75.093999999999852</v>
+      </c>
+      <c r="BA5">
+        <v>75.629999999999839</v>
+      </c>
+      <c r="BB5">
+        <v>76.16599999999984</v>
+      </c>
+      <c r="BC5">
+        <v>76.701999999999828</v>
+      </c>
+      <c r="BD5">
+        <v>77.237999999999815</v>
+      </c>
+      <c r="BE5">
+        <v>77.773999999999816</v>
+      </c>
+      <c r="BF5">
+        <v>78.309999999999803</v>
+      </c>
+      <c r="BG5">
+        <v>78.84599999999979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>854</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>30.606999999999999</v>
+      </c>
+      <c r="E6">
+        <v>31.240000000000002</v>
+      </c>
+      <c r="F6">
+        <v>31.876999999999999</v>
+      </c>
+      <c r="G6">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="H6">
+        <v>33.165999999999997</v>
+      </c>
+      <c r="I6">
+        <v>33.817</v>
+      </c>
+      <c r="J6">
+        <v>34.470999999999997</v>
+      </c>
+      <c r="K6">
+        <v>35.128999999999998</v>
+      </c>
+      <c r="L6">
+        <v>35.789000000000001</v>
+      </c>
+      <c r="M6">
+        <v>36.451000000000001</v>
+      </c>
+      <c r="N6">
+        <v>37.115000000000002</v>
+      </c>
+      <c r="O6">
+        <v>37.780999999999999</v>
+      </c>
+      <c r="P6">
+        <v>38.447000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>39.113</v>
+      </c>
+      <c r="R6">
+        <v>39.779000000000003</v>
+      </c>
+      <c r="S6">
+        <v>40.444000000000003</v>
+      </c>
+      <c r="T6">
+        <v>41.106000000000002</v>
+      </c>
+      <c r="U6">
+        <v>41.767000000000003</v>
+      </c>
+      <c r="V6">
+        <v>42.423000000000002</v>
+      </c>
+      <c r="W6">
+        <v>43.075000000000003</v>
+      </c>
+      <c r="X6">
+        <v>43.720999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>44.357999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>44.999000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>45.642000000000003</v>
+      </c>
+      <c r="AB6">
+        <v>46.286000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>46.932000000000002</v>
+      </c>
+      <c r="AD6">
+        <v>47.578000000000003</v>
+      </c>
+      <c r="AE6">
+        <v>48.225999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>48.874000000000002</v>
+      </c>
+      <c r="AG6">
+        <v>49.521999999999998</v>
+      </c>
+      <c r="AH6">
+        <v>50.170999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>50.82</v>
+      </c>
+      <c r="AJ6">
+        <v>51.469000000000001</v>
+      </c>
+      <c r="AK6">
+        <v>52.117999999999995</v>
+      </c>
+      <c r="AL6">
+        <v>52.766999999999996</v>
+      </c>
+      <c r="AM6">
+        <v>53.415999999999997</v>
+      </c>
+      <c r="AN6">
+        <v>54.064999999999998</v>
+      </c>
+      <c r="AO6">
+        <v>54.713999999999999</v>
+      </c>
+      <c r="AP6">
+        <v>55.362999999999992</v>
+      </c>
+      <c r="AQ6">
+        <v>56.011999999999993</v>
+      </c>
+      <c r="AR6">
+        <v>56.660999999999994</v>
+      </c>
+      <c r="AS6">
+        <v>57.309999999999995</v>
+      </c>
+      <c r="AT6">
+        <v>57.958999999999996</v>
+      </c>
+      <c r="AU6">
+        <v>58.60799999999999</v>
+      </c>
+      <c r="AV6">
+        <v>59.256999999999991</v>
+      </c>
+      <c r="AW6">
+        <v>59.905999999999992</v>
+      </c>
+      <c r="AX6">
+        <v>60.554999999999993</v>
+      </c>
+      <c r="AY6">
+        <v>61.203999999999994</v>
+      </c>
+      <c r="AZ6">
+        <v>61.852999999999994</v>
+      </c>
+      <c r="BA6">
+        <v>62.501999999999988</v>
+      </c>
+      <c r="BB6">
+        <v>63.150999999999989</v>
+      </c>
+      <c r="BC6">
+        <v>63.79999999999999</v>
+      </c>
+      <c r="BD6">
+        <v>64.448999999999984</v>
+      </c>
+      <c r="BE6">
+        <v>65.097999999999985</v>
+      </c>
+      <c r="BF6">
+        <v>65.746999999999986</v>
+      </c>
+      <c r="BG6">
+        <v>66.395999999999987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>13.708</v>
+      </c>
+      <c r="E7">
+        <v>14.058000000000002</v>
+      </c>
+      <c r="F7">
+        <v>14.417</v>
+      </c>
+      <c r="G7">
+        <v>14.784000000000001</v>
+      </c>
+      <c r="H7">
+        <v>15.160000000000002</v>
+      </c>
+      <c r="I7">
+        <v>15.543999999999999</v>
+      </c>
+      <c r="J7">
+        <v>15.937999999999999</v>
+      </c>
+      <c r="K7">
+        <v>16.34</v>
+      </c>
+      <c r="L7">
+        <v>16.75</v>
+      </c>
+      <c r="M7">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="N7">
+        <v>17.597999999999999</v>
+      </c>
+      <c r="O7">
+        <v>18.033999999999999</v>
+      </c>
+      <c r="P7">
+        <v>18.478999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>18.931999999999999</v>
+      </c>
+      <c r="R7">
+        <v>19.391999999999999</v>
+      </c>
+      <c r="S7">
+        <v>19.859000000000002</v>
+      </c>
+      <c r="T7">
+        <v>20.335000000000001</v>
+      </c>
+      <c r="U7">
+        <v>20.818999999999999</v>
+      </c>
+      <c r="V7">
+        <v>21.312000000000001</v>
+      </c>
+      <c r="W7">
+        <v>21.814</v>
+      </c>
+      <c r="X7">
+        <v>22.324000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>22.841999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>23.369</v>
+      </c>
+      <c r="AA7">
+        <v>23.904</v>
+      </c>
+      <c r="AB7">
+        <v>24.448</v>
+      </c>
+      <c r="AC7">
+        <v>25</v>
+      </c>
+      <c r="AD7">
+        <v>25.56</v>
+      </c>
+      <c r="AE7">
+        <v>26.128</v>
+      </c>
+      <c r="AF7">
+        <v>26.704000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>27.289000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>27.881</v>
+      </c>
+      <c r="AI7">
+        <v>28.472999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>29.064999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>29.656999999999993</v>
+      </c>
+      <c r="AL7">
+        <v>30.248999999999992</v>
+      </c>
+      <c r="AM7">
+        <v>30.84099999999999</v>
+      </c>
+      <c r="AN7">
+        <v>31.432999999999989</v>
+      </c>
+      <c r="AO7">
+        <v>32.024999999999984</v>
+      </c>
+      <c r="AP7">
+        <v>32.616999999999983</v>
+      </c>
+      <c r="AQ7">
+        <v>33.208999999999982</v>
+      </c>
+      <c r="AR7">
+        <v>33.800999999999981</v>
+      </c>
+      <c r="AS7">
+        <v>34.392999999999979</v>
+      </c>
+      <c r="AT7">
+        <v>34.984999999999978</v>
+      </c>
+      <c r="AU7">
+        <v>35.576999999999977</v>
+      </c>
+      <c r="AV7">
+        <v>36.168999999999976</v>
+      </c>
+      <c r="AW7">
+        <v>36.760999999999974</v>
+      </c>
+      <c r="AX7">
+        <v>37.352999999999966</v>
+      </c>
+      <c r="AY7">
+        <v>37.944999999999965</v>
+      </c>
+      <c r="AZ7">
+        <v>38.536999999999964</v>
+      </c>
+      <c r="BA7">
+        <v>39.128999999999962</v>
+      </c>
+      <c r="BB7">
+        <v>39.720999999999961</v>
+      </c>
+      <c r="BC7">
+        <v>40.31299999999996</v>
+      </c>
+      <c r="BD7">
+        <v>40.904999999999959</v>
+      </c>
+      <c r="BE7">
+        <v>41.496999999999957</v>
+      </c>
+      <c r="BF7">
+        <v>42.088999999999956</v>
+      </c>
+      <c r="BG7">
+        <v>42.680999999999955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>24.231999999999999</v>
+      </c>
+      <c r="E8">
+        <v>24.667999999999999</v>
+      </c>
+      <c r="F8">
+        <v>25.114000000000004</v>
+      </c>
+      <c r="G8">
+        <v>25.569999999999997</v>
+      </c>
+      <c r="H8">
+        <v>26.035000000000004</v>
+      </c>
+      <c r="I8">
+        <v>26.51</v>
+      </c>
+      <c r="J8">
+        <v>26.995000000000001</v>
+      </c>
+      <c r="K8">
+        <v>27.49</v>
+      </c>
+      <c r="L8">
+        <v>27.995000000000005</v>
+      </c>
+      <c r="M8">
+        <v>28.51</v>
+      </c>
+      <c r="N8">
+        <v>29.033999999999999</v>
+      </c>
+      <c r="O8">
+        <v>29.568000000000001</v>
+      </c>
+      <c r="P8">
+        <v>30.111999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>30.664999999999999</v>
+      </c>
+      <c r="R8">
+        <v>31.227</v>
+      </c>
+      <c r="S8">
+        <v>31.797999999999998</v>
+      </c>
+      <c r="T8">
+        <v>32.378</v>
+      </c>
+      <c r="U8">
+        <v>32.966999999999999</v>
+      </c>
+      <c r="V8">
+        <v>33.564</v>
+      </c>
+      <c r="W8">
+        <v>34.167999999999999</v>
+      </c>
+      <c r="X8">
+        <v>34.78</v>
+      </c>
+      <c r="Y8">
+        <v>35.396999999999998</v>
+      </c>
+      <c r="Z8">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="AA8">
+        <v>36.645000000000003</v>
+      </c>
+      <c r="AB8">
+        <v>37.277000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>37.912999999999997</v>
+      </c>
+      <c r="AD8">
+        <v>38.554000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>39.198</v>
+      </c>
+      <c r="AF8">
+        <v>39.847000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>40.497999999999998</v>
+      </c>
+      <c r="AH8">
+        <v>41.152999999999999</v>
+      </c>
+      <c r="AI8">
+        <v>41.808000000000007</v>
+      </c>
+      <c r="AJ8">
+        <v>42.463000000000015</v>
+      </c>
+      <c r="AK8">
+        <v>43.118000000000016</v>
+      </c>
+      <c r="AL8">
+        <v>43.773000000000025</v>
+      </c>
+      <c r="AM8">
+        <v>44.428000000000026</v>
+      </c>
+      <c r="AN8">
+        <v>45.083000000000034</v>
+      </c>
+      <c r="AO8">
+        <v>45.738000000000042</v>
+      </c>
+      <c r="AP8">
+        <v>46.393000000000043</v>
+      </c>
+      <c r="AQ8">
+        <v>47.048000000000052</v>
+      </c>
+      <c r="AR8">
+        <v>47.70300000000006</v>
+      </c>
+      <c r="AS8">
+        <v>48.358000000000061</v>
+      </c>
+      <c r="AT8">
+        <v>49.013000000000069</v>
+      </c>
+      <c r="AU8">
+        <v>49.66800000000007</v>
+      </c>
+      <c r="AV8">
+        <v>50.323000000000071</v>
+      </c>
+      <c r="AW8">
+        <v>50.97800000000008</v>
+      </c>
+      <c r="AX8">
+        <v>51.633000000000081</v>
+      </c>
+      <c r="AY8">
+        <v>52.288000000000089</v>
+      </c>
+      <c r="AZ8">
+        <v>52.943000000000097</v>
+      </c>
+      <c r="BA8">
+        <v>53.598000000000098</v>
+      </c>
+      <c r="BB8">
+        <v>54.253000000000107</v>
+      </c>
+      <c r="BC8">
+        <v>54.908000000000115</v>
+      </c>
+      <c r="BD8">
+        <v>55.563000000000116</v>
+      </c>
+      <c r="BE8">
+        <v>56.218000000000124</v>
+      </c>
+      <c r="BF8">
+        <v>56.873000000000133</v>
+      </c>
+      <c r="BG8">
+        <v>57.528000000000134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>57.56</v>
+      </c>
+      <c r="E9">
+        <v>58.147999999999996</v>
+      </c>
+      <c r="F9">
+        <v>58.733000000000004</v>
+      </c>
+      <c r="G9">
+        <v>59.314999999999998</v>
+      </c>
+      <c r="H9">
+        <v>59.892000000000003</v>
+      </c>
+      <c r="I9">
+        <v>60.463999999999999</v>
+      </c>
+      <c r="J9">
+        <v>61.031999999999996</v>
+      </c>
+      <c r="K9">
+        <v>61.594000000000001</v>
+      </c>
+      <c r="L9">
+        <v>62.149999999999991</v>
+      </c>
+      <c r="M9">
+        <v>62.7</v>
+      </c>
+      <c r="N9">
+        <v>63.241999999999997</v>
+      </c>
+      <c r="O9">
+        <v>63.777000000000008</v>
+      </c>
+      <c r="P9">
+        <v>64.301000000000002</v>
+      </c>
+      <c r="Q9">
+        <v>64.822999999999993</v>
+      </c>
+      <c r="R9">
+        <v>65.341999999999999</v>
+      </c>
+      <c r="S9">
+        <v>65.858000000000004</v>
+      </c>
+      <c r="T9">
+        <v>66.37</v>
+      </c>
+      <c r="U9">
+        <v>66.876999999999995</v>
+      </c>
+      <c r="V9">
+        <v>67.381</v>
+      </c>
+      <c r="W9">
+        <v>67.881</v>
+      </c>
+      <c r="X9">
+        <v>68.376999999999995</v>
+      </c>
+      <c r="Y9">
+        <v>68.869</v>
+      </c>
+      <c r="Z9">
+        <v>69.356999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>69.84</v>
+      </c>
+      <c r="AB9">
+        <v>70.319000000000003</v>
+      </c>
+      <c r="AC9">
+        <v>70.793000000000006</v>
+      </c>
+      <c r="AD9">
+        <v>71.263999999999996</v>
+      </c>
+      <c r="AE9">
+        <v>71.728999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>72.19</v>
+      </c>
+      <c r="AG9">
+        <v>72.646000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>73.097999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>73.55</v>
+      </c>
+      <c r="AJ9">
+        <v>74.001999999999995</v>
+      </c>
+      <c r="AK9">
+        <v>74.453999999999994</v>
+      </c>
+      <c r="AL9">
+        <v>74.905999999999977</v>
+      </c>
+      <c r="AM9">
+        <v>75.357999999999976</v>
+      </c>
+      <c r="AN9">
+        <v>75.809999999999974</v>
+      </c>
+      <c r="AO9">
+        <v>76.261999999999972</v>
+      </c>
+      <c r="AP9">
+        <v>76.71399999999997</v>
+      </c>
+      <c r="AQ9">
+        <v>77.165999999999968</v>
+      </c>
+      <c r="AR9">
+        <v>77.617999999999967</v>
+      </c>
+      <c r="AS9">
+        <v>78.069999999999965</v>
+      </c>
+      <c r="AT9">
+        <v>78.521999999999963</v>
+      </c>
+      <c r="AU9">
+        <v>78.973999999999961</v>
+      </c>
+      <c r="AV9">
+        <v>79.425999999999959</v>
+      </c>
+      <c r="AW9">
+        <v>79.877999999999943</v>
+      </c>
+      <c r="AX9">
+        <v>80.329999999999941</v>
+      </c>
+      <c r="AY9">
+        <v>80.78199999999994</v>
+      </c>
+      <c r="AZ9">
+        <v>81.233999999999938</v>
+      </c>
+      <c r="BA9">
+        <v>81.685999999999936</v>
+      </c>
+      <c r="BB9">
+        <v>82.137999999999934</v>
+      </c>
+      <c r="BC9">
+        <v>82.589999999999932</v>
+      </c>
+      <c r="BD9">
+        <v>83.041999999999931</v>
+      </c>
+      <c r="BE9">
+        <v>83.493999999999929</v>
+      </c>
+      <c r="BF9">
+        <v>83.945999999999927</v>
+      </c>
+      <c r="BG9">
+        <v>84.397999999999911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>51.70600000000001</v>
+      </c>
+      <c r="E10">
+        <v>52.180000000000007</v>
+      </c>
+      <c r="F10">
+        <v>52.661000000000001</v>
+      </c>
+      <c r="G10">
+        <v>53.149000000000001</v>
+      </c>
+      <c r="H10">
+        <v>53.644000000000005</v>
+      </c>
+      <c r="I10">
+        <v>54.144000000000005</v>
+      </c>
+      <c r="J10">
+        <v>54.65</v>
+      </c>
+      <c r="K10">
+        <v>55.162999999999997</v>
+      </c>
+      <c r="L10">
+        <v>55.679999999999993</v>
+      </c>
+      <c r="M10">
+        <v>56.203000000000003</v>
+      </c>
+      <c r="N10">
+        <v>56.72999999999999</v>
+      </c>
+      <c r="O10">
+        <v>57.26100000000001</v>
+      </c>
+      <c r="P10">
+        <v>57.796999999999997</v>
+      </c>
+      <c r="Q10">
+        <v>58.335999999999999</v>
+      </c>
+      <c r="R10">
+        <v>58.878</v>
+      </c>
+      <c r="S10">
+        <v>59.421999999999997</v>
+      </c>
+      <c r="T10">
+        <v>59.969000000000008</v>
+      </c>
+      <c r="U10">
+        <v>60.516999999999996</v>
+      </c>
+      <c r="V10">
+        <v>61.065000000000005</v>
+      </c>
+      <c r="W10">
+        <v>61.612999999999992</v>
+      </c>
+      <c r="X10">
+        <v>62.156999999999996</v>
+      </c>
+      <c r="Y10">
+        <v>62.700999999999993</v>
+      </c>
+      <c r="Z10">
+        <v>63.241</v>
+      </c>
+      <c r="AA10">
+        <v>63.777999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>64.311999999999998</v>
+      </c>
+      <c r="AC10">
+        <v>64.841999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>65.369</v>
+      </c>
+      <c r="AE10">
+        <v>65.891999999999996</v>
+      </c>
+      <c r="AF10">
+        <v>66.41</v>
+      </c>
+      <c r="AG10">
+        <v>66.924999999999997</v>
+      </c>
+      <c r="AH10">
+        <v>67.436000000000007</v>
+      </c>
+      <c r="AI10">
+        <v>67.947000000000017</v>
+      </c>
+      <c r="AJ10">
+        <v>68.458000000000013</v>
+      </c>
+      <c r="AK10">
+        <v>68.969000000000023</v>
+      </c>
+      <c r="AL10">
+        <v>69.480000000000032</v>
+      </c>
+      <c r="AM10">
+        <v>69.991000000000042</v>
+      </c>
+      <c r="AN10">
+        <v>70.502000000000038</v>
+      </c>
+      <c r="AO10">
+        <v>71.013000000000048</v>
+      </c>
+      <c r="AP10">
+        <v>71.524000000000058</v>
+      </c>
+      <c r="AQ10">
+        <v>72.035000000000053</v>
+      </c>
+      <c r="AR10">
+        <v>72.546000000000063</v>
+      </c>
+      <c r="AS10">
+        <v>73.057000000000073</v>
+      </c>
+      <c r="AT10">
+        <v>73.568000000000083</v>
+      </c>
+      <c r="AU10">
+        <v>74.079000000000079</v>
+      </c>
+      <c r="AV10">
+        <v>74.590000000000089</v>
+      </c>
+      <c r="AW10">
+        <v>75.101000000000099</v>
+      </c>
+      <c r="AX10">
+        <v>75.612000000000108</v>
+      </c>
+      <c r="AY10">
+        <v>76.123000000000104</v>
+      </c>
+      <c r="AZ10">
+        <v>76.634000000000114</v>
+      </c>
+      <c r="BA10">
+        <v>77.145000000000124</v>
+      </c>
+      <c r="BB10">
+        <v>77.65600000000012</v>
+      </c>
+      <c r="BC10">
+        <v>78.167000000000129</v>
+      </c>
+      <c r="BD10">
+        <v>78.678000000000139</v>
+      </c>
+      <c r="BE10">
+        <v>79.189000000000149</v>
+      </c>
+      <c r="BF10">
+        <v>79.700000000000145</v>
+      </c>
+      <c r="BG10">
+        <v>80.211000000000155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>45.637999999999998</v>
+      </c>
+      <c r="E11">
+        <v>46.234999999999999</v>
+      </c>
+      <c r="F11">
+        <v>46.837000000000003</v>
+      </c>
+      <c r="G11">
+        <v>47.444000000000003</v>
+      </c>
+      <c r="H11">
+        <v>48.055</v>
+      </c>
+      <c r="I11">
+        <v>48.668999999999997</v>
+      </c>
+      <c r="J11">
+        <v>49.286000000000001</v>
+      </c>
+      <c r="K11">
+        <v>49.905000000000001</v>
+      </c>
+      <c r="L11">
+        <v>50.524999999999999</v>
+      </c>
+      <c r="M11">
+        <v>51.14500000000001</v>
+      </c>
+      <c r="N11">
+        <v>51.762</v>
+      </c>
+      <c r="O11">
+        <v>52.381</v>
+      </c>
+      <c r="P11">
+        <v>52.999000000000009</v>
+      </c>
+      <c r="Q11">
+        <v>53.616</v>
+      </c>
+      <c r="R11">
+        <v>54.231999999999999</v>
+      </c>
+      <c r="S11">
+        <v>54.847000000000001</v>
+      </c>
+      <c r="T11">
+        <v>55.46</v>
+      </c>
+      <c r="U11">
+        <v>56.072000000000003</v>
+      </c>
+      <c r="V11">
+        <v>56.68099999999999</v>
+      </c>
+      <c r="W11">
+        <v>57.289000000000001</v>
+      </c>
+      <c r="X11">
+        <v>57.89500000000001</v>
+      </c>
+      <c r="Y11">
+        <v>58.497999999999998</v>
+      </c>
+      <c r="Z11">
+        <v>59.099000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>59.697000000000003</v>
+      </c>
+      <c r="AB11">
+        <v>60.292000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>60.884000000000007</v>
+      </c>
+      <c r="AD11">
+        <v>61.472999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>62.058</v>
+      </c>
+      <c r="AF11">
+        <v>62.639999999999993</v>
+      </c>
+      <c r="AG11">
+        <v>63.219000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>63.793999999999997</v>
+      </c>
+      <c r="AI11">
+        <v>64.368999999999986</v>
+      </c>
+      <c r="AJ11">
+        <v>64.943999999999974</v>
+      </c>
+      <c r="AK11">
+        <v>65.518999999999977</v>
+      </c>
+      <c r="AL11">
+        <v>66.093999999999966</v>
+      </c>
+      <c r="AM11">
+        <v>66.668999999999954</v>
+      </c>
+      <c r="AN11">
+        <v>67.243999999999943</v>
+      </c>
+      <c r="AO11">
+        <v>67.818999999999946</v>
+      </c>
+      <c r="AP11">
+        <v>68.393999999999934</v>
+      </c>
+      <c r="AQ11">
+        <v>68.968999999999923</v>
+      </c>
+      <c r="AR11">
+        <v>69.543999999999912</v>
+      </c>
+      <c r="AS11">
+        <v>70.118999999999915</v>
+      </c>
+      <c r="AT11">
+        <v>70.693999999999903</v>
+      </c>
+      <c r="AU11">
+        <v>71.268999999999892</v>
+      </c>
+      <c r="AV11">
+        <v>71.84399999999988</v>
+      </c>
+      <c r="AW11">
+        <v>72.418999999999883</v>
+      </c>
+      <c r="AX11">
+        <v>72.993999999999872</v>
+      </c>
+      <c r="AY11">
+        <v>73.568999999999861</v>
+      </c>
+      <c r="AZ11">
+        <v>74.143999999999849</v>
+      </c>
+      <c r="BA11">
+        <v>74.718999999999852</v>
+      </c>
+      <c r="BB11">
+        <v>75.293999999999841</v>
+      </c>
+      <c r="BC11">
+        <v>75.868999999999829</v>
+      </c>
+      <c r="BD11">
+        <v>76.443999999999818</v>
+      </c>
+      <c r="BE11">
+        <v>77.018999999999821</v>
+      </c>
+      <c r="BF11">
+        <v>77.593999999999809</v>
+      </c>
+      <c r="BG11">
+        <v>78.168999999999798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>818</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>42.783000000000001</v>
+      </c>
+      <c r="E12">
+        <v>42.862000000000002</v>
+      </c>
+      <c r="F12">
+        <v>42.966999999999999</v>
+      </c>
+      <c r="G12">
+        <v>43.1</v>
+      </c>
+      <c r="H12">
+        <v>43.258000000000003</v>
+      </c>
+      <c r="I12">
+        <v>43.444000000000003</v>
+      </c>
+      <c r="J12">
+        <v>43.655999999999999</v>
+      </c>
+      <c r="K12">
+        <v>43.895000000000003</v>
+      </c>
+      <c r="L12">
+        <v>44.161000000000001</v>
+      </c>
+      <c r="M12">
+        <v>44.453000000000003</v>
+      </c>
+      <c r="N12">
+        <v>44.773000000000003</v>
+      </c>
+      <c r="O12">
+        <v>45.119</v>
+      </c>
+      <c r="P12">
+        <v>45.491999999999997</v>
+      </c>
+      <c r="Q12">
+        <v>45.890999999999998</v>
+      </c>
+      <c r="R12">
+        <v>46.317</v>
+      </c>
+      <c r="S12">
+        <v>46.768999999999998</v>
+      </c>
+      <c r="T12">
+        <v>47.247999999999998</v>
+      </c>
+      <c r="U12">
+        <v>47.752000000000002</v>
+      </c>
+      <c r="V12">
+        <v>48.281999999999996</v>
+      </c>
+      <c r="W12">
+        <v>48.835999999999999</v>
+      </c>
+      <c r="X12">
+        <v>49.414999999999999</v>
+      </c>
+      <c r="Y12">
+        <v>50.015999999999991</v>
+      </c>
+      <c r="Z12">
+        <v>50.637999999999991</v>
+      </c>
+      <c r="AA12">
+        <v>51.261999999999993</v>
+      </c>
+      <c r="AB12">
+        <v>51.885999999999996</v>
+      </c>
+      <c r="AC12">
+        <v>52.507999999999996</v>
+      </c>
+      <c r="AD12">
+        <v>53.130999999999993</v>
+      </c>
+      <c r="AE12">
+        <v>53.752000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>54.372</v>
+      </c>
+      <c r="AG12">
+        <v>54.991</v>
+      </c>
+      <c r="AH12">
+        <v>55.608000000000004</v>
+      </c>
+      <c r="AI12">
+        <v>56.225000000000001</v>
+      </c>
+      <c r="AJ12">
+        <v>56.842000000000006</v>
+      </c>
+      <c r="AK12">
+        <v>57.459000000000003</v>
+      </c>
+      <c r="AL12">
+        <v>58.076000000000008</v>
+      </c>
+      <c r="AM12">
+        <v>58.693000000000005</v>
+      </c>
+      <c r="AN12">
+        <v>59.310000000000009</v>
+      </c>
+      <c r="AO12">
+        <v>59.927000000000007</v>
+      </c>
+      <c r="AP12">
+        <v>60.544000000000011</v>
+      </c>
+      <c r="AQ12">
+        <v>61.161000000000008</v>
+      </c>
+      <c r="AR12">
+        <v>61.778000000000013</v>
+      </c>
+      <c r="AS12">
+        <v>62.39500000000001</v>
+      </c>
+      <c r="AT12">
+        <v>63.012000000000015</v>
+      </c>
+      <c r="AU12">
+        <v>63.629000000000012</v>
+      </c>
+      <c r="AV12">
+        <v>64.246000000000009</v>
+      </c>
+      <c r="AW12">
+        <v>64.863000000000014</v>
+      </c>
+      <c r="AX12">
+        <v>65.480000000000018</v>
+      </c>
+      <c r="AY12">
+        <v>66.097000000000023</v>
+      </c>
+      <c r="AZ12">
+        <v>66.714000000000013</v>
+      </c>
+      <c r="BA12">
+        <v>67.331000000000017</v>
+      </c>
+      <c r="BB12">
+        <v>67.948000000000022</v>
+      </c>
+      <c r="BC12">
+        <v>68.565000000000026</v>
+      </c>
+      <c r="BD12">
+        <v>69.182000000000016</v>
+      </c>
+      <c r="BE12">
+        <v>69.799000000000021</v>
+      </c>
+      <c r="BF12">
+        <v>70.416000000000025</v>
+      </c>
+      <c r="BG12">
+        <v>71.03300000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>21.695</v>
+      </c>
+      <c r="E13">
+        <v>22.173999999999999</v>
+      </c>
+      <c r="F13">
+        <v>22.661000000000001</v>
+      </c>
+      <c r="G13">
+        <v>23.157</v>
+      </c>
+      <c r="H13">
+        <v>23.661000000000001</v>
+      </c>
+      <c r="I13">
+        <v>24.172999999999998</v>
+      </c>
+      <c r="J13">
+        <v>24.693999999999999</v>
+      </c>
+      <c r="K13">
+        <v>25.222000000000001</v>
+      </c>
+      <c r="L13">
+        <v>25.759</v>
+      </c>
+      <c r="M13">
+        <v>26.302999999999997</v>
+      </c>
+      <c r="N13">
+        <v>26.856000000000002</v>
+      </c>
+      <c r="O13">
+        <v>27.414999999999999</v>
+      </c>
+      <c r="P13">
+        <v>27.982000000000003</v>
+      </c>
+      <c r="Q13">
+        <v>28.556000000000004</v>
+      </c>
+      <c r="R13">
+        <v>29.137</v>
+      </c>
+      <c r="S13">
+        <v>29.724</v>
+      </c>
+      <c r="T13">
+        <v>30.317</v>
+      </c>
+      <c r="U13">
+        <v>30.916</v>
+      </c>
+      <c r="V13">
+        <v>31.518999999999998</v>
+      </c>
+      <c r="W13">
+        <v>32.128</v>
+      </c>
+      <c r="X13">
+        <v>32.74</v>
+      </c>
+      <c r="Y13">
+        <v>33.354999999999997</v>
+      </c>
+      <c r="Z13">
+        <v>33.972000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>34.588000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>35.210999999999999</v>
+      </c>
+      <c r="AC13">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="AD13">
+        <v>36.472999999999999</v>
+      </c>
+      <c r="AE13">
+        <v>37.110999999999997</v>
+      </c>
+      <c r="AF13">
+        <v>37.753</v>
+      </c>
+      <c r="AG13">
+        <v>38.4</v>
+      </c>
+      <c r="AH13">
+        <v>39.051000000000002</v>
+      </c>
+      <c r="AI13">
+        <v>39.702000000000005</v>
+      </c>
+      <c r="AJ13">
+        <v>40.353000000000009</v>
+      </c>
+      <c r="AK13">
+        <v>41.004000000000005</v>
+      </c>
+      <c r="AL13">
+        <v>41.655000000000008</v>
+      </c>
+      <c r="AM13">
+        <v>42.306000000000012</v>
+      </c>
+      <c r="AN13">
+        <v>42.957000000000015</v>
+      </c>
+      <c r="AO13">
+        <v>43.608000000000011</v>
+      </c>
+      <c r="AP13">
+        <v>44.259000000000015</v>
+      </c>
+      <c r="AQ13">
+        <v>44.910000000000018</v>
+      </c>
+      <c r="AR13">
+        <v>45.561000000000021</v>
+      </c>
+      <c r="AS13">
+        <v>46.212000000000018</v>
+      </c>
+      <c r="AT13">
+        <v>46.863000000000021</v>
+      </c>
+      <c r="AU13">
+        <v>47.514000000000024</v>
+      </c>
+      <c r="AV13">
+        <v>48.165000000000028</v>
+      </c>
+      <c r="AW13">
+        <v>48.816000000000024</v>
+      </c>
+      <c r="AX13">
+        <v>49.467000000000027</v>
+      </c>
+      <c r="AY13">
+        <v>50.118000000000031</v>
+      </c>
+      <c r="AZ13">
+        <v>50.769000000000034</v>
+      </c>
+      <c r="BA13">
+        <v>51.42000000000003</v>
+      </c>
+      <c r="BB13">
+        <v>52.071000000000033</v>
+      </c>
+      <c r="BC13">
+        <v>52.722000000000037</v>
+      </c>
+      <c r="BD13">
+        <v>53.37300000000004</v>
+      </c>
+      <c r="BE13">
+        <v>54.024000000000036</v>
+      </c>
+      <c r="BF13">
+        <v>54.67500000000004</v>
+      </c>
+      <c r="BG13">
+        <v>55.326000000000043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>57.348999999999997</v>
+      </c>
+      <c r="E14">
+        <v>57.984999999999999</v>
+      </c>
+      <c r="F14">
+        <v>58.615000000000009</v>
+      </c>
+      <c r="G14">
+        <v>59.238</v>
+      </c>
+      <c r="H14">
+        <v>59.853999999999999</v>
+      </c>
+      <c r="I14">
+        <v>60.463000000000001</v>
+      </c>
+      <c r="J14">
+        <v>61.065000000000005</v>
+      </c>
+      <c r="K14">
+        <v>61.658999999999999</v>
+      </c>
+      <c r="L14">
+        <v>62.244</v>
+      </c>
+      <c r="M14">
+        <v>62.822000000000003</v>
+      </c>
+      <c r="N14">
+        <v>63.39</v>
+      </c>
+      <c r="O14">
+        <v>63.95000000000001</v>
+      </c>
+      <c r="P14">
+        <v>64.5</v>
+      </c>
+      <c r="Q14">
+        <v>65.040999999999997</v>
+      </c>
+      <c r="R14">
+        <v>65.570999999999998</v>
+      </c>
+      <c r="S14">
+        <v>66.090999999999994</v>
+      </c>
+      <c r="T14">
+        <v>66.599000000000004</v>
+      </c>
+      <c r="U14">
+        <v>67.093999999999994</v>
+      </c>
+      <c r="V14">
+        <v>67.585999999999999</v>
+      </c>
+      <c r="W14">
+        <v>68.075000000000003</v>
+      </c>
+      <c r="X14">
+        <v>68.56</v>
+      </c>
+      <c r="Y14">
+        <v>69.040999999999997</v>
+      </c>
+      <c r="Z14">
+        <v>69.518000000000001</v>
+      </c>
+      <c r="AA14">
+        <v>69.991</v>
+      </c>
+      <c r="AB14">
+        <v>70.459000000000003</v>
+      </c>
+      <c r="AC14">
+        <v>70.923000000000002</v>
+      </c>
+      <c r="AD14">
+        <v>71.382999999999996</v>
+      </c>
+      <c r="AE14">
+        <v>71.837999999999994</v>
+      </c>
+      <c r="AF14">
+        <v>72.289000000000001</v>
+      </c>
+      <c r="AG14">
+        <v>72.736000000000004</v>
+      </c>
+      <c r="AH14">
+        <v>73.177999999999997</v>
+      </c>
+      <c r="AI14">
+        <v>73.61999999999999</v>
+      </c>
+      <c r="AJ14">
+        <v>74.061999999999998</v>
+      </c>
+      <c r="AK14">
+        <v>74.503999999999991</v>
+      </c>
+      <c r="AL14">
+        <v>74.945999999999984</v>
+      </c>
+      <c r="AM14">
+        <v>75.387999999999991</v>
+      </c>
+      <c r="AN14">
+        <v>75.829999999999984</v>
+      </c>
+      <c r="AO14">
+        <v>76.271999999999991</v>
+      </c>
+      <c r="AP14">
+        <v>76.713999999999984</v>
+      </c>
+      <c r="AQ14">
+        <v>77.155999999999977</v>
+      </c>
+      <c r="AR14">
+        <v>77.597999999999985</v>
+      </c>
+      <c r="AS14">
+        <v>78.039999999999978</v>
+      </c>
+      <c r="AT14">
+        <v>78.481999999999971</v>
+      </c>
+      <c r="AU14">
+        <v>78.923999999999978</v>
+      </c>
+      <c r="AV14">
+        <v>79.365999999999971</v>
+      </c>
+      <c r="AW14">
+        <v>79.807999999999964</v>
+      </c>
+      <c r="AX14">
+        <v>80.249999999999972</v>
+      </c>
+      <c r="AY14">
+        <v>80.691999999999965</v>
+      </c>
+      <c r="AZ14">
+        <v>81.133999999999958</v>
+      </c>
+      <c r="BA14">
+        <v>81.575999999999965</v>
+      </c>
+      <c r="BB14">
+        <v>82.017999999999958</v>
+      </c>
+      <c r="BC14">
+        <v>82.459999999999951</v>
+      </c>
+      <c r="BD14">
+        <v>82.901999999999958</v>
+      </c>
+      <c r="BE14">
+        <v>83.343999999999951</v>
+      </c>
+      <c r="BF14">
+        <v>83.785999999999945</v>
+      </c>
+      <c r="BG14">
+        <v>84.227999999999952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>51.835999999999991</v>
+      </c>
+      <c r="E15">
+        <v>52.244999999999997</v>
+      </c>
+      <c r="F15">
+        <v>52.666000000000004</v>
+      </c>
+      <c r="G15">
+        <v>53.097999999999999</v>
+      </c>
+      <c r="H15">
+        <v>53.542000000000002</v>
+      </c>
+      <c r="I15">
+        <v>53.996000000000002</v>
+      </c>
+      <c r="J15">
+        <v>54.461000000000006</v>
+      </c>
+      <c r="K15">
+        <v>54.937000000000005</v>
+      </c>
+      <c r="L15">
+        <v>55.423000000000002</v>
+      </c>
+      <c r="M15">
+        <v>55.917999999999999</v>
+      </c>
+      <c r="N15">
+        <v>56.423000000000002</v>
+      </c>
+      <c r="O15">
+        <v>56.936999999999991</v>
+      </c>
+      <c r="P15">
+        <v>57.46</v>
+      </c>
+      <c r="Q15">
+        <v>57.991000000000007</v>
+      </c>
+      <c r="R15">
+        <v>58.529000000000011</v>
+      </c>
+      <c r="S15">
+        <v>59.073</v>
+      </c>
+      <c r="T15">
+        <v>59.624000000000002</v>
+      </c>
+      <c r="U15">
+        <v>60.179000000000002</v>
+      </c>
+      <c r="V15">
+        <v>60.736000000000004</v>
+      </c>
+      <c r="W15">
+        <v>61.292999999999999</v>
+      </c>
+      <c r="X15">
+        <v>61.846000000000004</v>
+      </c>
+      <c r="Y15">
+        <v>62.397000000000006</v>
+      </c>
+      <c r="Z15">
+        <v>62.944000000000003</v>
+      </c>
+      <c r="AA15">
+        <v>63.488</v>
+      </c>
+      <c r="AB15">
+        <v>64.028999999999996</v>
+      </c>
+      <c r="AC15">
+        <v>64.566000000000003</v>
+      </c>
+      <c r="AD15">
+        <v>65.099000000000004</v>
+      </c>
+      <c r="AE15">
+        <v>65.629000000000005</v>
+      </c>
+      <c r="AF15">
+        <v>66.155000000000001</v>
+      </c>
+      <c r="AG15">
+        <v>66.677000000000007</v>
+      </c>
+      <c r="AH15">
+        <v>67.194999999999993</v>
+      </c>
+      <c r="AI15">
+        <v>67.71299999999998</v>
+      </c>
+      <c r="AJ15">
+        <v>68.230999999999966</v>
+      </c>
+      <c r="AK15">
+        <v>68.748999999999953</v>
+      </c>
+      <c r="AL15">
+        <v>69.266999999999939</v>
+      </c>
+      <c r="AM15">
+        <v>69.784999999999926</v>
+      </c>
+      <c r="AN15">
+        <v>70.302999999999898</v>
+      </c>
+      <c r="AO15">
+        <v>70.820999999999884</v>
+      </c>
+      <c r="AP15">
+        <v>71.338999999999871</v>
+      </c>
+      <c r="AQ15">
+        <v>71.856999999999857</v>
+      </c>
+      <c r="AR15">
+        <v>72.374999999999844</v>
+      </c>
+      <c r="AS15">
+        <v>72.89299999999983</v>
+      </c>
+      <c r="AT15">
+        <v>73.410999999999817</v>
+      </c>
+      <c r="AU15">
+        <v>73.928999999999803</v>
+      </c>
+      <c r="AV15">
+        <v>74.44699999999979</v>
+      </c>
+      <c r="AW15">
+        <v>74.964999999999776</v>
+      </c>
+      <c r="AX15">
+        <v>75.482999999999763</v>
+      </c>
+      <c r="AY15">
+        <v>76.000999999999735</v>
+      </c>
+      <c r="AZ15">
+        <v>76.518999999999721</v>
+      </c>
+      <c r="BA15">
+        <v>77.036999999999708</v>
+      </c>
+      <c r="BB15">
+        <v>77.554999999999694</v>
+      </c>
+      <c r="BC15">
+        <v>78.072999999999681</v>
+      </c>
+      <c r="BD15">
+        <v>78.590999999999667</v>
+      </c>
+      <c r="BE15">
+        <v>79.108999999999654</v>
+      </c>
+      <c r="BF15">
+        <v>79.62699999999964</v>
+      </c>
+      <c r="BG15">
+        <v>80.144999999999627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>324</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>36.875</v>
+      </c>
+      <c r="E16">
+        <v>37.264000000000003</v>
+      </c>
+      <c r="F16">
+        <v>37.667999999999999</v>
+      </c>
+      <c r="G16">
+        <v>38.085000000000001</v>
+      </c>
+      <c r="H16">
+        <v>38.517000000000003</v>
+      </c>
+      <c r="I16">
+        <v>38.963000000000001</v>
+      </c>
+      <c r="J16">
+        <v>39.423000000000002</v>
+      </c>
+      <c r="K16">
+        <v>39.896999999999998</v>
+      </c>
+      <c r="L16">
+        <v>40.386000000000003</v>
+      </c>
+      <c r="M16">
+        <v>40.887999999999998</v>
+      </c>
+      <c r="N16">
+        <v>41.405000000000001</v>
+      </c>
+      <c r="O16">
+        <v>41.935000000000002</v>
+      </c>
+      <c r="P16">
+        <v>42.478999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>43.036000000000001</v>
+      </c>
+      <c r="R16">
+        <v>43.606000000000002</v>
+      </c>
+      <c r="S16">
+        <v>44.189</v>
+      </c>
+      <c r="T16">
+        <v>44.783000000000001</v>
+      </c>
+      <c r="U16">
+        <v>45.39</v>
+      </c>
+      <c r="V16">
+        <v>46.006</v>
+      </c>
+      <c r="W16">
+        <v>46.631999999999998</v>
+      </c>
+      <c r="X16">
+        <v>47.264000000000003</v>
+      </c>
+      <c r="Y16">
+        <v>47.9</v>
+      </c>
+      <c r="Z16">
+        <v>48.536999999999999</v>
+      </c>
+      <c r="AA16">
+        <v>49.173000000000002</v>
+      </c>
+      <c r="AB16">
+        <v>49.811</v>
+      </c>
+      <c r="AC16">
+        <v>50.448000000000008</v>
+      </c>
+      <c r="AD16">
+        <v>51.085000000000001</v>
+      </c>
+      <c r="AE16">
+        <v>51.722000000000001</v>
+      </c>
+      <c r="AF16">
+        <v>52.35799999999999</v>
+      </c>
+      <c r="AG16">
+        <v>52.993000000000002</v>
+      </c>
+      <c r="AH16">
+        <v>53.628</v>
+      </c>
+      <c r="AI16">
+        <v>54.262999999999991</v>
+      </c>
+      <c r="AJ16">
+        <v>54.897999999999989</v>
+      </c>
+      <c r="AK16">
+        <v>55.532999999999987</v>
+      </c>
+      <c r="AL16">
+        <v>56.167999999999985</v>
+      </c>
+      <c r="AM16">
+        <v>56.802999999999983</v>
+      </c>
+      <c r="AN16">
+        <v>57.437999999999981</v>
+      </c>
+      <c r="AO16">
+        <v>58.072999999999972</v>
+      </c>
+      <c r="AP16">
+        <v>58.70799999999997</v>
+      </c>
+      <c r="AQ16">
+        <v>59.342999999999968</v>
+      </c>
+      <c r="AR16">
+        <v>59.977999999999966</v>
+      </c>
+      <c r="AS16">
+        <v>60.612999999999964</v>
+      </c>
+      <c r="AT16">
+        <v>61.247999999999955</v>
+      </c>
+      <c r="AU16">
+        <v>61.882999999999953</v>
+      </c>
+      <c r="AV16">
+        <v>62.517999999999951</v>
+      </c>
+      <c r="AW16">
+        <v>63.152999999999949</v>
+      </c>
+      <c r="AX16">
+        <v>63.787999999999947</v>
+      </c>
+      <c r="AY16">
+        <v>64.422999999999945</v>
+      </c>
+      <c r="AZ16">
+        <v>65.057999999999936</v>
+      </c>
+      <c r="BA16">
+        <v>65.692999999999941</v>
+      </c>
+      <c r="BB16">
+        <v>66.327999999999932</v>
+      </c>
+      <c r="BC16">
+        <v>66.962999999999923</v>
+      </c>
+      <c r="BD16">
+        <v>67.597999999999928</v>
+      </c>
+      <c r="BE16">
+        <v>68.232999999999919</v>
+      </c>
+      <c r="BF16">
+        <v>68.867999999999924</v>
+      </c>
+      <c r="BG16">
+        <v>69.502999999999915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>332</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>57.088000000000008</v>
+      </c>
+      <c r="E17">
+        <v>57.963999999999992</v>
+      </c>
+      <c r="F17">
+        <v>58.820000000000007</v>
+      </c>
+      <c r="G17">
+        <v>59.655999999999999</v>
+      </c>
+      <c r="H17">
+        <v>60.472000000000001</v>
+      </c>
+      <c r="I17">
+        <v>61.265999999999998</v>
+      </c>
+      <c r="J17">
+        <v>62.039999999999992</v>
+      </c>
+      <c r="K17">
+        <v>62.792999999999999</v>
+      </c>
+      <c r="L17">
+        <v>63.524000000000001</v>
+      </c>
+      <c r="M17">
+        <v>64.233999999999995</v>
+      </c>
+      <c r="N17">
+        <v>64.923000000000002</v>
+      </c>
+      <c r="O17">
+        <v>65.588999999999999</v>
+      </c>
+      <c r="P17">
+        <v>66.234999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>66.858000000000004</v>
+      </c>
+      <c r="R17">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="S17">
+        <v>68.040999999999997</v>
+      </c>
+      <c r="T17">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="U17">
+        <v>69.137</v>
+      </c>
+      <c r="V17">
+        <v>69.653000000000006</v>
+      </c>
+      <c r="W17">
+        <v>70.147000000000006</v>
+      </c>
+      <c r="X17">
+        <v>70.617999999999995</v>
+      </c>
+      <c r="Y17">
+        <v>71.066999999999993</v>
+      </c>
+      <c r="Z17">
+        <v>71.512</v>
+      </c>
+      <c r="AA17">
+        <v>71.953999999999994</v>
+      </c>
+      <c r="AB17">
+        <v>72.391000000000005</v>
+      </c>
+      <c r="AC17">
+        <v>72.825000000000003</v>
+      </c>
+      <c r="AD17">
+        <v>73.253</v>
+      </c>
+      <c r="AE17">
+        <v>73.677999999999997</v>
+      </c>
+      <c r="AF17">
+        <v>74.097999999999999</v>
+      </c>
+      <c r="AG17">
+        <v>74.513999999999996</v>
+      </c>
+      <c r="AH17">
+        <v>74.924999999999997</v>
+      </c>
+      <c r="AI17">
+        <v>75.335999999999999</v>
+      </c>
+      <c r="AJ17">
+        <v>75.747000000000014</v>
+      </c>
+      <c r="AK17">
+        <v>76.158000000000015</v>
+      </c>
+      <c r="AL17">
+        <v>76.569000000000017</v>
+      </c>
+      <c r="AM17">
+        <v>76.980000000000032</v>
+      </c>
+      <c r="AN17">
+        <v>77.391000000000034</v>
+      </c>
+      <c r="AO17">
+        <v>77.802000000000035</v>
+      </c>
+      <c r="AP17">
+        <v>78.213000000000051</v>
+      </c>
+      <c r="AQ17">
+        <v>78.624000000000052</v>
+      </c>
+      <c r="AR17">
+        <v>79.035000000000053</v>
+      </c>
+      <c r="AS17">
+        <v>79.446000000000055</v>
+      </c>
+      <c r="AT17">
+        <v>79.85700000000007</v>
+      </c>
+      <c r="AU17">
+        <v>80.268000000000072</v>
+      </c>
+      <c r="AV17">
+        <v>80.679000000000073</v>
+      </c>
+      <c r="AW17">
+        <v>81.090000000000089</v>
+      </c>
+      <c r="AX17">
+        <v>81.50100000000009</v>
+      </c>
+      <c r="AY17">
+        <v>81.912000000000091</v>
+      </c>
+      <c r="AZ17">
+        <v>82.323000000000107</v>
+      </c>
+      <c r="BA17">
+        <v>82.734000000000108</v>
+      </c>
+      <c r="BB17">
+        <v>83.14500000000011</v>
+      </c>
+      <c r="BC17">
+        <v>83.556000000000125</v>
+      </c>
+      <c r="BD17">
+        <v>83.967000000000127</v>
+      </c>
+      <c r="BE17">
+        <v>84.378000000000128</v>
+      </c>
+      <c r="BF17">
+        <v>84.789000000000129</v>
+      </c>
+      <c r="BG17">
+        <v>85.200000000000145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>356</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>34.926000000000002</v>
+      </c>
+      <c r="E18">
+        <v>35.393000000000001</v>
+      </c>
+      <c r="F18">
+        <v>35.872</v>
+      </c>
+      <c r="G18">
+        <v>36.363999999999997</v>
+      </c>
+      <c r="H18">
+        <v>36.866999999999997</v>
+      </c>
+      <c r="I18">
+        <v>37.383000000000003</v>
+      </c>
+      <c r="J18">
+        <v>37.911000000000001</v>
+      </c>
+      <c r="K18">
+        <v>38.451999999999998</v>
+      </c>
+      <c r="L18">
+        <v>39.003999999999998</v>
+      </c>
+      <c r="M18">
+        <v>39.567</v>
+      </c>
+      <c r="N18">
+        <v>40.142000000000003</v>
+      </c>
+      <c r="O18">
+        <v>40.728000000000002</v>
+      </c>
+      <c r="P18">
+        <v>41.323999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>41.930999999999997</v>
+      </c>
+      <c r="R18">
+        <v>42.546999999999997</v>
+      </c>
+      <c r="S18">
+        <v>43.171999999999997</v>
+      </c>
+      <c r="T18">
+        <v>43.804000000000002</v>
+      </c>
+      <c r="U18">
+        <v>44.441000000000003</v>
+      </c>
+      <c r="V18">
+        <v>45.082000000000001</v>
+      </c>
+      <c r="W18">
+        <v>45.723999999999997</v>
+      </c>
+      <c r="X18">
+        <v>46.369</v>
+      </c>
+      <c r="Y18">
+        <v>47.014000000000003</v>
+      </c>
+      <c r="Z18">
+        <v>47.66</v>
+      </c>
+      <c r="AA18">
+        <v>48.307000000000002</v>
+      </c>
+      <c r="AB18">
+        <v>48.954999999999998</v>
+      </c>
+      <c r="AC18">
+        <v>49.603000000000002</v>
+      </c>
+      <c r="AD18">
+        <v>50.251000000000005</v>
+      </c>
+      <c r="AE18">
+        <v>50.899000000000008</v>
+      </c>
+      <c r="AF18">
+        <v>51.546999999999997</v>
+      </c>
+      <c r="AG18">
+        <v>52.19400000000001</v>
+      </c>
+      <c r="AH18">
+        <v>52.841000000000008</v>
+      </c>
+      <c r="AI18">
+        <v>53.488</v>
+      </c>
+      <c r="AJ18">
+        <v>54.134999999999998</v>
+      </c>
+      <c r="AK18">
+        <v>54.781999999999996</v>
+      </c>
+      <c r="AL18">
+        <v>55.428999999999995</v>
+      </c>
+      <c r="AM18">
+        <v>56.075999999999993</v>
+      </c>
+      <c r="AN18">
+        <v>56.722999999999992</v>
+      </c>
+      <c r="AO18">
+        <v>57.36999999999999</v>
+      </c>
+      <c r="AP18">
+        <v>58.016999999999982</v>
+      </c>
+      <c r="AQ18">
+        <v>58.66399999999998</v>
+      </c>
+      <c r="AR18">
+        <v>59.310999999999979</v>
+      </c>
+      <c r="AS18">
+        <v>59.957999999999977</v>
+      </c>
+      <c r="AT18">
+        <v>60.604999999999976</v>
+      </c>
+      <c r="AU18">
+        <v>61.251999999999974</v>
+      </c>
+      <c r="AV18">
+        <v>61.898999999999972</v>
+      </c>
+      <c r="AW18">
+        <v>62.545999999999971</v>
+      </c>
+      <c r="AX18">
+        <v>63.192999999999969</v>
+      </c>
+      <c r="AY18">
+        <v>63.839999999999961</v>
+      </c>
+      <c r="AZ18">
+        <v>64.486999999999966</v>
+      </c>
+      <c r="BA18">
+        <v>65.133999999999958</v>
+      </c>
+      <c r="BB18">
+        <v>65.780999999999949</v>
+      </c>
+      <c r="BC18">
+        <v>66.427999999999955</v>
+      </c>
+      <c r="BD18">
+        <v>67.074999999999946</v>
+      </c>
+      <c r="BE18">
+        <v>67.721999999999952</v>
+      </c>
+      <c r="BF18">
+        <v>68.368999999999943</v>
+      </c>
+      <c r="BG18">
+        <v>69.015999999999948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>400</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>91.418000000000006</v>
+      </c>
+      <c r="E19">
+        <v>91.626000000000005</v>
+      </c>
+      <c r="F19">
+        <v>91.826999999999998</v>
+      </c>
+      <c r="G19">
+        <v>92.02</v>
+      </c>
+      <c r="H19">
+        <v>92.206000000000003</v>
+      </c>
+      <c r="I19">
+        <v>92.385000000000005</v>
+      </c>
+      <c r="J19">
+        <v>92.558000000000007</v>
+      </c>
+      <c r="K19">
+        <v>92.724000000000004</v>
+      </c>
+      <c r="L19">
+        <v>92.884</v>
+      </c>
+      <c r="M19">
+        <v>93.037999999999997</v>
+      </c>
+      <c r="N19">
+        <v>93.186999999999998</v>
+      </c>
+      <c r="O19">
+        <v>93.33</v>
+      </c>
+      <c r="P19">
+        <v>93.468000000000004</v>
+      </c>
+      <c r="Q19">
+        <v>93.6</v>
+      </c>
+      <c r="R19">
+        <v>93.727999999999994</v>
+      </c>
+      <c r="S19">
+        <v>93.850999999999999</v>
+      </c>
+      <c r="T19">
+        <v>93.968999999999994</v>
+      </c>
+      <c r="U19">
+        <v>94.082999999999998</v>
+      </c>
+      <c r="V19">
+        <v>94.191999999999993</v>
+      </c>
+      <c r="W19">
+        <v>94.296999999999997</v>
+      </c>
+      <c r="X19">
+        <v>94.399000000000001</v>
+      </c>
+      <c r="Y19">
+        <v>94.495999999999995</v>
+      </c>
+      <c r="Z19">
+        <v>94.588999999999999</v>
+      </c>
+      <c r="AA19">
+        <v>94.68</v>
+      </c>
+      <c r="AB19">
+        <v>94.77</v>
+      </c>
+      <c r="AC19">
+        <v>94.858999999999995</v>
+      </c>
+      <c r="AD19">
+        <v>94.947000000000003</v>
+      </c>
+      <c r="AE19">
+        <v>95.031999999999996</v>
+      </c>
+      <c r="AF19">
+        <v>95.117000000000004</v>
+      </c>
+      <c r="AG19">
+        <v>95.2</v>
+      </c>
+      <c r="AH19">
+        <v>95.281999999999996</v>
+      </c>
+      <c r="AI19">
+        <v>95.36399999999999</v>
+      </c>
+      <c r="AJ19">
+        <v>95.445999999999984</v>
+      </c>
+      <c r="AK19">
+        <v>95.527999999999977</v>
+      </c>
+      <c r="AL19">
+        <v>95.609999999999971</v>
+      </c>
+      <c r="AM19">
+        <v>95.691999999999965</v>
+      </c>
+      <c r="AN19">
+        <v>95.773999999999958</v>
+      </c>
+      <c r="AO19">
+        <v>95.855999999999952</v>
+      </c>
+      <c r="AP19">
+        <v>95.937999999999946</v>
+      </c>
+      <c r="AQ19">
+        <v>96.019999999999939</v>
+      </c>
+      <c r="AR19">
+        <v>96.101999999999933</v>
+      </c>
+      <c r="AS19">
+        <v>96.183999999999926</v>
+      </c>
+      <c r="AT19">
+        <v>96.26599999999992</v>
+      </c>
+      <c r="AU19">
+        <v>96.347999999999914</v>
+      </c>
+      <c r="AV19">
+        <v>96.429999999999907</v>
+      </c>
+      <c r="AW19">
+        <v>96.511999999999901</v>
+      </c>
+      <c r="AX19">
+        <v>96.593999999999895</v>
+      </c>
+      <c r="AY19">
+        <v>96.675999999999888</v>
+      </c>
+      <c r="AZ19">
+        <v>96.757999999999882</v>
+      </c>
+      <c r="BA19">
+        <v>96.839999999999876</v>
+      </c>
+      <c r="BB19">
+        <v>96.921999999999869</v>
+      </c>
+      <c r="BC19">
+        <v>97.003999999999863</v>
+      </c>
+      <c r="BD19">
+        <v>97.085999999999856</v>
+      </c>
+      <c r="BE19">
+        <v>97.16799999999985</v>
+      </c>
+      <c r="BF19">
+        <v>97.249999999999829</v>
+      </c>
+      <c r="BG19">
+        <v>97.331999999999823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>404</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>27.995000000000005</v>
+      </c>
+      <c r="E20">
+        <v>28.492999999999995</v>
+      </c>
+      <c r="F20">
+        <v>29.001999999999999</v>
+      </c>
+      <c r="G20">
+        <v>29.520000000000003</v>
+      </c>
+      <c r="H20">
+        <v>30.048999999999999</v>
+      </c>
+      <c r="I20">
+        <v>30.587999999999997</v>
+      </c>
+      <c r="J20">
+        <v>31.136999999999997</v>
+      </c>
+      <c r="K20">
+        <v>31.695</v>
+      </c>
+      <c r="L20">
+        <v>32.262999999999998</v>
+      </c>
+      <c r="M20">
+        <v>32.841000000000001</v>
+      </c>
+      <c r="N20">
+        <v>33.427</v>
+      </c>
+      <c r="O20">
+        <v>34.023000000000003</v>
+      </c>
+      <c r="P20">
+        <v>34.625999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>35.238</v>
+      </c>
+      <c r="R20">
+        <v>35.856000000000002</v>
+      </c>
+      <c r="S20">
+        <v>36.478999999999999</v>
+      </c>
+      <c r="T20">
+        <v>37.106000000000002</v>
+      </c>
+      <c r="U20">
+        <v>37.738999999999997</v>
+      </c>
+      <c r="V20">
+        <v>38.377000000000002</v>
+      </c>
+      <c r="W20">
+        <v>39.018999999999998</v>
+      </c>
+      <c r="X20">
+        <v>39.664000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>40.313000000000002</v>
+      </c>
+      <c r="Z20">
+        <v>40.966000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>41.622</v>
+      </c>
+      <c r="AB20">
+        <v>42.28</v>
+      </c>
+      <c r="AC20">
+        <v>42.942</v>
+      </c>
+      <c r="AD20">
+        <v>43.606000000000002</v>
+      </c>
+      <c r="AE20">
+        <v>44.271999999999998</v>
+      </c>
+      <c r="AF20">
+        <v>44.941000000000003</v>
+      </c>
+      <c r="AG20">
+        <v>45.610999999999997</v>
+      </c>
+      <c r="AH20">
+        <v>46.283000000000001</v>
+      </c>
+      <c r="AI20">
+        <v>46.955000000000005</v>
+      </c>
+      <c r="AJ20">
+        <v>47.627000000000017</v>
+      </c>
+      <c r="AK20">
+        <v>48.299000000000021</v>
+      </c>
+      <c r="AL20">
+        <v>48.971000000000025</v>
+      </c>
+      <c r="AM20">
+        <v>49.643000000000029</v>
+      </c>
+      <c r="AN20">
+        <v>50.31500000000004</v>
+      </c>
+      <c r="AO20">
+        <v>50.987000000000052</v>
+      </c>
+      <c r="AP20">
+        <v>51.659000000000056</v>
+      </c>
+      <c r="AQ20">
+        <v>52.33100000000006</v>
+      </c>
+      <c r="AR20">
+        <v>53.003000000000064</v>
+      </c>
+      <c r="AS20">
+        <v>53.675000000000075</v>
+      </c>
+      <c r="AT20">
+        <v>54.347000000000079</v>
+      </c>
+      <c r="AU20">
+        <v>55.019000000000084</v>
+      </c>
+      <c r="AV20">
+        <v>55.691000000000088</v>
+      </c>
+      <c r="AW20">
+        <v>56.363000000000099</v>
+      </c>
+      <c r="AX20">
+        <v>57.035000000000103</v>
+      </c>
+      <c r="AY20">
+        <v>57.707000000000107</v>
+      </c>
+      <c r="AZ20">
+        <v>58.379000000000111</v>
+      </c>
+      <c r="BA20">
+        <v>59.051000000000123</v>
+      </c>
+      <c r="BB20">
+        <v>59.723000000000127</v>
+      </c>
+      <c r="BC20">
+        <v>60.395000000000131</v>
+      </c>
+      <c r="BD20">
+        <v>61.067000000000135</v>
+      </c>
+      <c r="BE20">
+        <v>61.739000000000146</v>
+      </c>
+      <c r="BF20">
+        <v>62.411000000000151</v>
+      </c>
+      <c r="BG20">
+        <v>63.083000000000155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>430</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>52.088999999999999</v>
+      </c>
+      <c r="E21">
+        <v>52.573</v>
+      </c>
+      <c r="F21">
+        <v>53.064999999999998</v>
+      </c>
+      <c r="G21">
+        <v>53.567</v>
+      </c>
+      <c r="H21">
+        <v>54.076999999999998</v>
+      </c>
+      <c r="I21">
+        <v>54.596000000000004</v>
+      </c>
+      <c r="J21">
+        <v>55.122999999999998</v>
+      </c>
+      <c r="K21">
+        <v>55.657000000000004</v>
+      </c>
+      <c r="L21">
+        <v>56.198999999999998</v>
+      </c>
+      <c r="M21">
+        <v>56.746000000000009</v>
+      </c>
+      <c r="N21">
+        <v>57.3</v>
+      </c>
+      <c r="O21">
+        <v>57.859000000000002</v>
+      </c>
+      <c r="P21">
+        <v>58.423000000000002</v>
+      </c>
+      <c r="Q21">
+        <v>58.989000000000004</v>
+      </c>
+      <c r="R21">
+        <v>59.555999999999997</v>
+      </c>
+      <c r="S21">
+        <v>60.12299999999999</v>
+      </c>
+      <c r="T21">
+        <v>60.687000000000005</v>
+      </c>
+      <c r="U21">
+        <v>61.248000000000005</v>
+      </c>
+      <c r="V21">
+        <v>61.805999999999997</v>
+      </c>
+      <c r="W21">
+        <v>62.360999999999997</v>
+      </c>
+      <c r="X21">
+        <v>62.912999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>63.46200000000001</v>
+      </c>
+      <c r="Z21">
+        <v>64.007000000000005</v>
+      </c>
+      <c r="AA21">
+        <v>64.548000000000002</v>
+      </c>
+      <c r="AB21">
+        <v>65.085999999999999</v>
+      </c>
+      <c r="AC21">
+        <v>65.62</v>
+      </c>
+      <c r="AD21">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="AE21">
+        <v>66.676000000000002</v>
+      </c>
+      <c r="AF21">
+        <v>67.197999999999993</v>
+      </c>
+      <c r="AG21">
+        <v>67.715999999999994</v>
+      </c>
+      <c r="AH21">
+        <v>68.228999999999999</v>
+      </c>
+      <c r="AI21">
+        <v>68.74199999999999</v>
+      </c>
+      <c r="AJ21">
+        <v>69.254999999999995</v>
+      </c>
+      <c r="AK21">
+        <v>69.767999999999986</v>
+      </c>
+      <c r="AL21">
+        <v>70.280999999999977</v>
+      </c>
+      <c r="AM21">
+        <v>70.793999999999983</v>
+      </c>
+      <c r="AN21">
+        <v>71.306999999999974</v>
+      </c>
+      <c r="AO21">
+        <v>71.819999999999979</v>
+      </c>
+      <c r="AP21">
+        <v>72.33299999999997</v>
+      </c>
+      <c r="AQ21">
+        <v>72.845999999999961</v>
+      </c>
+      <c r="AR21">
+        <v>73.358999999999966</v>
+      </c>
+      <c r="AS21">
+        <v>73.871999999999957</v>
+      </c>
+      <c r="AT21">
+        <v>74.384999999999962</v>
+      </c>
+      <c r="AU21">
+        <v>74.897999999999954</v>
+      </c>
+      <c r="AV21">
+        <v>75.410999999999945</v>
+      </c>
+      <c r="AW21">
+        <v>75.92399999999995</v>
+      </c>
+      <c r="AX21">
+        <v>76.436999999999941</v>
+      </c>
+      <c r="AY21">
+        <v>76.949999999999946</v>
+      </c>
+      <c r="AZ21">
+        <v>77.462999999999937</v>
+      </c>
+      <c r="BA21">
+        <v>77.975999999999928</v>
+      </c>
+      <c r="BB21">
+        <v>78.488999999999933</v>
+      </c>
+      <c r="BC21">
+        <v>79.001999999999924</v>
+      </c>
+      <c r="BD21">
+        <v>79.51499999999993</v>
+      </c>
+      <c r="BE21">
+        <v>80.027999999999921</v>
+      </c>
+      <c r="BF21">
+        <v>80.540999999999912</v>
+      </c>
+      <c r="BG21">
+        <v>81.053999999999917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>450</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>38.533999999999999</v>
+      </c>
+      <c r="E22">
+        <v>39.207000000000001</v>
+      </c>
+      <c r="F22">
+        <v>39.881999999999998</v>
+      </c>
+      <c r="G22">
+        <v>40.555999999999997</v>
+      </c>
+      <c r="H22">
+        <v>41.231000000000002</v>
+      </c>
+      <c r="I22">
+        <v>41.904000000000003</v>
+      </c>
+      <c r="J22">
+        <v>42.576999999999998</v>
+      </c>
+      <c r="K22">
+        <v>43.247</v>
+      </c>
+      <c r="L22">
+        <v>43.914999999999999</v>
+      </c>
+      <c r="M22">
+        <v>44.579000000000001</v>
+      </c>
+      <c r="N22">
+        <v>45.24</v>
+      </c>
+      <c r="O22">
+        <v>45.895000000000003</v>
+      </c>
+      <c r="P22">
+        <v>46.543999999999997</v>
+      </c>
+      <c r="Q22">
+        <v>47.185000000000002</v>
+      </c>
+      <c r="R22">
+        <v>47.817</v>
+      </c>
+      <c r="S22">
+        <v>48.451000000000001</v>
+      </c>
+      <c r="T22">
+        <v>49.085999999999999</v>
+      </c>
+      <c r="U22">
+        <v>49.720999999999997</v>
+      </c>
+      <c r="V22">
+        <v>50.356000000000002</v>
+      </c>
+      <c r="W22">
+        <v>50.991</v>
+      </c>
+      <c r="X22">
+        <v>51.625999999999991</v>
+      </c>
+      <c r="Y22">
+        <v>52.26</v>
+      </c>
+      <c r="Z22">
+        <v>52.893999999999998</v>
+      </c>
+      <c r="AA22">
+        <v>53.52600000000001</v>
+      </c>
+      <c r="AB22">
+        <v>54.158000000000008</v>
+      </c>
+      <c r="AC22">
+        <v>54.78799999999999</v>
+      </c>
+      <c r="AD22">
+        <v>55.415999999999997</v>
+      </c>
+      <c r="AE22">
+        <v>56.042999999999999</v>
+      </c>
+      <c r="AF22">
+        <v>56.667999999999999</v>
+      </c>
+      <c r="AG22">
+        <v>57.29099999999999</v>
+      </c>
+      <c r="AH22">
+        <v>57.911000000000001</v>
+      </c>
+      <c r="AI22">
+        <v>58.531000000000013</v>
+      </c>
+      <c r="AJ22">
+        <v>59.151000000000018</v>
+      </c>
+      <c r="AK22">
+        <v>59.771000000000029</v>
+      </c>
+      <c r="AL22">
+        <v>60.391000000000041</v>
+      </c>
+      <c r="AM22">
+        <v>61.011000000000045</v>
+      </c>
+      <c r="AN22">
+        <v>61.631000000000057</v>
+      </c>
+      <c r="AO22">
+        <v>62.251000000000069</v>
+      </c>
+      <c r="AP22">
+        <v>62.87100000000008</v>
+      </c>
+      <c r="AQ22">
+        <v>63.491000000000085</v>
+      </c>
+      <c r="AR22">
+        <v>64.111000000000089</v>
+      </c>
+      <c r="AS22">
+        <v>64.731000000000108</v>
+      </c>
+      <c r="AT22">
+        <v>65.351000000000113</v>
+      </c>
+      <c r="AU22">
+        <v>65.971000000000117</v>
+      </c>
+      <c r="AV22">
+        <v>66.591000000000136</v>
+      </c>
+      <c r="AW22">
+        <v>67.211000000000141</v>
+      </c>
+      <c r="AX22">
+        <v>67.831000000000159</v>
+      </c>
+      <c r="AY22">
+        <v>68.451000000000164</v>
+      </c>
+      <c r="AZ22">
+        <v>69.071000000000168</v>
+      </c>
+      <c r="BA22">
+        <v>69.691000000000187</v>
+      </c>
+      <c r="BB22">
+        <v>70.311000000000192</v>
+      </c>
+      <c r="BC22">
+        <v>70.931000000000196</v>
+      </c>
+      <c r="BD22">
+        <v>71.551000000000215</v>
+      </c>
+      <c r="BE22">
+        <v>72.17100000000022</v>
+      </c>
+      <c r="BF22">
+        <v>72.791000000000224</v>
+      </c>
+      <c r="BG22">
+        <v>73.411000000000243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>454</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>17.427</v>
+      </c>
+      <c r="E23">
+        <v>17.695</v>
+      </c>
+      <c r="F23">
+        <v>17.98</v>
+      </c>
+      <c r="G23">
+        <v>18.28</v>
+      </c>
+      <c r="H23">
+        <v>18.597999999999999</v>
+      </c>
+      <c r="I23">
+        <v>18.933</v>
+      </c>
+      <c r="J23">
+        <v>19.286000000000001</v>
+      </c>
+      <c r="K23">
+        <v>19.658000000000001</v>
+      </c>
+      <c r="L23">
+        <v>20.047999999999998</v>
+      </c>
+      <c r="M23">
+        <v>20.457000000000001</v>
+      </c>
+      <c r="N23">
+        <v>20.885999999999999</v>
+      </c>
+      <c r="O23">
+        <v>21.335000000000001</v>
+      </c>
+      <c r="P23">
+        <v>21.803999999999998</v>
+      </c>
+      <c r="Q23">
+        <v>22.292999999999999</v>
+      </c>
+      <c r="R23">
+        <v>22.802</v>
+      </c>
+      <c r="S23">
+        <v>23.32</v>
+      </c>
+      <c r="T23">
+        <v>23.847000000000001</v>
+      </c>
+      <c r="U23">
+        <v>24.381</v>
+      </c>
+      <c r="V23">
+        <v>24.923999999999999</v>
+      </c>
+      <c r="W23">
+        <v>25.474000000000004</v>
+      </c>
+      <c r="X23">
+        <v>26.033000000000001</v>
+      </c>
+      <c r="Y23">
+        <v>26.599</v>
+      </c>
+      <c r="Z23">
+        <v>27.172999999999998</v>
+      </c>
+      <c r="AA23">
+        <v>27.754999999999995</v>
+      </c>
+      <c r="AB23">
+        <v>28.344999999999999</v>
+      </c>
+      <c r="AC23">
+        <v>28.942</v>
+      </c>
+      <c r="AD23">
+        <v>29.545999999999999</v>
+      </c>
+      <c r="AE23">
+        <v>30.158000000000001</v>
+      </c>
+      <c r="AF23">
+        <v>30.776999999999997</v>
+      </c>
+      <c r="AG23">
+        <v>31.402000000000001</v>
+      </c>
+      <c r="AH23">
+        <v>32.034999999999997</v>
+      </c>
+      <c r="AI23">
+        <v>32.667999999999992</v>
+      </c>
+      <c r="AJ23">
+        <v>33.300999999999988</v>
+      </c>
+      <c r="AK23">
+        <v>33.933999999999983</v>
+      </c>
+      <c r="AL23">
+        <v>34.566999999999979</v>
+      </c>
+      <c r="AM23">
+        <v>35.199999999999967</v>
+      </c>
+      <c r="AN23">
+        <v>35.832999999999963</v>
+      </c>
+      <c r="AO23">
+        <v>36.465999999999958</v>
+      </c>
+      <c r="AP23">
+        <v>37.098999999999954</v>
+      </c>
+      <c r="AQ23">
+        <v>37.73199999999995</v>
+      </c>
+      <c r="AR23">
+        <v>38.364999999999945</v>
+      </c>
+      <c r="AS23">
+        <v>38.997999999999941</v>
+      </c>
+      <c r="AT23">
+        <v>39.630999999999936</v>
+      </c>
+      <c r="AU23">
+        <v>40.263999999999925</v>
+      </c>
+      <c r="AV23">
+        <v>40.89699999999992</v>
+      </c>
+      <c r="AW23">
+        <v>41.529999999999916</v>
+      </c>
+      <c r="AX23">
+        <v>42.162999999999911</v>
+      </c>
+      <c r="AY23">
+        <v>42.795999999999907</v>
+      </c>
+      <c r="AZ23">
+        <v>43.428999999999903</v>
+      </c>
+      <c r="BA23">
+        <v>44.061999999999898</v>
+      </c>
+      <c r="BB23">
+        <v>44.694999999999894</v>
+      </c>
+      <c r="BC23">
+        <v>45.327999999999882</v>
+      </c>
+      <c r="BD23">
+        <v>45.960999999999878</v>
+      </c>
+      <c r="BE23">
+        <v>46.593999999999873</v>
+      </c>
+      <c r="BF23">
+        <v>47.226999999999869</v>
+      </c>
+      <c r="BG23">
+        <v>47.859999999999864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>466</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>43.908999999999999</v>
+      </c>
+      <c r="E24">
+        <v>44.677</v>
+      </c>
+      <c r="F24">
+        <v>45.436999999999998</v>
+      </c>
+      <c r="G24">
+        <v>46.189</v>
+      </c>
+      <c r="H24">
+        <v>46.933999999999997</v>
+      </c>
+      <c r="I24">
+        <v>47.668999999999997</v>
+      </c>
+      <c r="J24">
+        <v>48.395000000000003</v>
+      </c>
+      <c r="K24">
+        <v>49.11</v>
+      </c>
+      <c r="L24">
+        <v>49.814</v>
+      </c>
+      <c r="M24">
+        <v>50.507000000000005</v>
+      </c>
+      <c r="N24">
+        <v>51.186999999999991</v>
+      </c>
+      <c r="O24">
+        <v>51.854999999999997</v>
+      </c>
+      <c r="P24">
+        <v>52.507999999999996</v>
+      </c>
+      <c r="Q24">
+        <v>53.146999999999998</v>
+      </c>
+      <c r="R24">
+        <v>53.768999999999998</v>
+      </c>
+      <c r="S24">
+        <v>54.372</v>
+      </c>
+      <c r="T24">
+        <v>54.976999999999997</v>
+      </c>
+      <c r="U24">
+        <v>55.58</v>
+      </c>
+      <c r="V24">
+        <v>56.18099999999999</v>
+      </c>
+      <c r="W24">
+        <v>56.781000000000006</v>
+      </c>
+      <c r="X24">
+        <v>57.377999999999993</v>
+      </c>
+      <c r="Y24">
+        <v>57.97399999999999</v>
+      </c>
+      <c r="Z24">
+        <v>58.567</v>
+      </c>
+      <c r="AA24">
+        <v>59.158000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>59.746000000000002</v>
+      </c>
+      <c r="AC24">
+        <v>60.331000000000003</v>
+      </c>
+      <c r="AD24">
+        <v>60.912999999999997</v>
+      </c>
+      <c r="AE24">
+        <v>61.492000000000004</v>
+      </c>
+      <c r="AF24">
+        <v>62.067999999999998</v>
+      </c>
+      <c r="AG24">
+        <v>62.641000000000005</v>
+      </c>
+      <c r="AH24">
+        <v>63.21</v>
+      </c>
+      <c r="AI24">
+        <v>63.778999999999996</v>
+      </c>
+      <c r="AJ24">
+        <v>64.347999999999999</v>
+      </c>
+      <c r="AK24">
+        <v>64.916999999999987</v>
+      </c>
+      <c r="AL24">
+        <v>65.48599999999999</v>
+      </c>
+      <c r="AM24">
+        <v>66.054999999999993</v>
+      </c>
+      <c r="AN24">
+        <v>66.623999999999981</v>
+      </c>
+      <c r="AO24">
+        <v>67.192999999999984</v>
+      </c>
+      <c r="AP24">
+        <v>67.761999999999972</v>
+      </c>
+      <c r="AQ24">
+        <v>68.330999999999975</v>
+      </c>
+      <c r="AR24">
+        <v>68.899999999999977</v>
+      </c>
+      <c r="AS24">
+        <v>69.468999999999966</v>
+      </c>
+      <c r="AT24">
+        <v>70.037999999999968</v>
+      </c>
+      <c r="AU24">
+        <v>70.606999999999971</v>
+      </c>
+      <c r="AV24">
+        <v>71.175999999999959</v>
+      </c>
+      <c r="AW24">
+        <v>71.744999999999962</v>
+      </c>
+      <c r="AX24">
+        <v>72.31399999999995</v>
+      </c>
+      <c r="AY24">
+        <v>72.882999999999953</v>
+      </c>
+      <c r="AZ24">
+        <v>73.451999999999956</v>
+      </c>
+      <c r="BA24">
+        <v>74.020999999999944</v>
+      </c>
+      <c r="BB24">
+        <v>74.589999999999947</v>
+      </c>
+      <c r="BC24">
+        <v>75.158999999999949</v>
+      </c>
+      <c r="BD24">
+        <v>75.727999999999938</v>
+      </c>
+      <c r="BE24">
+        <v>76.29699999999994</v>
+      </c>
+      <c r="BF24">
+        <v>76.865999999999929</v>
+      </c>
+      <c r="BG24">
+        <v>77.434999999999931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>478</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>55.326999999999991</v>
+      </c>
+      <c r="E25">
+        <v>56.133000000000003</v>
+      </c>
+      <c r="F25">
+        <v>56.923000000000002</v>
+      </c>
+      <c r="G25">
+        <v>57.698999999999998</v>
+      </c>
+      <c r="H25">
+        <v>58.457999999999998</v>
+      </c>
+      <c r="I25">
+        <v>59.201000000000001</v>
+      </c>
+      <c r="J25">
+        <v>59.927</v>
+      </c>
+      <c r="K25">
+        <v>60.636999999999993</v>
+      </c>
+      <c r="L25">
+        <v>61.329000000000001</v>
+      </c>
+      <c r="M25">
+        <v>62.003999999999991</v>
+      </c>
+      <c r="N25">
+        <v>62.661999999999992</v>
+      </c>
+      <c r="O25">
+        <v>63.302</v>
+      </c>
+      <c r="P25">
+        <v>63.924000000000007</v>
+      </c>
+      <c r="Q25">
+        <v>64.528000000000006</v>
+      </c>
+      <c r="R25">
+        <v>65.113</v>
+      </c>
+      <c r="S25">
+        <v>65.680000000000007</v>
+      </c>
+      <c r="T25">
+        <v>66.227999999999994</v>
+      </c>
+      <c r="U25">
+        <v>66.756</v>
+      </c>
+      <c r="V25">
+        <v>67.265000000000001</v>
+      </c>
+      <c r="W25">
+        <v>67.753</v>
+      </c>
+      <c r="X25">
+        <v>68.238</v>
+      </c>
+      <c r="Y25">
+        <v>68.718999999999994</v>
+      </c>
+      <c r="Z25">
+        <v>69.197000000000003</v>
+      </c>
+      <c r="AA25">
+        <v>69.67</v>
+      </c>
+      <c r="AB25">
+        <v>70.138999999999996</v>
+      </c>
+      <c r="AC25">
+        <v>70.603999999999999</v>
+      </c>
+      <c r="AD25">
+        <v>71.064999999999998</v>
+      </c>
+      <c r="AE25">
+        <v>71.521000000000001</v>
+      </c>
+      <c r="AF25">
+        <v>71.972999999999999</v>
+      </c>
+      <c r="AG25">
+        <v>72.421000000000006</v>
+      </c>
+      <c r="AH25">
+        <v>72.864000000000004</v>
+      </c>
+      <c r="AI25">
+        <v>73.307000000000016</v>
+      </c>
+      <c r="AJ25">
+        <v>73.750000000000014</v>
+      </c>
+      <c r="AK25">
+        <v>74.193000000000026</v>
+      </c>
+      <c r="AL25">
+        <v>74.636000000000024</v>
+      </c>
+      <c r="AM25">
+        <v>75.079000000000036</v>
+      </c>
+      <c r="AN25">
+        <v>75.522000000000034</v>
+      </c>
+      <c r="AO25">
+        <v>75.965000000000032</v>
+      </c>
+      <c r="AP25">
+        <v>76.408000000000044</v>
+      </c>
+      <c r="AQ25">
+        <v>76.851000000000042</v>
+      </c>
+      <c r="AR25">
+        <v>77.294000000000054</v>
+      </c>
+      <c r="AS25">
+        <v>77.737000000000052</v>
+      </c>
+      <c r="AT25">
+        <v>78.180000000000064</v>
+      </c>
+      <c r="AU25">
+        <v>78.623000000000062</v>
+      </c>
+      <c r="AV25">
+        <v>79.066000000000074</v>
+      </c>
+      <c r="AW25">
+        <v>79.509000000000071</v>
+      </c>
+      <c r="AX25">
+        <v>79.952000000000083</v>
+      </c>
+      <c r="AY25">
+        <v>80.395000000000081</v>
+      </c>
+      <c r="AZ25">
+        <v>80.838000000000093</v>
+      </c>
+      <c r="BA25">
+        <v>81.281000000000091</v>
+      </c>
+      <c r="BB25">
+        <v>81.724000000000103</v>
+      </c>
+      <c r="BC25">
+        <v>82.167000000000101</v>
+      </c>
+      <c r="BD25">
+        <v>82.610000000000099</v>
+      </c>
+      <c r="BE25">
+        <v>83.053000000000111</v>
+      </c>
+      <c r="BF25">
+        <v>83.496000000000109</v>
+      </c>
+      <c r="BG25">
+        <v>83.939000000000121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>508</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>37.073999999999998</v>
+      </c>
+      <c r="E26">
+        <v>37.628</v>
+      </c>
+      <c r="F26">
+        <v>38.186999999999998</v>
+      </c>
+      <c r="G26">
+        <v>38.753</v>
+      </c>
+      <c r="H26">
+        <v>39.326000000000001</v>
+      </c>
+      <c r="I26">
+        <v>39.904000000000003</v>
+      </c>
+      <c r="J26">
+        <v>40.487000000000002</v>
+      </c>
+      <c r="K26">
+        <v>41.076000000000001</v>
+      </c>
+      <c r="L26">
+        <v>41.670999999999999</v>
+      </c>
+      <c r="M26">
+        <v>42.27</v>
+      </c>
+      <c r="N26">
+        <v>42.874000000000002</v>
+      </c>
+      <c r="O26">
+        <v>43.482999999999997</v>
+      </c>
+      <c r="P26">
+        <v>44.094999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>44.710999999999999</v>
+      </c>
+      <c r="R26">
+        <v>45.33</v>
+      </c>
+      <c r="S26">
+        <v>45.953000000000003</v>
+      </c>
+      <c r="T26">
+        <v>46.576999999999998</v>
+      </c>
+      <c r="U26">
+        <v>47.204000000000001</v>
+      </c>
+      <c r="V26">
+        <v>47.832000000000001</v>
+      </c>
+      <c r="W26">
+        <v>48.460999999999999</v>
+      </c>
+      <c r="X26">
+        <v>49.09</v>
+      </c>
+      <c r="Y26">
+        <v>49.718000000000004</v>
+      </c>
+      <c r="Z26">
+        <v>50.344000000000001</v>
+      </c>
+      <c r="AA26">
+        <v>50.968000000000004</v>
+      </c>
+      <c r="AB26">
+        <v>51.585999999999999</v>
+      </c>
+      <c r="AC26">
+        <v>52.204999999999998</v>
+      </c>
+      <c r="AD26">
+        <v>52.823999999999991</v>
+      </c>
+      <c r="AE26">
+        <v>53.442</v>
+      </c>
+      <c r="AF26">
+        <v>54.059000000000005</v>
+      </c>
+      <c r="AG26">
+        <v>54.674999999999997</v>
+      </c>
+      <c r="AH26">
+        <v>55.289999999999992</v>
+      </c>
+      <c r="AI26">
+        <v>55.904999999999994</v>
+      </c>
+      <c r="AJ26">
+        <v>56.519999999999996</v>
+      </c>
+      <c r="AK26">
+        <v>57.134999999999991</v>
+      </c>
+      <c r="AL26">
+        <v>57.749999999999993</v>
+      </c>
+      <c r="AM26">
+        <v>58.364999999999988</v>
+      </c>
+      <c r="AN26">
+        <v>58.97999999999999</v>
+      </c>
+      <c r="AO26">
+        <v>59.594999999999985</v>
+      </c>
+      <c r="AP26">
+        <v>60.209999999999987</v>
+      </c>
+      <c r="AQ26">
+        <v>60.824999999999982</v>
+      </c>
+      <c r="AR26">
+        <v>61.439999999999984</v>
+      </c>
+      <c r="AS26">
+        <v>62.054999999999986</v>
+      </c>
+      <c r="AT26">
+        <v>62.66999999999998</v>
+      </c>
+      <c r="AU26">
+        <v>63.284999999999982</v>
+      </c>
+      <c r="AV26">
+        <v>63.899999999999977</v>
+      </c>
+      <c r="AW26">
+        <v>64.514999999999972</v>
+      </c>
+      <c r="AX26">
+        <v>65.129999999999981</v>
+      </c>
+      <c r="AY26">
+        <v>65.744999999999976</v>
+      </c>
+      <c r="AZ26">
+        <v>66.359999999999971</v>
+      </c>
+      <c r="BA26">
+        <v>66.97499999999998</v>
+      </c>
+      <c r="BB26">
+        <v>67.589999999999975</v>
+      </c>
+      <c r="BC26">
+        <v>68.20499999999997</v>
+      </c>
+      <c r="BD26">
+        <v>68.819999999999965</v>
+      </c>
+      <c r="BE26">
+        <v>69.434999999999974</v>
+      </c>
+      <c r="BF26">
+        <v>70.049999999999969</v>
+      </c>
+      <c r="BG26">
+        <v>70.664999999999964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>524</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27">
+        <v>20.576000000000001</v>
+      </c>
+      <c r="E27">
+        <v>21.007999999999999</v>
+      </c>
+      <c r="F27">
+        <v>21.451000000000001</v>
+      </c>
+      <c r="G27">
+        <v>21.902999999999999</v>
+      </c>
+      <c r="H27">
+        <v>22.366</v>
+      </c>
+      <c r="I27">
+        <v>22.838000000000001</v>
+      </c>
+      <c r="J27">
+        <v>23.32</v>
+      </c>
+      <c r="K27">
+        <v>23.812999999999999</v>
+      </c>
+      <c r="L27">
+        <v>24.315000000000001</v>
+      </c>
+      <c r="M27">
+        <v>24.827999999999999</v>
+      </c>
+      <c r="N27">
+        <v>25.35</v>
+      </c>
+      <c r="O27">
+        <v>25.881999999999998</v>
+      </c>
+      <c r="P27">
+        <v>26.422999999999995</v>
+      </c>
+      <c r="Q27">
+        <v>26.972999999999995</v>
+      </c>
+      <c r="R27">
+        <v>27.532</v>
+      </c>
+      <c r="S27">
+        <v>28.099</v>
+      </c>
+      <c r="T27">
+        <v>28.672999999999998</v>
+      </c>
+      <c r="U27">
+        <v>29.251999999999999</v>
+      </c>
+      <c r="V27">
+        <v>29.84</v>
+      </c>
+      <c r="W27">
+        <v>30.435000000000002</v>
+      </c>
+      <c r="X27">
+        <v>31.036000000000001</v>
+      </c>
+      <c r="Y27">
+        <v>31.643000000000001</v>
+      </c>
+      <c r="Z27">
+        <v>32.258000000000003</v>
+      </c>
+      <c r="AA27">
+        <v>32.878</v>
+      </c>
+      <c r="AB27">
+        <v>33.503999999999998</v>
+      </c>
+      <c r="AC27">
+        <v>34.136000000000003</v>
+      </c>
+      <c r="AD27">
+        <v>34.774000000000001</v>
+      </c>
+      <c r="AE27">
+        <v>35.417000000000002</v>
+      </c>
+      <c r="AF27">
+        <v>36.066000000000003</v>
+      </c>
+      <c r="AG27">
+        <v>36.72</v>
+      </c>
+      <c r="AH27">
+        <v>37.378</v>
+      </c>
+      <c r="AI27">
+        <v>38.036000000000001</v>
+      </c>
+      <c r="AJ27">
+        <v>38.694000000000003</v>
+      </c>
+      <c r="AK27">
+        <v>39.352000000000011</v>
+      </c>
+      <c r="AL27">
+        <v>40.010000000000012</v>
+      </c>
+      <c r="AM27">
+        <v>40.668000000000013</v>
+      </c>
+      <c r="AN27">
+        <v>41.326000000000022</v>
+      </c>
+      <c r="AO27">
+        <v>41.984000000000023</v>
+      </c>
+      <c r="AP27">
+        <v>42.642000000000024</v>
+      </c>
+      <c r="AQ27">
+        <v>43.300000000000026</v>
+      </c>
+      <c r="AR27">
+        <v>43.958000000000027</v>
+      </c>
+      <c r="AS27">
+        <v>44.616000000000035</v>
+      </c>
+      <c r="AT27">
+        <v>45.274000000000036</v>
+      </c>
+      <c r="AU27">
+        <v>45.932000000000038</v>
+      </c>
+      <c r="AV27">
+        <v>46.590000000000046</v>
+      </c>
+      <c r="AW27">
+        <v>47.248000000000047</v>
+      </c>
+      <c r="AX27">
+        <v>47.906000000000049</v>
+      </c>
+      <c r="AY27">
+        <v>48.56400000000005</v>
+      </c>
+      <c r="AZ27">
+        <v>49.222000000000051</v>
+      </c>
+      <c r="BA27">
+        <v>49.880000000000059</v>
+      </c>
+      <c r="BB27">
+        <v>50.538000000000061</v>
+      </c>
+      <c r="BC27">
+        <v>51.196000000000062</v>
+      </c>
+      <c r="BD27">
+        <v>51.85400000000007</v>
+      </c>
+      <c r="BE27">
+        <v>52.512000000000072</v>
+      </c>
+      <c r="BF27">
+        <v>53.170000000000073</v>
+      </c>
+      <c r="BG27">
+        <v>53.828000000000074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>562</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>16.626000000000001</v>
+      </c>
+      <c r="E28">
+        <v>16.751000000000001</v>
+      </c>
+      <c r="F28">
+        <v>16.893999999999998</v>
+      </c>
+      <c r="G28">
+        <v>17.053999999999998</v>
+      </c>
+      <c r="H28">
+        <v>17.231999999999999</v>
+      </c>
+      <c r="I28">
+        <v>17.428000000000001</v>
+      </c>
+      <c r="J28">
+        <v>17.641999999999999</v>
+      </c>
+      <c r="K28">
+        <v>17.875</v>
+      </c>
+      <c r="L28">
+        <v>18.128</v>
+      </c>
+      <c r="M28">
+        <v>18.401</v>
+      </c>
+      <c r="N28">
+        <v>18.695</v>
+      </c>
+      <c r="O28">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="P28">
+        <v>19.346</v>
+      </c>
+      <c r="Q28">
+        <v>19.704999999999998</v>
+      </c>
+      <c r="R28">
+        <v>20.087</v>
+      </c>
+      <c r="S28">
+        <v>20.492000000000001</v>
+      </c>
+      <c r="T28">
+        <v>20.920999999999999</v>
+      </c>
+      <c r="U28">
+        <v>21.375</v>
+      </c>
+      <c r="V28">
+        <v>21.853000000000002</v>
+      </c>
+      <c r="W28">
+        <v>22.356000000000002</v>
+      </c>
+      <c r="X28">
+        <v>22.867999999999999</v>
+      </c>
+      <c r="Y28">
+        <v>23.388999999999999</v>
+      </c>
+      <c r="Z28">
+        <v>23.917000000000002</v>
+      </c>
+      <c r="AA28">
+        <v>24.454000000000001</v>
+      </c>
+      <c r="AB28">
+        <v>24.998999999999999</v>
+      </c>
+      <c r="AC28">
+        <v>25.551999999999996</v>
+      </c>
+      <c r="AD28">
+        <v>26.112999999999996</v>
+      </c>
+      <c r="AE28">
+        <v>26.681999999999999</v>
+      </c>
+      <c r="AF28">
+        <v>27.257999999999999</v>
+      </c>
+      <c r="AG28">
+        <v>27.841999999999999</v>
+      </c>
+      <c r="AH28">
+        <v>28.434000000000005</v>
+      </c>
+      <c r="AI28">
+        <v>29.026000000000007</v>
+      </c>
+      <c r="AJ28">
+        <v>29.618000000000009</v>
+      </c>
+      <c r="AK28">
+        <v>30.210000000000015</v>
+      </c>
+      <c r="AL28">
+        <v>30.802000000000017</v>
+      </c>
+      <c r="AM28">
+        <v>31.394000000000023</v>
+      </c>
+      <c r="AN28">
+        <v>31.986000000000026</v>
+      </c>
+      <c r="AO28">
+        <v>32.578000000000031</v>
+      </c>
+      <c r="AP28">
+        <v>33.17000000000003</v>
+      </c>
+      <c r="AQ28">
+        <v>33.762000000000036</v>
+      </c>
+      <c r="AR28">
+        <v>34.354000000000042</v>
+      </c>
+      <c r="AS28">
+        <v>34.946000000000041</v>
+      </c>
+      <c r="AT28">
+        <v>35.538000000000046</v>
+      </c>
+      <c r="AU28">
+        <v>36.130000000000052</v>
+      </c>
+      <c r="AV28">
+        <v>36.722000000000051</v>
+      </c>
+      <c r="AW28">
+        <v>37.314000000000057</v>
+      </c>
+      <c r="AX28">
+        <v>37.906000000000063</v>
+      </c>
+      <c r="AY28">
+        <v>38.498000000000069</v>
+      </c>
+      <c r="AZ28">
+        <v>39.090000000000067</v>
+      </c>
+      <c r="BA28">
+        <v>39.682000000000073</v>
+      </c>
+      <c r="BB28">
+        <v>40.274000000000079</v>
+      </c>
+      <c r="BC28">
+        <v>40.866000000000078</v>
+      </c>
+      <c r="BD28">
+        <v>41.458000000000084</v>
+      </c>
+      <c r="BE28">
+        <v>42.05000000000009</v>
+      </c>
+      <c r="BF28">
+        <v>42.642000000000088</v>
+      </c>
+      <c r="BG28">
+        <v>43.234000000000094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>566</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>51.957999999999991</v>
+      </c>
+      <c r="E29">
+        <v>52.746000000000002</v>
+      </c>
+      <c r="F29">
+        <v>53.520999999999994</v>
+      </c>
+      <c r="G29">
+        <v>54.283000000000001</v>
+      </c>
+      <c r="H29">
+        <v>55.03</v>
+      </c>
+      <c r="I29">
+        <v>55.762</v>
+      </c>
+      <c r="J29">
+        <v>56.48</v>
+      </c>
+      <c r="K29">
+        <v>57.18099999999999</v>
+      </c>
+      <c r="L29">
+        <v>57.867000000000004</v>
+      </c>
+      <c r="M29">
+        <v>58.536999999999992</v>
+      </c>
+      <c r="N29">
+        <v>59.189</v>
+      </c>
+      <c r="O29">
+        <v>59.825000000000003</v>
+      </c>
+      <c r="P29">
+        <v>60.443000000000005</v>
+      </c>
+      <c r="Q29">
+        <v>61.041999999999994</v>
+      </c>
+      <c r="R29">
+        <v>61.622999999999998</v>
+      </c>
+      <c r="S29">
+        <v>62.183999999999997</v>
+      </c>
+      <c r="T29">
+        <v>62.724000000000004</v>
+      </c>
+      <c r="U29">
+        <v>63.261999999999993</v>
+      </c>
+      <c r="V29">
+        <v>63.79699999999999</v>
+      </c>
+      <c r="W29">
+        <v>64.328000000000003</v>
+      </c>
+      <c r="X29">
+        <v>64.855999999999995</v>
+      </c>
+      <c r="Y29">
+        <v>65.381</v>
+      </c>
+      <c r="Z29">
+        <v>65.902000000000001</v>
+      </c>
+      <c r="AA29">
+        <v>66.418999999999997</v>
+      </c>
+      <c r="AB29">
+        <v>66.932000000000002</v>
+      </c>
+      <c r="AC29">
+        <v>67.441000000000003</v>
+      </c>
+      <c r="AD29">
+        <v>67.945999999999998</v>
+      </c>
+      <c r="AE29">
+        <v>68.445999999999998</v>
+      </c>
+      <c r="AF29">
+        <v>68.942999999999998</v>
+      </c>
+      <c r="AG29">
+        <v>69.435000000000002</v>
+      </c>
+      <c r="AH29">
+        <v>69.923000000000002</v>
+      </c>
+      <c r="AI29">
+        <v>70.411000000000001</v>
+      </c>
+      <c r="AJ29">
+        <v>70.899000000000001</v>
+      </c>
+      <c r="AK29">
+        <v>71.387</v>
+      </c>
+      <c r="AL29">
+        <v>71.875</v>
+      </c>
+      <c r="AM29">
+        <v>72.363</v>
+      </c>
+      <c r="AN29">
+        <v>72.850999999999999</v>
+      </c>
+      <c r="AO29">
+        <v>73.338999999999999</v>
+      </c>
+      <c r="AP29">
+        <v>73.826999999999998</v>
+      </c>
+      <c r="AQ29">
+        <v>74.314999999999998</v>
+      </c>
+      <c r="AR29">
+        <v>74.802999999999997</v>
+      </c>
+      <c r="AS29">
+        <v>75.290999999999997</v>
+      </c>
+      <c r="AT29">
+        <v>75.778999999999996</v>
+      </c>
+      <c r="AU29">
+        <v>76.266999999999996</v>
+      </c>
+      <c r="AV29">
+        <v>76.754999999999995</v>
+      </c>
+      <c r="AW29">
+        <v>77.242999999999995</v>
+      </c>
+      <c r="AX29">
+        <v>77.730999999999995</v>
+      </c>
+      <c r="AY29">
+        <v>78.218999999999994</v>
+      </c>
+      <c r="AZ29">
+        <v>78.706999999999994</v>
+      </c>
+      <c r="BA29">
+        <v>79.194999999999993</v>
+      </c>
+      <c r="BB29">
+        <v>79.682999999999993</v>
+      </c>
+      <c r="BC29">
+        <v>80.170999999999992</v>
+      </c>
+      <c r="BD29">
+        <v>80.658999999999992</v>
+      </c>
+      <c r="BE29">
+        <v>81.146999999999991</v>
+      </c>
+      <c r="BF29">
+        <v>81.634999999999991</v>
+      </c>
+      <c r="BG29">
+        <v>82.12299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>586</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>37.164999999999999</v>
+      </c>
+      <c r="E30">
+        <v>37.44</v>
+      </c>
+      <c r="F30">
+        <v>37.731000000000002</v>
+      </c>
+      <c r="G30">
+        <v>38.04</v>
+      </c>
+      <c r="H30">
+        <v>38.365000000000002</v>
+      </c>
+      <c r="I30">
+        <v>38.707999999999998</v>
+      </c>
+      <c r="J30">
+        <v>39.067999999999998</v>
+      </c>
+      <c r="K30">
+        <v>39.445</v>
+      </c>
+      <c r="L30">
+        <v>39.838999999999999</v>
+      </c>
+      <c r="M30">
+        <v>40.250999999999998</v>
+      </c>
+      <c r="N30">
+        <v>40.68</v>
+      </c>
+      <c r="O30">
+        <v>41.125999999999998</v>
+      </c>
+      <c r="P30">
+        <v>41.588999999999999</v>
+      </c>
+      <c r="Q30">
+        <v>42.07</v>
+      </c>
+      <c r="R30">
+        <v>42.567</v>
+      </c>
+      <c r="S30">
+        <v>43.082000000000001</v>
+      </c>
+      <c r="T30">
+        <v>43.613</v>
+      </c>
+      <c r="U30">
+        <v>44.16</v>
+      </c>
+      <c r="V30">
+        <v>44.723999999999997</v>
+      </c>
+      <c r="W30">
+        <v>45.302999999999997</v>
+      </c>
+      <c r="X30">
+        <v>45.896999999999998</v>
+      </c>
+      <c r="Y30">
+        <v>46.505000000000003</v>
+      </c>
+      <c r="Z30">
+        <v>47.125999999999998</v>
+      </c>
+      <c r="AA30">
+        <v>47.756999999999998</v>
+      </c>
+      <c r="AB30">
+        <v>48.392000000000003</v>
+      </c>
+      <c r="AC30">
+        <v>49.027000000000001</v>
+      </c>
+      <c r="AD30">
+        <v>49.661999999999999</v>
+      </c>
+      <c r="AE30">
+        <v>50.29699999999999</v>
+      </c>
+      <c r="AF30">
+        <v>50.932000000000002</v>
+      </c>
+      <c r="AG30">
+        <v>51.566999999999993</v>
+      </c>
+      <c r="AH30">
+        <v>52.201999999999991</v>
+      </c>
+      <c r="AI30">
+        <v>52.836999999999989</v>
+      </c>
+      <c r="AJ30">
+        <v>53.471999999999987</v>
+      </c>
+      <c r="AK30">
+        <v>54.106999999999985</v>
+      </c>
+      <c r="AL30">
+        <v>54.741999999999976</v>
+      </c>
+      <c r="AM30">
+        <v>55.376999999999974</v>
+      </c>
+      <c r="AN30">
+        <v>56.011999999999972</v>
+      </c>
+      <c r="AO30">
+        <v>56.64699999999997</v>
+      </c>
+      <c r="AP30">
+        <v>57.281999999999968</v>
+      </c>
+      <c r="AQ30">
+        <v>57.916999999999966</v>
+      </c>
+      <c r="AR30">
+        <v>58.551999999999957</v>
+      </c>
+      <c r="AS30">
+        <v>59.186999999999955</v>
+      </c>
+      <c r="AT30">
+        <v>59.821999999999953</v>
+      </c>
+      <c r="AU30">
+        <v>60.456999999999951</v>
+      </c>
+      <c r="AV30">
+        <v>61.091999999999949</v>
+      </c>
+      <c r="AW30">
+        <v>61.72699999999994</v>
+      </c>
+      <c r="AX30">
+        <v>62.361999999999938</v>
+      </c>
+      <c r="AY30">
+        <v>62.996999999999936</v>
+      </c>
+      <c r="AZ30">
+        <v>63.631999999999934</v>
+      </c>
+      <c r="BA30">
+        <v>64.266999999999925</v>
+      </c>
+      <c r="BB30">
+        <v>64.90199999999993</v>
+      </c>
+      <c r="BC30">
+        <v>65.536999999999921</v>
+      </c>
+      <c r="BD30">
+        <v>66.171999999999926</v>
+      </c>
+      <c r="BE30">
+        <v>66.806999999999917</v>
+      </c>
+      <c r="BF30">
+        <v>67.441999999999908</v>
+      </c>
+      <c r="BG30">
+        <v>68.076999999999913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>608</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>47.408000000000001</v>
+      </c>
+      <c r="E31">
+        <v>47.683999999999997</v>
+      </c>
+      <c r="F31">
+        <v>47.976999999999997</v>
+      </c>
+      <c r="G31">
+        <v>48.286999999999999</v>
+      </c>
+      <c r="H31">
+        <v>48.613999999999997</v>
+      </c>
+      <c r="I31">
+        <v>48.957999999999998</v>
+      </c>
+      <c r="J31">
+        <v>49.317999999999998</v>
+      </c>
+      <c r="K31">
+        <v>49.695</v>
+      </c>
+      <c r="L31">
+        <v>50.088000000000001</v>
+      </c>
+      <c r="M31">
+        <v>50.497999999999998</v>
+      </c>
+      <c r="N31">
+        <v>50.923999999999999</v>
+      </c>
+      <c r="O31">
+        <v>51.365000000000002</v>
+      </c>
+      <c r="P31">
+        <v>51.822999999999993</v>
+      </c>
+      <c r="Q31">
+        <v>52.295000000000002</v>
+      </c>
+      <c r="R31">
+        <v>52.783000000000001</v>
+      </c>
+      <c r="S31">
+        <v>53.284999999999997</v>
+      </c>
+      <c r="T31">
+        <v>53.801999999999992</v>
+      </c>
+      <c r="U31">
+        <v>54.332000000000001</v>
+      </c>
+      <c r="V31">
+        <v>54.876000000000005</v>
+      </c>
+      <c r="W31">
+        <v>55.432000000000002</v>
+      </c>
+      <c r="X31">
+        <v>55.998999999999995</v>
+      </c>
+      <c r="Y31">
+        <v>56.576999999999998</v>
+      </c>
+      <c r="Z31">
+        <v>57.161999999999999</v>
+      </c>
+      <c r="AA31">
+        <v>57.747999999999998</v>
+      </c>
+      <c r="AB31">
+        <v>58.331000000000003</v>
+      </c>
+      <c r="AC31">
+        <v>58.911999999999999</v>
+      </c>
+      <c r="AD31">
+        <v>59.491000000000007</v>
+      </c>
+      <c r="AE31">
+        <v>60.067000000000007</v>
+      </c>
+      <c r="AF31">
+        <v>60.640000000000008</v>
+      </c>
+      <c r="AG31">
+        <v>61.21</v>
+      </c>
+      <c r="AH31">
+        <v>61.777000000000001</v>
+      </c>
+      <c r="AI31">
+        <v>62.344000000000008</v>
+      </c>
+      <c r="AJ31">
+        <v>62.911000000000016</v>
+      </c>
+      <c r="AK31">
+        <v>63.478000000000023</v>
+      </c>
+      <c r="AL31">
+        <v>64.04500000000003</v>
+      </c>
+      <c r="AM31">
+        <v>64.612000000000037</v>
+      </c>
+      <c r="AN31">
+        <v>65.179000000000045</v>
+      </c>
+      <c r="AO31">
+        <v>65.746000000000052</v>
+      </c>
+      <c r="AP31">
+        <v>66.313000000000059</v>
+      </c>
+      <c r="AQ31">
+        <v>66.880000000000067</v>
+      </c>
+      <c r="AR31">
+        <v>67.447000000000074</v>
+      </c>
+      <c r="AS31">
+        <v>68.014000000000081</v>
+      </c>
+      <c r="AT31">
+        <v>68.581000000000074</v>
+      </c>
+      <c r="AU31">
+        <v>69.148000000000081</v>
+      </c>
+      <c r="AV31">
+        <v>69.715000000000089</v>
+      </c>
+      <c r="AW31">
+        <v>70.282000000000096</v>
+      </c>
+      <c r="AX31">
+        <v>70.849000000000103</v>
+      </c>
+      <c r="AY31">
+        <v>71.416000000000111</v>
+      </c>
+      <c r="AZ31">
+        <v>71.983000000000118</v>
+      </c>
+      <c r="BA31">
+        <v>72.550000000000125</v>
+      </c>
+      <c r="BB31">
+        <v>73.117000000000132</v>
+      </c>
+      <c r="BC31">
+        <v>73.68400000000014</v>
+      </c>
+      <c r="BD31">
+        <v>74.251000000000147</v>
+      </c>
+      <c r="BE31">
+        <v>74.818000000000154</v>
+      </c>
+      <c r="BF31">
+        <v>75.385000000000161</v>
+      </c>
+      <c r="BG31">
+        <v>75.952000000000169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>646</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>17.431999999999999</v>
+      </c>
+      <c r="E32">
+        <v>17.568000000000001</v>
+      </c>
+      <c r="F32">
+        <v>17.721</v>
+      </c>
+      <c r="G32">
+        <v>17.891999999999999</v>
+      </c>
+      <c r="H32">
+        <v>18.081</v>
+      </c>
+      <c r="I32">
+        <v>18.289000000000001</v>
+      </c>
+      <c r="J32">
+        <v>18.515000000000001</v>
+      </c>
+      <c r="K32">
+        <v>18.760999999999999</v>
+      </c>
+      <c r="L32">
+        <v>19.027000000000001</v>
+      </c>
+      <c r="M32">
+        <v>19.312999999999999</v>
+      </c>
+      <c r="N32">
+        <v>19.619</v>
+      </c>
+      <c r="O32">
+        <v>19.946999999999999</v>
+      </c>
+      <c r="P32">
+        <v>20.297000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>20.67</v>
+      </c>
+      <c r="R32">
+        <v>21.065000000000001</v>
+      </c>
+      <c r="S32">
+        <v>21.484999999999999</v>
+      </c>
+      <c r="T32">
+        <v>21.928000000000001</v>
+      </c>
+      <c r="U32">
+        <v>22.396000000000001</v>
+      </c>
+      <c r="V32">
+        <v>22.888000000000002</v>
+      </c>
+      <c r="W32">
+        <v>23.405000000000001</v>
+      </c>
+      <c r="X32">
+        <v>23.931000000000001</v>
+      </c>
+      <c r="Y32">
+        <v>24.465</v>
+      </c>
+      <c r="Z32">
+        <v>25.007000000000001</v>
+      </c>
+      <c r="AA32">
+        <v>25.556999999999995</v>
+      </c>
+      <c r="AB32">
+        <v>26.114999999999998</v>
+      </c>
+      <c r="AC32">
+        <v>26.680999999999997</v>
+      </c>
+      <c r="AD32">
+        <v>27.254000000000001</v>
+      </c>
+      <c r="AE32">
+        <v>27.834999999999997</v>
+      </c>
+      <c r="AF32">
+        <v>28.423999999999999</v>
+      </c>
+      <c r="AG32">
+        <v>29.020000000000003</v>
+      </c>
+      <c r="AH32">
+        <v>29.623999999999999</v>
+      </c>
+      <c r="AI32">
+        <v>30.227999999999998</v>
+      </c>
+      <c r="AJ32">
+        <v>30.831999999999997</v>
+      </c>
+      <c r="AK32">
+        <v>31.435999999999996</v>
+      </c>
+      <c r="AL32">
+        <v>32.04</v>
+      </c>
+      <c r="AM32">
+        <v>32.643999999999998</v>
+      </c>
+      <c r="AN32">
+        <v>33.247999999999998</v>
+      </c>
+      <c r="AO32">
+        <v>33.85199999999999</v>
+      </c>
+      <c r="AP32">
+        <v>34.455999999999989</v>
+      </c>
+      <c r="AQ32">
+        <v>35.059999999999988</v>
+      </c>
+      <c r="AR32">
+        <v>35.663999999999987</v>
+      </c>
+      <c r="AS32">
+        <v>36.267999999999986</v>
+      </c>
+      <c r="AT32">
+        <v>36.871999999999986</v>
+      </c>
+      <c r="AU32">
+        <v>37.475999999999985</v>
+      </c>
+      <c r="AV32">
+        <v>38.079999999999984</v>
+      </c>
+      <c r="AW32">
+        <v>38.683999999999983</v>
+      </c>
+      <c r="AX32">
+        <v>39.287999999999982</v>
+      </c>
+      <c r="AY32">
+        <v>39.891999999999982</v>
+      </c>
+      <c r="AZ32">
+        <v>40.495999999999981</v>
+      </c>
+      <c r="BA32">
+        <v>41.09999999999998</v>
+      </c>
+      <c r="BB32">
+        <v>41.703999999999979</v>
+      </c>
+      <c r="BC32">
+        <v>42.307999999999979</v>
+      </c>
+      <c r="BD32">
+        <v>42.911999999999978</v>
+      </c>
+      <c r="BE32">
+        <v>43.515999999999977</v>
+      </c>
+      <c r="BF32">
+        <v>44.119999999999976</v>
+      </c>
+      <c r="BG32">
+        <v>44.723999999999975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>686</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>48.122</v>
+      </c>
+      <c r="E33">
+        <v>48.6</v>
+      </c>
+      <c r="F33">
+        <v>49.085999999999999</v>
+      </c>
+      <c r="G33">
+        <v>49.579000000000001</v>
+      </c>
+      <c r="H33">
+        <v>50.080000000000005</v>
+      </c>
+      <c r="I33">
+        <v>50.588999999999999</v>
+      </c>
+      <c r="J33">
+        <v>51.105000000000004</v>
+      </c>
+      <c r="K33">
+        <v>51.627999999999993</v>
+      </c>
+      <c r="L33">
+        <v>52.158000000000001</v>
+      </c>
+      <c r="M33">
+        <v>52.69400000000001</v>
+      </c>
+      <c r="N33">
+        <v>53.237000000000002</v>
+      </c>
+      <c r="O33">
+        <v>53.784999999999997</v>
+      </c>
+      <c r="P33">
+        <v>54.337999999999994</v>
+      </c>
+      <c r="Q33">
+        <v>54.896000000000001</v>
+      </c>
+      <c r="R33">
+        <v>55.459000000000003</v>
+      </c>
+      <c r="S33">
+        <v>56.025000000000006</v>
+      </c>
+      <c r="T33">
+        <v>56.594999999999999</v>
+      </c>
+      <c r="U33">
+        <v>57.167999999999999</v>
+      </c>
+      <c r="V33">
+        <v>57.74199999999999</v>
+      </c>
+      <c r="W33">
+        <v>58.316000000000003</v>
+      </c>
+      <c r="X33">
+        <v>58.887999999999998</v>
+      </c>
+      <c r="Y33">
+        <v>59.460999999999999</v>
+      </c>
+      <c r="Z33">
+        <v>60.030000000000008</v>
+      </c>
+      <c r="AA33">
+        <v>60.597000000000001</v>
+      </c>
+      <c r="AB33">
+        <v>61.161000000000001</v>
+      </c>
+      <c r="AC33">
+        <v>61.722999999999992</v>
+      </c>
+      <c r="AD33">
+        <v>62.280999999999999</v>
+      </c>
+      <c r="AE33">
+        <v>62.834999999999994</v>
+      </c>
+      <c r="AF33">
+        <v>63.387000000000008</v>
+      </c>
+      <c r="AG33">
+        <v>63.934999999999995</v>
+      </c>
+      <c r="AH33">
+        <v>64.478999999999999</v>
+      </c>
+      <c r="AI33">
+        <v>65.022999999999996</v>
+      </c>
+      <c r="AJ33">
+        <v>65.566999999999993</v>
+      </c>
+      <c r="AK33">
+        <v>66.111000000000004</v>
+      </c>
+      <c r="AL33">
+        <v>66.655000000000001</v>
+      </c>
+      <c r="AM33">
+        <v>67.198999999999998</v>
+      </c>
+      <c r="AN33">
+        <v>67.742999999999995</v>
+      </c>
+      <c r="AO33">
+        <v>68.286999999999992</v>
+      </c>
+      <c r="AP33">
+        <v>68.831000000000003</v>
+      </c>
+      <c r="AQ33">
+        <v>69.375</v>
+      </c>
+      <c r="AR33">
+        <v>69.918999999999997</v>
+      </c>
+      <c r="AS33">
+        <v>70.462999999999994</v>
+      </c>
+      <c r="AT33">
+        <v>71.007000000000005</v>
+      </c>
+      <c r="AU33">
+        <v>71.551000000000002</v>
+      </c>
+      <c r="AV33">
+        <v>72.094999999999999</v>
+      </c>
+      <c r="AW33">
+        <v>72.638999999999996</v>
+      </c>
+      <c r="AX33">
+        <v>73.182999999999993</v>
+      </c>
+      <c r="AY33">
+        <v>73.727000000000004</v>
+      </c>
+      <c r="AZ33">
+        <v>74.271000000000001</v>
+      </c>
+      <c r="BA33">
+        <v>74.814999999999998</v>
+      </c>
+      <c r="BB33">
+        <v>75.358999999999995</v>
+      </c>
+      <c r="BC33">
+        <v>75.902999999999992</v>
+      </c>
+      <c r="BD33">
+        <v>76.447000000000003</v>
+      </c>
+      <c r="BE33">
+        <v>76.991</v>
+      </c>
+      <c r="BF33">
+        <v>77.534999999999997</v>
+      </c>
+      <c r="BG33">
+        <v>78.078999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>694</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>42.923000000000002</v>
+      </c>
+      <c r="E34">
+        <v>43.372</v>
+      </c>
+      <c r="F34">
+        <v>43.831000000000003</v>
+      </c>
+      <c r="G34">
+        <v>44.3</v>
+      </c>
+      <c r="H34">
+        <v>44.779000000000003</v>
+      </c>
+      <c r="I34">
+        <v>45.268000000000001</v>
+      </c>
+      <c r="J34">
+        <v>45.765999999999998</v>
+      </c>
+      <c r="K34">
+        <v>46.273000000000003</v>
+      </c>
+      <c r="L34">
+        <v>46.789000000000001</v>
+      </c>
+      <c r="M34">
+        <v>47.314999999999998</v>
+      </c>
+      <c r="N34">
+        <v>47.848999999999997</v>
+      </c>
+      <c r="O34">
+        <v>48.390999999999998</v>
+      </c>
+      <c r="P34">
+        <v>48.942</v>
+      </c>
+      <c r="Q34">
+        <v>49.5</v>
+      </c>
+      <c r="R34">
+        <v>50.064999999999991</v>
+      </c>
+      <c r="S34">
+        <v>50.637999999999991</v>
+      </c>
+      <c r="T34">
+        <v>51.216999999999999</v>
+      </c>
+      <c r="U34">
+        <v>51.802000000000007</v>
+      </c>
+      <c r="V34">
+        <v>52.393000000000001</v>
+      </c>
+      <c r="W34">
+        <v>52.988</v>
+      </c>
+      <c r="X34">
+        <v>53.587000000000003</v>
+      </c>
+      <c r="Y34">
+        <v>54.188000000000002</v>
+      </c>
+      <c r="Z34">
+        <v>54.789000000000001</v>
+      </c>
+      <c r="AA34">
+        <v>55.390000000000008</v>
+      </c>
+      <c r="AB34">
+        <v>55.991</v>
+      </c>
+      <c r="AC34">
+        <v>56.588999999999999</v>
+      </c>
+      <c r="AD34">
+        <v>57.186000000000007</v>
+      </c>
+      <c r="AE34">
+        <v>57.78</v>
+      </c>
+      <c r="AF34">
+        <v>58.372999999999998</v>
+      </c>
+      <c r="AG34">
+        <v>58.962000000000003</v>
+      </c>
+      <c r="AH34">
+        <v>59.54999999999999</v>
+      </c>
+      <c r="AI34">
+        <v>60.137999999999977</v>
+      </c>
+      <c r="AJ34">
+        <v>60.725999999999971</v>
+      </c>
+      <c r="AK34">
+        <v>61.313999999999957</v>
+      </c>
+      <c r="AL34">
+        <v>61.901999999999944</v>
+      </c>
+      <c r="AM34">
+        <v>62.489999999999938</v>
+      </c>
+      <c r="AN34">
+        <v>63.077999999999925</v>
+      </c>
+      <c r="AO34">
+        <v>63.665999999999912</v>
+      </c>
+      <c r="AP34">
+        <v>64.253999999999905</v>
+      </c>
+      <c r="AQ34">
+        <v>64.841999999999885</v>
+      </c>
+      <c r="AR34">
+        <v>65.429999999999879</v>
+      </c>
+      <c r="AS34">
+        <v>66.017999999999859</v>
+      </c>
+      <c r="AT34">
+        <v>66.605999999999852</v>
+      </c>
+      <c r="AU34">
+        <v>67.193999999999846</v>
+      </c>
+      <c r="AV34">
+        <v>67.781999999999826</v>
+      </c>
+      <c r="AW34">
+        <v>68.36999999999982</v>
+      </c>
+      <c r="AX34">
+        <v>68.957999999999814</v>
+      </c>
+      <c r="AY34">
+        <v>69.545999999999793</v>
+      </c>
+      <c r="AZ34">
+        <v>70.133999999999787</v>
+      </c>
+      <c r="BA34">
+        <v>70.721999999999781</v>
+      </c>
+      <c r="BB34">
+        <v>71.309999999999761</v>
+      </c>
+      <c r="BC34">
+        <v>71.897999999999755</v>
+      </c>
+      <c r="BD34">
+        <v>72.485999999999734</v>
+      </c>
+      <c r="BE34">
+        <v>73.073999999999728</v>
+      </c>
+      <c r="BF34">
+        <v>73.661999999999722</v>
+      </c>
+      <c r="BG34">
+        <v>74.249999999999702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>728</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>20.199000000000002</v>
+      </c>
+      <c r="E35">
+        <v>20.513999999999999</v>
+      </c>
+      <c r="F35">
+        <v>20.846</v>
+      </c>
+      <c r="G35">
+        <v>21.195</v>
+      </c>
+      <c r="H35">
+        <v>21.56</v>
+      </c>
+      <c r="I35">
+        <v>21.943000000000001</v>
+      </c>
+      <c r="J35">
+        <v>22.344000000000001</v>
+      </c>
+      <c r="K35">
+        <v>22.763000000000002</v>
+      </c>
+      <c r="L35">
+        <v>23.2</v>
+      </c>
+      <c r="M35">
+        <v>23.655999999999999</v>
+      </c>
+      <c r="N35">
+        <v>24.131</v>
+      </c>
+      <c r="O35">
+        <v>24.625</v>
+      </c>
+      <c r="P35">
+        <v>25.137999999999998</v>
+      </c>
+      <c r="Q35">
+        <v>25.670000000000005</v>
+      </c>
+      <c r="R35">
+        <v>26.22</v>
+      </c>
+      <c r="S35">
+        <v>26.778999999999996</v>
+      </c>
+      <c r="T35">
+        <v>27.344999999999999</v>
+      </c>
+      <c r="U35">
+        <v>27.919</v>
+      </c>
+      <c r="V35">
+        <v>28.499999999999996</v>
+      </c>
+      <c r="W35">
+        <v>29.088999999999999</v>
+      </c>
+      <c r="X35">
+        <v>29.683999999999997</v>
+      </c>
+      <c r="Y35">
+        <v>30.286999999999999</v>
+      </c>
+      <c r="Z35">
+        <v>30.896000000000001</v>
+      </c>
+      <c r="AA35">
+        <v>31.512</v>
+      </c>
+      <c r="AB35">
+        <v>32.134999999999998</v>
+      </c>
+      <c r="AC35">
+        <v>32.764000000000003</v>
+      </c>
+      <c r="AD35">
+        <v>33.399000000000001</v>
+      </c>
+      <c r="AE35">
+        <v>34.04</v>
+      </c>
+      <c r="AF35">
+        <v>34.688000000000002</v>
+      </c>
+      <c r="AG35">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="AH35">
+        <v>35.999000000000002</v>
+      </c>
+      <c r="AI35">
+        <v>36.658000000000001</v>
+      </c>
+      <c r="AJ35">
+        <v>37.317</v>
+      </c>
+      <c r="AK35">
+        <v>37.975999999999999</v>
+      </c>
+      <c r="AL35">
+        <v>38.634999999999998</v>
+      </c>
+      <c r="AM35">
+        <v>39.293999999999997</v>
+      </c>
+      <c r="AN35">
+        <v>39.952999999999996</v>
+      </c>
+      <c r="AO35">
+        <v>40.611999999999995</v>
+      </c>
+      <c r="AP35">
+        <v>41.270999999999994</v>
+      </c>
+      <c r="AQ35">
+        <v>41.929999999999993</v>
+      </c>
+      <c r="AR35">
+        <v>42.588999999999984</v>
+      </c>
+      <c r="AS35">
+        <v>43.247999999999983</v>
+      </c>
+      <c r="AT35">
+        <v>43.906999999999982</v>
+      </c>
+      <c r="AU35">
+        <v>44.565999999999981</v>
+      </c>
+      <c r="AV35">
+        <v>45.22499999999998</v>
+      </c>
+      <c r="AW35">
+        <v>45.883999999999979</v>
+      </c>
+      <c r="AX35">
+        <v>46.542999999999978</v>
+      </c>
+      <c r="AY35">
+        <v>47.201999999999977</v>
+      </c>
+      <c r="AZ35">
+        <v>47.860999999999976</v>
+      </c>
+      <c r="BA35">
+        <v>48.519999999999975</v>
+      </c>
+      <c r="BB35">
+        <v>49.178999999999974</v>
+      </c>
+      <c r="BC35">
+        <v>49.837999999999973</v>
+      </c>
+      <c r="BD35">
+        <v>50.496999999999971</v>
+      </c>
+      <c r="BE35">
+        <v>51.15599999999997</v>
+      </c>
+      <c r="BF35">
+        <v>51.814999999999969</v>
+      </c>
+      <c r="BG35">
+        <v>52.473999999999968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>834</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>35.226999999999997</v>
+      </c>
+      <c r="E36">
+        <v>35.954000000000001</v>
+      </c>
+      <c r="F36">
+        <v>36.682000000000002</v>
+      </c>
+      <c r="G36">
+        <v>37.408999999999999</v>
+      </c>
+      <c r="H36">
+        <v>38.136000000000003</v>
+      </c>
+      <c r="I36">
+        <v>38.862000000000002</v>
+      </c>
+      <c r="J36">
+        <v>39.585000000000001</v>
+      </c>
+      <c r="K36">
+        <v>40.305999999999997</v>
+      </c>
+      <c r="L36">
+        <v>41.024000000000001</v>
+      </c>
+      <c r="M36">
+        <v>41.738</v>
+      </c>
+      <c r="N36">
+        <v>42.447000000000003</v>
+      </c>
+      <c r="O36">
+        <v>43.151000000000003</v>
+      </c>
+      <c r="P36">
+        <v>43.848999999999997</v>
+      </c>
+      <c r="Q36">
+        <v>44.540999999999997</v>
+      </c>
+      <c r="R36">
+        <v>45.225000000000001</v>
+      </c>
+      <c r="S36">
+        <v>45.901000000000003</v>
+      </c>
+      <c r="T36">
+        <v>46.567</v>
+      </c>
+      <c r="U36">
+        <v>47.222999999999999</v>
+      </c>
+      <c r="V36">
+        <v>47.866999999999997</v>
+      </c>
+      <c r="W36">
+        <v>48.496000000000002</v>
+      </c>
+      <c r="X36">
+        <v>49.128</v>
+      </c>
+      <c r="Y36">
+        <v>49.761000000000003</v>
+      </c>
+      <c r="Z36">
+        <v>50.393000000000001</v>
+      </c>
+      <c r="AA36">
+        <v>51.026000000000003</v>
+      </c>
+      <c r="AB36">
+        <v>51.658000000000001</v>
+      </c>
+      <c r="AC36">
+        <v>52.290000000000006</v>
+      </c>
+      <c r="AD36">
+        <v>52.92</v>
+      </c>
+      <c r="AE36">
+        <v>53.55</v>
+      </c>
+      <c r="AF36">
+        <v>54.179000000000002</v>
+      </c>
+      <c r="AG36">
+        <v>54.807000000000002</v>
+      </c>
+      <c r="AH36">
+        <v>55.433</v>
+      </c>
+      <c r="AI36">
+        <v>56.05899999999999</v>
+      </c>
+      <c r="AJ36">
+        <v>56.684999999999988</v>
+      </c>
+      <c r="AK36">
+        <v>57.310999999999979</v>
+      </c>
+      <c r="AL36">
+        <v>57.936999999999969</v>
+      </c>
+      <c r="AM36">
+        <v>58.562999999999967</v>
+      </c>
+      <c r="AN36">
+        <v>59.188999999999957</v>
+      </c>
+      <c r="AO36">
+        <v>59.814999999999955</v>
+      </c>
+      <c r="AP36">
+        <v>60.440999999999946</v>
+      </c>
+      <c r="AQ36">
+        <v>61.066999999999936</v>
+      </c>
+      <c r="AR36">
+        <v>61.692999999999934</v>
+      </c>
+      <c r="AS36">
+        <v>62.318999999999924</v>
+      </c>
+      <c r="AT36">
+        <v>62.944999999999915</v>
+      </c>
+      <c r="AU36">
+        <v>63.570999999999913</v>
+      </c>
+      <c r="AV36">
+        <v>64.196999999999903</v>
+      </c>
+      <c r="AW36">
+        <v>64.822999999999894</v>
+      </c>
+      <c r="AX36">
+        <v>65.448999999999884</v>
+      </c>
+      <c r="AY36">
+        <v>66.074999999999889</v>
+      </c>
+      <c r="AZ36">
+        <v>66.70099999999988</v>
+      </c>
+      <c r="BA36">
+        <v>67.32699999999987</v>
+      </c>
+      <c r="BB36">
+        <v>67.952999999999861</v>
+      </c>
+      <c r="BC36">
+        <v>68.578999999999851</v>
+      </c>
+      <c r="BD36">
+        <v>69.204999999999856</v>
+      </c>
+      <c r="BE36">
+        <v>69.830999999999847</v>
+      </c>
+      <c r="BF36">
+        <v>70.456999999999837</v>
+      </c>
+      <c r="BG36">
+        <v>71.082999999999828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>626</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>31.319999999999997</v>
+      </c>
+      <c r="E37">
+        <v>31.695</v>
+      </c>
+      <c r="F37">
+        <v>32.073999999999998</v>
+      </c>
+      <c r="G37">
+        <v>32.456000000000003</v>
+      </c>
+      <c r="H37">
+        <v>32.841999999999999</v>
+      </c>
+      <c r="I37">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="J37">
+        <v>33.622</v>
+      </c>
+      <c r="K37">
+        <v>34.015999999999998</v>
+      </c>
+      <c r="L37">
+        <v>34.414000000000001</v>
+      </c>
+      <c r="M37">
+        <v>34.814</v>
+      </c>
+      <c r="N37">
+        <v>35.216999999999999</v>
+      </c>
+      <c r="O37">
+        <v>35.622999999999998</v>
+      </c>
+      <c r="P37">
+        <v>36.031999999999996</v>
+      </c>
+      <c r="Q37">
+        <v>36.444000000000003</v>
+      </c>
+      <c r="R37">
+        <v>36.857999999999997</v>
+      </c>
+      <c r="S37">
+        <v>37.274000000000001</v>
+      </c>
+      <c r="T37">
+        <v>37.692999999999998</v>
+      </c>
+      <c r="U37">
+        <v>38.115000000000002</v>
+      </c>
+      <c r="V37">
+        <v>38.537999999999997</v>
+      </c>
+      <c r="W37">
+        <v>38.963999999999999</v>
+      </c>
+      <c r="X37">
+        <v>39.390999999999998</v>
+      </c>
+      <c r="Y37">
+        <v>39.820999999999998</v>
+      </c>
+      <c r="Z37">
+        <v>40.250999999999998</v>
+      </c>
+      <c r="AA37">
+        <v>40.683</v>
+      </c>
+      <c r="AB37">
+        <v>41.116999999999997</v>
+      </c>
+      <c r="AC37">
+        <v>41.552</v>
+      </c>
+      <c r="AD37">
+        <v>41.988999999999997</v>
+      </c>
+      <c r="AE37">
+        <v>42.426000000000002</v>
+      </c>
+      <c r="AF37">
+        <v>42.865000000000002</v>
+      </c>
+      <c r="AG37">
+        <v>43.305</v>
+      </c>
+      <c r="AH37">
+        <v>43.746000000000002</v>
+      </c>
+      <c r="AI37">
+        <v>44.187000000000005</v>
+      </c>
+      <c r="AJ37">
+        <v>44.628000000000007</v>
+      </c>
+      <c r="AK37">
+        <v>45.06900000000001</v>
+      </c>
+      <c r="AL37">
+        <v>45.510000000000012</v>
+      </c>
+      <c r="AM37">
+        <v>45.951000000000015</v>
+      </c>
+      <c r="AN37">
+        <v>46.392000000000017</v>
+      </c>
+      <c r="AO37">
+        <v>46.83300000000002</v>
+      </c>
+      <c r="AP37">
+        <v>47.274000000000022</v>
+      </c>
+      <c r="AQ37">
+        <v>47.715000000000025</v>
+      </c>
+      <c r="AR37">
+        <v>48.156000000000027</v>
+      </c>
+      <c r="AS37">
+        <v>48.59700000000003</v>
+      </c>
+      <c r="AT37">
+        <v>49.038000000000032</v>
+      </c>
+      <c r="AU37">
+        <v>49.479000000000035</v>
+      </c>
+      <c r="AV37">
+        <v>49.920000000000037</v>
+      </c>
+      <c r="AW37">
+        <v>50.361000000000033</v>
+      </c>
+      <c r="AX37">
+        <v>50.802000000000035</v>
+      </c>
+      <c r="AY37">
+        <v>51.243000000000038</v>
+      </c>
+      <c r="AZ37">
+        <v>51.68400000000004</v>
+      </c>
+      <c r="BA37">
+        <v>52.125000000000043</v>
+      </c>
+      <c r="BB37">
+        <v>52.566000000000045</v>
+      </c>
+      <c r="BC37">
+        <v>53.007000000000048</v>
+      </c>
+      <c r="BD37">
+        <v>53.44800000000005</v>
+      </c>
+      <c r="BE37">
+        <v>53.889000000000053</v>
+      </c>
+      <c r="BF37">
+        <v>54.330000000000055</v>
+      </c>
+      <c r="BG37">
+        <v>54.771000000000058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>768</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>42.8</v>
+      </c>
+      <c r="E38">
+        <v>43.357999999999997</v>
+      </c>
+      <c r="F38">
+        <v>43.920999999999999</v>
+      </c>
+      <c r="G38">
+        <v>44.49</v>
+      </c>
+      <c r="H38">
+        <v>45.064</v>
+      </c>
+      <c r="I38">
+        <v>45.642000000000003</v>
+      </c>
+      <c r="J38">
+        <v>46.225999999999999</v>
+      </c>
+      <c r="K38">
+        <v>46.813000000000002</v>
+      </c>
+      <c r="L38">
+        <v>47.405000000000001</v>
+      </c>
+      <c r="M38">
+        <v>48</v>
+      </c>
+      <c r="N38">
+        <v>48.598999999999997</v>
+      </c>
+      <c r="O38">
+        <v>49.2</v>
+      </c>
+      <c r="P38">
+        <v>49.805</v>
+      </c>
+      <c r="Q38">
+        <v>50.411000000000008</v>
+      </c>
+      <c r="R38">
+        <v>51.019000000000005</v>
+      </c>
+      <c r="S38">
+        <v>51.627999999999993</v>
+      </c>
+      <c r="T38">
+        <v>52.237000000000002</v>
+      </c>
+      <c r="U38">
+        <v>52.847000000000001</v>
+      </c>
+      <c r="V38">
+        <v>53.454999999999998</v>
+      </c>
+      <c r="W38">
+        <v>54.061999999999998</v>
+      </c>
+      <c r="X38">
+        <v>54.664999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>55.264000000000003</v>
+      </c>
+      <c r="Z38">
+        <v>55.862000000000002</v>
+      </c>
+      <c r="AA38">
+        <v>56.459000000000003</v>
+      </c>
+      <c r="AB38">
+        <v>57.055</v>
+      </c>
+      <c r="AC38">
+        <v>57.647999999999996</v>
+      </c>
+      <c r="AD38">
+        <v>58.238999999999997</v>
+      </c>
+      <c r="AE38">
+        <v>58.826999999999998</v>
+      </c>
+      <c r="AF38">
+        <v>59.414000000000001</v>
+      </c>
+      <c r="AG38">
+        <v>59.997</v>
+      </c>
+      <c r="AH38">
+        <v>60.577999999999996</v>
+      </c>
+      <c r="AI38">
+        <v>61.158999999999999</v>
+      </c>
+      <c r="AJ38">
+        <v>61.739999999999995</v>
+      </c>
+      <c r="AK38">
+        <v>62.320999999999991</v>
+      </c>
+      <c r="AL38">
+        <v>62.901999999999994</v>
+      </c>
+      <c r="AM38">
+        <v>63.48299999999999</v>
+      </c>
+      <c r="AN38">
+        <v>64.063999999999993</v>
+      </c>
+      <c r="AO38">
+        <v>64.644999999999982</v>
+      </c>
+      <c r="AP38">
+        <v>65.225999999999985</v>
+      </c>
+      <c r="AQ38">
+        <v>65.806999999999988</v>
+      </c>
+      <c r="AR38">
+        <v>66.387999999999977</v>
+      </c>
+      <c r="AS38">
+        <v>66.96899999999998</v>
+      </c>
+      <c r="AT38">
+        <v>67.549999999999983</v>
+      </c>
+      <c r="AU38">
+        <v>68.130999999999972</v>
+      </c>
+      <c r="AV38">
+        <v>68.711999999999975</v>
+      </c>
+      <c r="AW38">
+        <v>69.292999999999978</v>
+      </c>
+      <c r="AX38">
+        <v>69.873999999999967</v>
+      </c>
+      <c r="AY38">
+        <v>70.45499999999997</v>
+      </c>
+      <c r="AZ38">
+        <v>71.035999999999973</v>
+      </c>
+      <c r="BA38">
+        <v>71.616999999999962</v>
+      </c>
+      <c r="BB38">
+        <v>72.197999999999965</v>
+      </c>
+      <c r="BC38">
+        <v>72.778999999999954</v>
+      </c>
+      <c r="BD38">
+        <v>73.359999999999957</v>
+      </c>
+      <c r="BE38">
+        <v>73.94099999999996</v>
+      </c>
+      <c r="BF38">
+        <v>74.521999999999949</v>
+      </c>
+      <c r="BG38">
+        <v>75.102999999999952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>800</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>24.954000000000001</v>
+      </c>
+      <c r="E39">
+        <v>25.553000000000004</v>
+      </c>
+      <c r="F39">
+        <v>26.158999999999999</v>
+      </c>
+      <c r="G39">
+        <v>26.771000000000001</v>
+      </c>
+      <c r="H39">
+        <v>27.388999999999996</v>
+      </c>
+      <c r="I39">
+        <v>28.011999999999997</v>
+      </c>
+      <c r="J39">
+        <v>28.64</v>
+      </c>
+      <c r="K39">
+        <v>29.273</v>
+      </c>
+      <c r="L39">
+        <v>29.908999999999995</v>
+      </c>
+      <c r="M39">
+        <v>30.55</v>
+      </c>
+      <c r="N39">
+        <v>31.193000000000005</v>
+      </c>
+      <c r="O39">
+        <v>31.839000000000002</v>
+      </c>
+      <c r="P39">
+        <v>32.487000000000002</v>
+      </c>
+      <c r="Q39">
+        <v>33.137</v>
+      </c>
+      <c r="R39">
+        <v>33.787999999999997</v>
+      </c>
+      <c r="S39">
+        <v>34.438000000000002</v>
+      </c>
+      <c r="T39">
+        <v>35.088999999999999</v>
+      </c>
+      <c r="U39">
+        <v>35.737000000000002</v>
+      </c>
+      <c r="V39">
+        <v>36.384</v>
+      </c>
+      <c r="W39">
+        <v>37.027000000000001</v>
+      </c>
+      <c r="X39">
+        <v>37.665999999999997</v>
+      </c>
+      <c r="Y39">
+        <v>38.295999999999999</v>
+      </c>
+      <c r="Z39">
+        <v>38.933</v>
+      </c>
+      <c r="AA39">
+        <v>39.573999999999998</v>
+      </c>
+      <c r="AB39">
+        <v>40.218000000000004</v>
+      </c>
+      <c r="AC39">
+        <v>40.866</v>
+      </c>
+      <c r="AD39">
+        <v>41.517000000000003</v>
+      </c>
+      <c r="AE39">
+        <v>42.170999999999999</v>
+      </c>
+      <c r="AF39">
+        <v>42.826999999999998</v>
+      </c>
+      <c r="AG39">
+        <v>43.487000000000002</v>
+      </c>
+      <c r="AH39">
+        <v>44.148000000000003</v>
+      </c>
+      <c r="AI39">
+        <v>44.809000000000005</v>
+      </c>
+      <c r="AJ39">
+        <v>45.470000000000006</v>
+      </c>
+      <c r="AK39">
+        <v>46.131000000000007</v>
+      </c>
+      <c r="AL39">
+        <v>46.792000000000009</v>
+      </c>
+      <c r="AM39">
+        <v>47.453000000000003</v>
+      </c>
+      <c r="AN39">
+        <v>48.114000000000004</v>
+      </c>
+      <c r="AO39">
+        <v>48.775000000000006</v>
+      </c>
+      <c r="AP39">
+        <v>49.436000000000007</v>
+      </c>
+      <c r="AQ39">
+        <v>50.097000000000016</v>
+      </c>
+      <c r="AR39">
+        <v>50.758000000000017</v>
+      </c>
+      <c r="AS39">
+        <v>51.419000000000011</v>
+      </c>
+      <c r="AT39">
+        <v>52.080000000000013</v>
+      </c>
+      <c r="AU39">
+        <v>52.741000000000014</v>
+      </c>
+      <c r="AV39">
+        <v>53.402000000000015</v>
+      </c>
+      <c r="AW39">
+        <v>54.063000000000017</v>
+      </c>
+      <c r="AX39">
+        <v>54.724000000000018</v>
+      </c>
+      <c r="AY39">
+        <v>55.385000000000019</v>
+      </c>
+      <c r="AZ39">
+        <v>56.046000000000021</v>
+      </c>
+      <c r="BA39">
+        <v>56.707000000000022</v>
+      </c>
+      <c r="BB39">
+        <v>57.368000000000016</v>
+      </c>
+      <c r="BC39">
+        <v>58.029000000000018</v>
+      </c>
+      <c r="BD39">
+        <v>58.690000000000019</v>
+      </c>
+      <c r="BE39">
+        <v>59.35100000000002</v>
+      </c>
+      <c r="BF39">
+        <v>60.012000000000022</v>
+      </c>
+      <c r="BG39">
+        <v>60.673000000000023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>887</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>37.908000000000001</v>
+      </c>
+      <c r="E40">
+        <v>38.545999999999999</v>
+      </c>
+      <c r="F40">
+        <v>39.188000000000002</v>
+      </c>
+      <c r="G40">
+        <v>39.831000000000003</v>
+      </c>
+      <c r="H40">
+        <v>40.476999999999997</v>
+      </c>
+      <c r="I40">
+        <v>41.125</v>
+      </c>
+      <c r="J40">
+        <v>41.773000000000003</v>
+      </c>
+      <c r="K40">
+        <v>42.420999999999999</v>
+      </c>
+      <c r="L40">
+        <v>43.067999999999998</v>
+      </c>
+      <c r="M40">
+        <v>43.713999999999999</v>
+      </c>
+      <c r="N40">
+        <v>44.356000000000002</v>
+      </c>
+      <c r="O40">
+        <v>44.993000000000002</v>
+      </c>
+      <c r="P40">
+        <v>45.633000000000003</v>
+      </c>
+      <c r="Q40">
+        <v>46.274999999999999</v>
+      </c>
+      <c r="R40">
+        <v>46.917999999999999</v>
+      </c>
+      <c r="S40">
+        <v>47.561999999999998</v>
+      </c>
+      <c r="T40">
+        <v>48.207000000000001</v>
+      </c>
+      <c r="U40">
+        <v>48.851999999999997</v>
+      </c>
+      <c r="V40">
+        <v>49.497999999999998</v>
+      </c>
+      <c r="W40">
+        <v>50.143999999999998</v>
+      </c>
+      <c r="X40">
+        <v>50.79</v>
+      </c>
+      <c r="Y40">
+        <v>51.436000000000007</v>
+      </c>
+      <c r="Z40">
+        <v>52.081000000000003</v>
+      </c>
+      <c r="AA40">
+        <v>52.725999999999992</v>
+      </c>
+      <c r="AB40">
+        <v>53.369</v>
+      </c>
+      <c r="AC40">
+        <v>54.012000000000008</v>
+      </c>
+      <c r="AD40">
+        <v>54.652999999999999</v>
+      </c>
+      <c r="AE40">
+        <v>55.293000000000006</v>
+      </c>
+      <c r="AF40">
+        <v>55.930999999999997</v>
+      </c>
+      <c r="AG40">
+        <v>56.567</v>
+      </c>
+      <c r="AH40">
+        <v>57.201000000000001</v>
+      </c>
+      <c r="AI40">
+        <v>57.835000000000001</v>
+      </c>
+      <c r="AJ40">
+        <v>58.469000000000001</v>
+      </c>
+      <c r="AK40">
+        <v>59.103000000000009</v>
+      </c>
+      <c r="AL40">
+        <v>59.737000000000009</v>
+      </c>
+      <c r="AM40">
+        <v>60.371000000000009</v>
+      </c>
+      <c r="AN40">
+        <v>61.00500000000001</v>
+      </c>
+      <c r="AO40">
+        <v>61.63900000000001</v>
+      </c>
+      <c r="AP40">
+        <v>62.27300000000001</v>
+      </c>
+      <c r="AQ40">
+        <v>62.907000000000011</v>
+      </c>
+      <c r="AR40">
+        <v>63.541000000000011</v>
+      </c>
+      <c r="AS40">
+        <v>64.175000000000011</v>
+      </c>
+      <c r="AT40">
+        <v>64.809000000000012</v>
+      </c>
+      <c r="AU40">
+        <v>65.443000000000012</v>
+      </c>
+      <c r="AV40">
+        <v>66.077000000000012</v>
+      </c>
+      <c r="AW40">
+        <v>66.711000000000027</v>
+      </c>
+      <c r="AX40">
+        <v>67.345000000000027</v>
+      </c>
+      <c r="AY40">
+        <v>67.979000000000028</v>
+      </c>
+      <c r="AZ40">
+        <v>68.613000000000028</v>
+      </c>
+      <c r="BA40">
+        <v>69.247000000000028</v>
+      </c>
+      <c r="BB40">
+        <v>69.881000000000029</v>
+      </c>
+      <c r="BC40">
+        <v>70.515000000000029</v>
+      </c>
+      <c r="BD40">
+        <v>71.149000000000029</v>
+      </c>
+      <c r="BE40">
+        <v>71.78300000000003</v>
+      </c>
+      <c r="BF40">
+        <v>72.41700000000003</v>
+      </c>
+      <c r="BG40">
+        <v>73.05100000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>894</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>44.628999999999998</v>
+      </c>
+      <c r="E41">
+        <v>45.192</v>
+      </c>
+      <c r="F41">
+        <v>45.761000000000003</v>
+      </c>
+      <c r="G41">
+        <v>46.335000000000001</v>
+      </c>
+      <c r="H41">
+        <v>46.914000000000001</v>
+      </c>
+      <c r="I41">
+        <v>47.497999999999998</v>
+      </c>
+      <c r="J41">
+        <v>48.087000000000003</v>
+      </c>
+      <c r="K41">
+        <v>48.679000000000002</v>
+      </c>
+      <c r="L41">
+        <v>49.276000000000003</v>
+      </c>
+      <c r="M41">
+        <v>49.875</v>
+      </c>
+      <c r="N41">
+        <v>50.478000000000002</v>
+      </c>
+      <c r="O41">
+        <v>51.082999999999998</v>
+      </c>
+      <c r="P41">
+        <v>51.690000000000005</v>
+      </c>
+      <c r="Q41">
+        <v>52.298000000000002</v>
+      </c>
+      <c r="R41">
+        <v>52.905999999999999</v>
+      </c>
+      <c r="S41">
+        <v>53.512999999999998</v>
+      </c>
+      <c r="T41">
+        <v>54.118999999999993</v>
+      </c>
+      <c r="U41">
+        <v>54.720999999999997</v>
+      </c>
+      <c r="V41">
+        <v>55.323</v>
+      </c>
+      <c r="W41">
+        <v>55.923000000000002</v>
+      </c>
+      <c r="X41">
+        <v>56.521999999999991</v>
+      </c>
+      <c r="Y41">
+        <v>57.11999999999999</v>
+      </c>
+      <c r="Z41">
+        <v>57.715000000000003</v>
+      </c>
+      <c r="AA41">
+        <v>58.306999999999995</v>
+      </c>
+      <c r="AB41">
+        <v>58.898000000000003</v>
+      </c>
+      <c r="AC41">
+        <v>59.485999999999997</v>
+      </c>
+      <c r="AD41">
+        <v>60.070999999999998</v>
+      </c>
+      <c r="AE41">
+        <v>60.652999999999999</v>
+      </c>
+      <c r="AF41">
+        <v>61.231999999999999</v>
+      </c>
+      <c r="AG41">
+        <v>61.807999999999993</v>
+      </c>
+      <c r="AH41">
+        <v>62.381</v>
+      </c>
+      <c r="AI41">
+        <v>62.954000000000001</v>
+      </c>
+      <c r="AJ41">
+        <v>63.527000000000001</v>
+      </c>
+      <c r="AK41">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="AL41">
+        <v>64.673000000000002</v>
+      </c>
+      <c r="AM41">
+        <v>65.246000000000009</v>
+      </c>
+      <c r="AN41">
+        <v>65.819000000000003</v>
+      </c>
+      <c r="AO41">
+        <v>66.39200000000001</v>
+      </c>
+      <c r="AP41">
+        <v>66.965000000000003</v>
+      </c>
+      <c r="AQ41">
+        <v>67.538000000000011</v>
+      </c>
+      <c r="AR41">
+        <v>68.111000000000004</v>
+      </c>
+      <c r="AS41">
+        <v>68.684000000000012</v>
+      </c>
+      <c r="AT41">
+        <v>69.257000000000019</v>
+      </c>
+      <c r="AU41">
+        <v>69.830000000000013</v>
+      </c>
+      <c r="AV41">
+        <v>70.40300000000002</v>
+      </c>
+      <c r="AW41">
+        <v>70.976000000000013</v>
+      </c>
+      <c r="AX41">
+        <v>71.549000000000021</v>
+      </c>
+      <c r="AY41">
+        <v>72.122000000000014</v>
+      </c>
+      <c r="AZ41">
+        <v>72.695000000000022</v>
+      </c>
+      <c r="BA41">
+        <v>73.268000000000029</v>
+      </c>
+      <c r="BB41">
+        <v>73.841000000000022</v>
+      </c>
+      <c r="BC41">
+        <v>74.41400000000003</v>
+      </c>
+      <c r="BD41">
+        <v>74.987000000000023</v>
+      </c>
+      <c r="BE41">
+        <v>75.560000000000031</v>
+      </c>
+      <c r="BF41">
+        <v>76.133000000000024</v>
+      </c>
+      <c r="BG41">
+        <v>76.706000000000031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>716</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>32.241999999999997</v>
+      </c>
+      <c r="E42">
+        <v>32.302999999999997</v>
+      </c>
+      <c r="F42">
+        <v>32.395000000000003</v>
+      </c>
+      <c r="G42">
+        <v>32.517000000000003</v>
+      </c>
+      <c r="H42">
+        <v>32.67</v>
+      </c>
+      <c r="I42">
+        <v>32.853000000000002</v>
+      </c>
+      <c r="J42">
+        <v>33.067</v>
+      </c>
+      <c r="K42">
+        <v>33.313000000000002</v>
+      </c>
+      <c r="L42">
+        <v>33.588999999999999</v>
+      </c>
+      <c r="M42">
+        <v>33.896999999999998</v>
+      </c>
+      <c r="N42">
+        <v>34.238</v>
+      </c>
+      <c r="O42">
+        <v>34.61</v>
+      </c>
+      <c r="P42">
+        <v>35.015000000000001</v>
+      </c>
+      <c r="Q42">
+        <v>35.451999999999998</v>
+      </c>
+      <c r="R42">
+        <v>35.923000000000002</v>
+      </c>
+      <c r="S42">
+        <v>36.426000000000002</v>
+      </c>
+      <c r="T42">
+        <v>36.962000000000003</v>
+      </c>
+      <c r="U42">
+        <v>37.531999999999996</v>
+      </c>
+      <c r="V42">
+        <v>38.133000000000003</v>
+      </c>
+      <c r="W42">
+        <v>38.765000000000001</v>
+      </c>
+      <c r="X42">
+        <v>39.402999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>40.043999999999997</v>
+      </c>
+      <c r="Z42">
+        <v>40.689</v>
+      </c>
+      <c r="AA42">
+        <v>41.337000000000003</v>
+      </c>
+      <c r="AB42">
+        <v>41.988999999999997</v>
+      </c>
+      <c r="AC42">
+        <v>42.643000000000001</v>
+      </c>
+      <c r="AD42">
+        <v>43.298999999999999</v>
+      </c>
+      <c r="AE42">
+        <v>43.957999999999998</v>
+      </c>
+      <c r="AF42">
+        <v>44.619</v>
+      </c>
+      <c r="AG42">
+        <v>45.281999999999996</v>
+      </c>
+      <c r="AH42">
+        <v>45.947000000000003</v>
+      </c>
+      <c r="AI42">
+        <v>46.612000000000016</v>
+      </c>
+      <c r="AJ42">
+        <v>47.277000000000022</v>
+      </c>
+      <c r="AK42">
+        <v>47.942000000000036</v>
+      </c>
+      <c r="AL42">
+        <v>48.607000000000042</v>
+      </c>
+      <c r="AM42">
+        <v>49.272000000000055</v>
+      </c>
+      <c r="AN42">
+        <v>49.937000000000062</v>
+      </c>
+      <c r="AO42">
+        <v>50.602000000000082</v>
+      </c>
+      <c r="AP42">
+        <v>51.267000000000095</v>
+      </c>
+      <c r="AQ42">
+        <v>51.932000000000109</v>
+      </c>
+      <c r="AR42">
+        <v>52.597000000000129</v>
+      </c>
+      <c r="AS42">
+        <v>53.262000000000143</v>
+      </c>
+      <c r="AT42">
+        <v>53.927000000000156</v>
+      </c>
+      <c r="AU42">
+        <v>54.592000000000176</v>
+      </c>
+      <c r="AV42">
+        <v>55.25700000000019</v>
+      </c>
+      <c r="AW42">
+        <v>55.922000000000203</v>
+      </c>
+      <c r="AX42">
+        <v>56.587000000000224</v>
+      </c>
+      <c r="AY42">
+        <v>57.252000000000237</v>
+      </c>
+      <c r="AZ42">
+        <v>57.91700000000025</v>
+      </c>
+      <c r="BA42">
+        <v>58.582000000000264</v>
+      </c>
+      <c r="BB42">
+        <v>59.247000000000284</v>
+      </c>
+      <c r="BC42">
+        <v>59.912000000000297</v>
+      </c>
+      <c r="BD42">
+        <v>60.577000000000311</v>
+      </c>
+      <c r="BE42">
+        <v>61.242000000000331</v>
+      </c>
+      <c r="BF42">
+        <v>61.907000000000345</v>
+      </c>
+      <c r="BG42">
+        <v>62.572000000000358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SourceData/rapid/RPModData.xlsx
+++ b/SourceData/rapid/RPModData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\rapid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43B7850-C8A3-4D47-9E69-AF30A225B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD262E80-5CAB-4DAC-8348-2D3C1F3B6093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B8C9F00-E09E-4752-9D15-A778954EC9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryDefaultsDB" sheetId="1" r:id="rId1"/>
@@ -996,12 +996,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1017,13 +1023,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E9563F-74D8-43BC-A614-79D5A72BD767}">
   <dimension ref="A1:CB42"/>
   <sheetViews>
-    <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BN1" sqref="BN1:BN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,6 +1385,7 @@
     <col min="30" max="30" width="12.5546875" customWidth="1"/>
     <col min="31" max="31" width="13.88671875" customWidth="1"/>
     <col min="32" max="32" width="13.5546875" customWidth="1"/>
+    <col min="33" max="35" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -1474,13 +1485,13 @@
       <c r="AF1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>119</v>
       </c>
       <c r="AJ1" s="1" t="s">
@@ -1716,13 +1727,13 @@
       <c r="AF2">
         <v>33.5</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="5">
         <v>10.25</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="5">
         <v>11.31</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ2" t="s">
@@ -1952,13 +1963,13 @@
       <c r="AF3">
         <v>26.77</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="5">
         <v>-59</v>
       </c>
       <c r="AJ3">
@@ -2188,13 +2199,13 @@
       <c r="AF4">
         <v>35.1</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="5">
         <v>4.9400000000000004</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="5">
         <v>9.8800000000000008</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="5">
         <v>-68</v>
       </c>
       <c r="AJ4">
@@ -2424,13 +2435,13 @@
       <c r="AF5">
         <v>10.99</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="5">
         <v>10.25</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="5">
         <v>11.35</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ5" t="s">
@@ -2660,13 +2671,13 @@
       <c r="AF6">
         <v>23.12</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="5">
         <v>16.13</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="5">
         <v>19.93</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ6" t="s">
@@ -2896,13 +2907,13 @@
       <c r="AF7">
         <v>26.6</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="5">
         <v>12.93</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="5">
         <v>31.25</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ7" t="s">
@@ -3132,13 +3143,13 @@
       <c r="AF8" t="s">
         <v>184</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="5">
         <v>6.64</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="5">
         <v>13.28</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI8" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ8" t="s">
@@ -3368,13 +3379,13 @@
       <c r="AF9">
         <v>19.260000000000002</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="5">
         <v>5.45</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="5">
         <v>17.77</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="5">
         <v>-20</v>
       </c>
       <c r="AJ9">
@@ -3604,13 +3615,13 @@
       <c r="AF10">
         <v>27.28</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="5">
         <v>13.28</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="5">
         <v>18.850000000000001</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="5">
         <v>47</v>
       </c>
       <c r="AJ10">
@@ -3840,13 +3851,13 @@
       <c r="AF11">
         <v>14.24</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="5">
         <v>7.19</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="5">
         <v>5.29</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI11" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ11" t="s">
@@ -4076,13 +4087,13 @@
       <c r="AF12">
         <v>15.16</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="5">
         <v>9.85</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="5">
         <v>13.8</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI12" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ12" t="s">
@@ -4312,13 +4323,13 @@
       <c r="AF13" t="s">
         <v>184</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="5">
         <v>7.88</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="5">
         <v>16.760000000000002</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="5">
         <v>-71</v>
       </c>
       <c r="AJ13">
@@ -4548,13 +4559,13 @@
       <c r="AF14">
         <v>15.17</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="5">
         <v>6.44</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="5">
         <v>19.96</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="5">
         <v>-68</v>
       </c>
       <c r="AJ14">
@@ -4784,13 +4795,13 @@
       <c r="AF15">
         <v>10.49</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="5">
         <v>11.88</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="5">
         <v>5.42</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="5">
         <v>-74</v>
       </c>
       <c r="AJ15">
@@ -5020,13 +5031,13 @@
       <c r="AF16" t="s">
         <v>184</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="5">
         <v>6.81</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="5">
         <v>8.25</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AI16" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ16" t="s">
@@ -5256,13 +5267,13 @@
       <c r="AF17" t="s">
         <v>184</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AH17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AI17" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ17" t="s">
@@ -5492,13 +5503,13 @@
       <c r="AF18">
         <v>28.52</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="5">
         <v>9.7899999999999991</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="5">
         <v>16.850000000000001</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="5">
         <v>-60</v>
       </c>
       <c r="AJ18">
@@ -5728,13 +5739,13 @@
       <c r="AF19">
         <v>12.26</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="5">
         <v>13.31</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="5">
         <v>15.59</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="5">
         <v>-67</v>
       </c>
       <c r="AJ19">
@@ -5964,13 +5975,13 @@
       <c r="AF20">
         <v>30</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="5">
         <v>10.95</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="5">
         <v>21.9</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="5">
         <v>-36</v>
       </c>
       <c r="AJ20">
@@ -6206,13 +6217,13 @@
       <c r="AF21">
         <v>18.39</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="5">
         <v>14.5</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="5">
         <v>17.73</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AI21" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ21" t="s">
@@ -6442,13 +6453,13 @@
       <c r="AF22">
         <v>19.3</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="5">
         <v>6.57</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="5">
         <v>8.41</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AI22" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ22" t="s">
@@ -6678,13 +6689,13 @@
       <c r="AF23">
         <v>72.31</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="5">
         <v>8.16</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="5">
         <v>24.03</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AI23" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ23" t="s">
@@ -6914,13 +6925,13 @@
       <c r="AF24">
         <v>17.43</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="5">
         <v>12.34</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="5">
         <v>25.5</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AI24" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ24" t="s">
@@ -7150,13 +7161,13 @@
       <c r="AF25">
         <v>25.92</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="5">
         <v>10.18</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="5">
         <v>14.17</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AI25" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ25" t="s">
@@ -7386,13 +7397,13 @@
       <c r="AF26">
         <v>36.54</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="5">
         <v>14.65</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="5">
         <v>50.24</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AI26" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ26" t="s">
@@ -7622,13 +7633,13 @@
       <c r="AF27">
         <v>28.26</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="5">
         <v>12.36</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="5">
         <v>10.45</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AI27" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ27" t="s">
@@ -7858,13 +7869,13 @@
       <c r="AF28">
         <v>29.73</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="5">
         <v>13.3</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="5">
         <v>17.14</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AI28" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ28" t="s">
@@ -8094,13 +8105,13 @@
       <c r="AF29" t="s">
         <v>184</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG29" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AH29" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="5">
         <v>-71</v>
       </c>
       <c r="AJ29">
@@ -8330,13 +8341,13 @@
       <c r="AF30">
         <v>20.399999999999999</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="5">
         <v>8.1</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="5">
         <v>16.02</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AI30" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ30" t="s">
@@ -8566,13 +8577,13 @@
       <c r="AF31">
         <v>23.88</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG31" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AH31" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AI31">
+      <c r="AI31" s="5">
         <v>-75</v>
       </c>
       <c r="AJ31">
@@ -8802,13 +8813,13 @@
       <c r="AF32">
         <v>28.25</v>
       </c>
-      <c r="AG32">
+      <c r="AG32" s="5">
         <v>4.26</v>
       </c>
-      <c r="AH32">
+      <c r="AH32" s="5">
         <v>21.67</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AI32" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ32" t="s">
@@ -9038,13 +9049,13 @@
       <c r="AF33">
         <v>18.88</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="5">
         <v>10.9</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="5">
         <v>11.42</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AI33" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ33" t="s">
@@ -9274,13 +9285,13 @@
       <c r="AF34">
         <v>22.04</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="5">
         <v>12.37</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="5">
         <v>14.27</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AI34" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ34" t="s">
@@ -9510,13 +9521,13 @@
       <c r="AF35">
         <v>27.47</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="5">
         <v>4.58</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="5">
         <v>11.95</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AI35" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ35" t="s">
@@ -9746,13 +9757,13 @@
       <c r="AF36">
         <v>20.86</v>
       </c>
-      <c r="AG36">
+      <c r="AG36" s="5">
         <v>9.52</v>
       </c>
-      <c r="AH36">
+      <c r="AH36" s="5">
         <v>14.95</v>
       </c>
-      <c r="AI36">
+      <c r="AI36" s="5">
         <v>-70</v>
       </c>
       <c r="AJ36">
@@ -9982,13 +9993,13 @@
       <c r="AF37">
         <v>26.55</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" s="5">
         <v>8.34</v>
       </c>
-      <c r="AH37">
+      <c r="AH37" s="5">
         <v>7.92</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AI37" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ37" t="s">
@@ -10218,13 +10229,13 @@
       <c r="AF38" t="s">
         <v>184</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" s="5">
         <v>16.16</v>
       </c>
-      <c r="AH38">
+      <c r="AH38" s="5">
         <v>15.26</v>
       </c>
-      <c r="AI38" t="s">
+      <c r="AI38" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ38" t="s">
@@ -10454,13 +10465,13 @@
       <c r="AF39" t="s">
         <v>184</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="5">
         <v>5.62</v>
       </c>
-      <c r="AH39">
+      <c r="AH39" s="5">
         <v>11.24</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AI39" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ39" t="s">
@@ -10690,13 +10701,13 @@
       <c r="AF40" t="s">
         <v>184</v>
       </c>
-      <c r="AG40">
+      <c r="AG40" s="5">
         <v>18.059999999999999</v>
       </c>
-      <c r="AH40">
+      <c r="AH40" s="5">
         <v>11.77</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AI40" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ40" t="s">
@@ -10926,13 +10937,13 @@
       <c r="AF41" t="s">
         <v>184</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" s="5">
         <v>12.89</v>
       </c>
-      <c r="AH41">
+      <c r="AH41" s="5">
         <v>25.78</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AI41" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ41" t="s">
@@ -11162,13 +11173,13 @@
       <c r="AF42" t="s">
         <v>184</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" s="5">
         <v>14</v>
       </c>
-      <c r="AH42">
+      <c r="AH42" s="5">
         <v>22.24</v>
       </c>
-      <c r="AI42" t="s">
+      <c r="AI42" s="5" t="s">
         <v>185</v>
       </c>
       <c r="AJ42" t="s">
@@ -66018,8 +66029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EE97CD-252D-459B-A7CC-E7804833E17F}">
   <dimension ref="A1:BG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
